--- a/data_clean/Equinor 16.12.2020.xlsx
+++ b/data_clean/Equinor 16.12.2020.xlsx
@@ -1677,7 +1677,7 @@
         <v>0.9427829298002462</v>
       </c>
       <c r="K2">
-        <v>47.11994417310635</v>
+        <v>-0.02880055826893585</v>
       </c>
       <c r="L2">
         <v>-0.00236227921516452</v>
@@ -1707,13 +1707,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1748,7 +1748,7 @@
         <v>0.9427829298002462</v>
       </c>
       <c r="K3">
-        <v>47.11994417310635</v>
+        <v>-0.02880055826893585</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1778,13 +1778,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L4">
         <v>-0.008061844185815863</v>
@@ -1849,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.9995480225988701</v>
+        <v>-0.0004519774011298994</v>
       </c>
       <c r="V4">
-        <v>0.9995480225988701</v>
+        <v>-0.0004519774011298994</v>
       </c>
       <c r="W4">
-        <v>0.9986440677966103</v>
+        <v>-0.001355932203389698</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L5">
         <v>-0.009791470368288351</v>
@@ -1920,13 +1920,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.9997739091114628</v>
+        <v>-0.0002260908885372004</v>
       </c>
       <c r="V5">
-        <v>0.9997739091114628</v>
+        <v>-0.0002260908885372004</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1961,7 +1961,7 @@
         <v>0.2770083102492288</v>
       </c>
       <c r="K6">
-        <v>21.69197396962642</v>
+        <v>-0.2830802603037358</v>
       </c>
       <c r="L6">
         <v>-0.009171732311718665</v>
@@ -1991,13 +1991,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.999932157394844</v>
+        <v>-6.784260515602103E-05</v>
       </c>
       <c r="V6">
-        <v>0.999932157394844</v>
+        <v>-6.784260515602103E-05</v>
       </c>
       <c r="W6">
-        <v>1.000339443312967</v>
+        <v>0.0003394433129666474</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -2032,7 +2032,7 @@
         <v>0.1278686318056033</v>
       </c>
       <c r="K7">
-        <v>11.33719195655779</v>
+        <v>-0.3866280804344221</v>
       </c>
       <c r="L7">
         <v>-0.01014473008844867</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.9997286111676503</v>
+        <v>-0.0002713888323496727</v>
       </c>
       <c r="V7">
-        <v>0.9997286111676503</v>
+        <v>-0.0002713888323496727</v>
       </c>
       <c r="W7">
-        <v>0.998642687478792</v>
+        <v>-0.001357312521207965</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2103,7 +2103,7 @@
         <v>0.6945994098915409</v>
       </c>
       <c r="K8">
-        <v>40.98900340913002</v>
+        <v>-0.0901099659086998</v>
       </c>
       <c r="L8">
         <v>-0.009483447103162495</v>
@@ -2133,13 +2133,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>1.00135915732246</v>
+        <v>0.001359157322460058</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2174,7 +2174,7 @@
         <v>1.142018445222587</v>
       </c>
       <c r="K9">
-        <v>53.31506121105854</v>
+        <v>0.03315061211058545</v>
       </c>
       <c r="L9">
         <v>-0.007474249820305812</v>
@@ -2204,13 +2204,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.000127248048863</v>
+        <v>0.0001272480488634375</v>
       </c>
       <c r="V9">
-        <v>1.000127248048863</v>
+        <v>0.0001272480488634375</v>
       </c>
       <c r="W9">
-        <v>1.001017984390906</v>
+        <v>0.001017984390905946</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2245,7 +2245,7 @@
         <v>0.5880827917715795</v>
       </c>
       <c r="K10">
-        <v>37.03099075304166</v>
+        <v>-0.1296900924695834</v>
       </c>
       <c r="L10">
         <v>-0.006877507522299942</v>
@@ -2275,13 +2275,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U10">
-        <v>0.9998727681411427</v>
+        <v>-0.000127231858857324</v>
       </c>
       <c r="V10">
-        <v>0.9998727681411427</v>
+        <v>-0.000127231858857324</v>
       </c>
       <c r="W10">
-        <v>0.9979661016949152</v>
+        <v>-0.002033898305084825</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2316,7 +2316,7 @@
         <v>0.843372084149746</v>
       </c>
       <c r="K11">
-        <v>45.75159249733082</v>
+        <v>-0.04248407502669183</v>
       </c>
       <c r="L11">
         <v>-0.006129867192511003</v>
@@ -2346,13 +2346,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U11">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V11">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W11">
-        <v>1.00101902173913</v>
+        <v>0.001019021739130377</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2387,7 +2387,7 @@
         <v>0.715237087663906</v>
       </c>
       <c r="K12">
-        <v>41.69902183248815</v>
+        <v>-0.08300978167511852</v>
       </c>
       <c r="L12">
         <v>-0.005786249745913947</v>
@@ -2417,13 +2417,13 @@
         <v>-0.03465909090908781</v>
       </c>
       <c r="U12">
-        <v>0.9999383039763088</v>
+        <v>-6.169602369121563E-05</v>
       </c>
       <c r="V12">
-        <v>0.9999383039763088</v>
+        <v>-6.169602369121563E-05</v>
       </c>
       <c r="W12">
-        <v>0.9993213437393961</v>
+        <v>-0.000678656260603927</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2458,7 +2458,7 @@
         <v>0.715237087663906</v>
       </c>
       <c r="K13">
-        <v>41.69902183248815</v>
+        <v>-0.08300978167511852</v>
       </c>
       <c r="L13">
         <v>-0.005619193076585035</v>
@@ -2488,13 +2488,13 @@
         <v>-0.03333333333333144</v>
       </c>
       <c r="U13">
-        <v>0.9999485834747288</v>
+        <v>-5.141652527118623E-05</v>
       </c>
       <c r="V13">
-        <v>0.9999485834747288</v>
+        <v>-5.141652527118623E-05</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2529,7 +2529,7 @@
         <v>1.051927945968779</v>
       </c>
       <c r="K14">
-        <v>51.26534525909637</v>
+        <v>0.01265345259096373</v>
       </c>
       <c r="L14">
         <v>-0.004806925234941004</v>
@@ -2559,13 +2559,13 @@
         <v>-0.02980769230768487</v>
       </c>
       <c r="U14">
-        <v>1.00006091193874</v>
+        <v>6.091193873980494E-05</v>
       </c>
       <c r="V14">
-        <v>1.00006091193874</v>
+        <v>6.091193873980494E-05</v>
       </c>
       <c r="W14">
-        <v>1.001358234295416</v>
+        <v>0.001358234295415928</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2600,7 +2600,7 @@
         <v>1.140530803417455</v>
       </c>
       <c r="K15">
-        <v>53.2826157697215</v>
+        <v>0.03282615769721497</v>
       </c>
       <c r="L15">
         <v>-0.003565063466715463</v>
@@ -2630,13 +2630,13 @@
         <v>0.002678571428560872</v>
       </c>
       <c r="U15">
-        <v>1.000076446042146</v>
+        <v>7.64460421460722E-05</v>
       </c>
       <c r="V15">
-        <v>1.000076446042146</v>
+        <v>7.64460421460722E-05</v>
       </c>
       <c r="W15">
-        <v>1.000339097999322</v>
+        <v>0.0003390979993218579</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2671,7 +2671,7 @@
         <v>1.043232507474711</v>
       </c>
       <c r="K16">
-        <v>51.05794390302021</v>
+        <v>0.01057943903020209</v>
       </c>
       <c r="L16">
         <v>-0.002358581661046683</v>
@@ -2701,13 +2701,13 @@
         <v>0.00874999999996362</v>
       </c>
       <c r="U16">
-        <v>1.000043626845052</v>
+        <v>4.362684505210268E-05</v>
       </c>
       <c r="V16">
-        <v>1.000043626845052</v>
+        <v>4.362684505210268E-05</v>
       </c>
       <c r="W16">
-        <v>0.9996610169491524</v>
+        <v>-0.0003389830508475633</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2742,7 +2742,7 @@
         <v>1.31263143623716</v>
       </c>
       <c r="K17">
-        <v>56.75921444590058</v>
+        <v>0.06759214445900585</v>
       </c>
       <c r="L17">
         <v>-0.0008016233975364522</v>
@@ -2772,13 +2772,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U17">
-        <v>1.000101791530944</v>
+        <v>0.0001017915309444728</v>
       </c>
       <c r="V17">
-        <v>1.00004524068042</v>
+        <v>4.524068041988905E-05</v>
       </c>
       <c r="W17">
-        <v>1.001017293997965</v>
+        <v>0.001017293997965352</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2813,7 +2813,7 @@
         <v>1.31263143623716</v>
       </c>
       <c r="K18">
-        <v>56.75921444590058</v>
+        <v>0.06759214445900585</v>
       </c>
       <c r="L18">
         <v>0.0008203053250951798</v>
@@ -2843,13 +2843,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U18">
-        <v>1.000089806915132</v>
+        <v>8.980691513227335E-05</v>
       </c>
       <c r="V18">
-        <v>1.000045238633793</v>
+        <v>4.523863379324311E-05</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2884,7 +2884,7 @@
         <v>1.193842887736089</v>
       </c>
       <c r="K19">
-        <v>54.41788445334213</v>
+        <v>0.04417884453342125</v>
       </c>
       <c r="L19">
         <v>0.002203939942306989</v>
@@ -2914,13 +2914,13 @@
         <v>0.07187500000000568</v>
       </c>
       <c r="U19">
-        <v>1.000060974528168</v>
+        <v>6.097452816811177E-05</v>
       </c>
       <c r="V19">
-        <v>1.00011309146838</v>
+        <v>0.000113091468379567</v>
       </c>
       <c r="W19">
-        <v>0.9996612466124662</v>
+        <v>-0.0003387533875337523</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2955,7 +2955,7 @@
         <v>1.479621303331601</v>
       </c>
       <c r="K20">
-        <v>59.67126114554641</v>
+        <v>0.09671261145546406</v>
       </c>
       <c r="L20">
         <v>0.003762935017229152</v>
@@ -2985,13 +2985,13 @@
         <v>0.1031250000000057</v>
       </c>
       <c r="U20">
-        <v>1.000108113791253</v>
+        <v>0.0001081137912528618</v>
       </c>
       <c r="V20">
-        <v>1.000180925888233</v>
+        <v>0.0001809258882330411</v>
       </c>
       <c r="W20">
-        <v>1.001016604540834</v>
+        <v>0.001016604540833521</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -3026,7 +3026,7 @@
         <v>1.232456721470592</v>
       </c>
       <c r="K21">
-        <v>55.20629849696403</v>
+        <v>0.05206298496964035</v>
       </c>
       <c r="L21">
         <v>0.005014916136050044</v>
@@ -3056,13 +3056,13 @@
         <v>0.1281250000000114</v>
       </c>
       <c r="U21">
-        <v>1.000063373618723</v>
+        <v>6.337361872299496E-05</v>
       </c>
       <c r="V21">
-        <v>1.000113058224986</v>
+        <v>0.0001130582249859735</v>
       </c>
       <c r="W21">
-        <v>0.9993229519295871</v>
+        <v>-0.0006770480704129112</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -3097,7 +3097,7 @@
         <v>1.320375584046602</v>
       </c>
       <c r="K22">
-        <v>56.90352859789804</v>
+        <v>0.06903528597898034</v>
       </c>
       <c r="L22">
         <v>0.006116899604688986</v>
@@ -3127,13 +3127,13 @@
         <v>0.1343749999999773</v>
       </c>
       <c r="U22">
-        <v>1.000073484938414</v>
+        <v>7.348493841408121E-05</v>
       </c>
       <c r="V22">
-        <v>1.000226090888537</v>
+        <v>0.0002260908885372004</v>
       </c>
       <c r="W22">
-        <v>1.000338753387534</v>
+        <v>0.0003387533875338633</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3168,7 +3168,7 @@
         <v>1.783106439709704</v>
       </c>
       <c r="K23">
-        <v>64.06892723426321</v>
+        <v>0.1406892723426322</v>
       </c>
       <c r="L23">
         <v>0.007697277488140844</v>
@@ -3198,13 +3198,13 @@
         <v>0.1374999999999886</v>
       </c>
       <c r="U23">
-        <v>1.000143876019978</v>
+        <v>0.0001438760199783395</v>
       </c>
       <c r="V23">
-        <v>1.000248643761302</v>
+        <v>0.0002486437613020698</v>
       </c>
       <c r="W23">
-        <v>1.001693193362682</v>
+        <v>0.001693193362682033</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3239,7 +3239,7 @@
         <v>1.783106439709704</v>
       </c>
       <c r="K24">
-        <v>64.06892723426321</v>
+        <v>0.1406892723426322</v>
       </c>
       <c r="L24">
         <v>0.009414513227746814</v>
@@ -3269,13 +3269,13 @@
         <v>0.1593749999999829</v>
       </c>
       <c r="U24">
-        <v>1.000131346164156</v>
+        <v>0.0001313461641558877</v>
       </c>
       <c r="V24">
-        <v>1.000180786874873</v>
+        <v>0.0001807868748728847</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3310,7 +3310,7 @@
         <v>1.617265216955939</v>
       </c>
       <c r="K25">
-        <v>61.79217935112173</v>
+        <v>0.1179217935112173</v>
       </c>
       <c r="L25">
         <v>0.0109264326833823</v>
@@ -3340,13 +3340,13 @@
         <v>0.1687499999999886</v>
       </c>
       <c r="U25">
-        <v>1.00010625804613</v>
+        <v>0.0001062580461295148</v>
       </c>
       <c r="V25">
-        <v>1.00029372556994</v>
+        <v>0.0002937255699402286</v>
       </c>
       <c r="W25">
-        <v>0.9996619337390128</v>
+        <v>-0.000338066260987202</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3381,7 +3381,7 @@
         <v>1.81306924107267</v>
       </c>
       <c r="K26">
-        <v>64.45163931980986</v>
+        <v>0.1445163931980986</v>
       </c>
       <c r="L26">
         <v>0.0124315883100105</v>
@@ -3411,13 +3411,13 @@
         <v>0.1656250000000341</v>
       </c>
       <c r="U26">
-        <v>1.000124867575394</v>
+        <v>0.0001248675753935391</v>
       </c>
       <c r="V26">
-        <v>1.00027105168052</v>
+        <v>0.0002710516805204399</v>
       </c>
       <c r="W26">
-        <v>1.000676361176868</v>
+        <v>0.000676361176868312</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3452,7 +3452,7 @@
         <v>1.503237676571087</v>
       </c>
       <c r="K27">
-        <v>60.05173582359183</v>
+        <v>0.1005173582359182</v>
       </c>
       <c r="L27">
         <v>0.01352694291067451</v>
@@ -3482,13 +3482,13 @@
         <v>0.171875</v>
       </c>
       <c r="U27">
-        <v>1.000089173781448</v>
+        <v>8.917378144834842E-05</v>
       </c>
       <c r="V27">
-        <v>1.000270978231416</v>
+        <v>0.0002709782314156417</v>
       </c>
       <c r="W27">
-        <v>0.9993240959783711</v>
+        <v>-0.0006759040216288703</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3523,7 +3523,7 @@
         <v>1.503237676571087</v>
       </c>
       <c r="K28">
-        <v>60.05173582359182</v>
+        <v>0.1005173582359182</v>
       </c>
       <c r="L28">
         <v>0.01425493504614151</v>
@@ -3553,13 +3553,13 @@
         <v>0.1531249999999886</v>
       </c>
       <c r="U28">
-        <v>1.000082560953883</v>
+        <v>8.256095388303741E-05</v>
       </c>
       <c r="V28">
-        <v>1.000270904822106</v>
+        <v>0.0002709048221056776</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3594,7 +3594,7 @@
         <v>1.597912404044517</v>
       </c>
       <c r="K29">
-        <v>61.50755512606328</v>
+        <v>0.1150755512606328</v>
       </c>
       <c r="L29">
         <v>0.01478929421053294</v>
@@ -3624,13 +3624,13 @@
         <v>0.1499999999999773</v>
       </c>
       <c r="U29">
-        <v>1.00008876121619</v>
+        <v>8.876121619016963E-05</v>
       </c>
       <c r="V29">
-        <v>1.00020312358942</v>
+        <v>0.0002031235894197625</v>
       </c>
       <c r="W29">
-        <v>1.000338180588434</v>
+        <v>0.000338180588434378</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3665,7 +3665,7 @@
         <v>1.597912404044518</v>
       </c>
       <c r="K30">
-        <v>61.50755512606329</v>
+        <v>0.1150755512606328</v>
       </c>
       <c r="L30">
         <v>0.01511728662177176</v>
@@ -3695,13 +3695,13 @@
         <v>0.1531250000000171</v>
       </c>
       <c r="U30">
-        <v>1.00008263241845</v>
+        <v>8.263241845041236E-05</v>
       </c>
       <c r="V30">
-        <v>1.000180517634316</v>
+        <v>0.0001805176343161463</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3736,7 +3736,7 @@
         <v>1.597912404044518</v>
       </c>
       <c r="K31">
-        <v>61.50755512606329</v>
+        <v>0.1150755512606328</v>
       </c>
       <c r="L31">
         <v>0.0152437590760142</v>
@@ -3766,13 +3766,13 @@
         <v>0.1281249999999829</v>
       </c>
       <c r="U31">
-        <v>1.000077117218172</v>
+        <v>7.711721817194039E-05</v>
       </c>
       <c r="V31">
-        <v>1.000203045685279</v>
+        <v>0.0002030456852792906</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3807,7 +3807,7 @@
         <v>1.818760288513749</v>
       </c>
       <c r="K32">
-        <v>64.52341108696152</v>
+        <v>0.1452341108696151</v>
       </c>
       <c r="L32">
         <v>0.01543535340080521</v>
@@ -3837,13 +3837,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U32">
-        <v>1.000112940751282</v>
+        <v>0.0001129407512818759</v>
       </c>
       <c r="V32">
-        <v>1.00018044841431</v>
+        <v>0.0001804484143095308</v>
       </c>
       <c r="W32">
-        <v>1.000676132521974</v>
+        <v>0.0006761325219741821</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3878,7 +3878,7 @@
         <v>1.629369354342374</v>
       </c>
       <c r="K33">
-        <v>61.96806666402682</v>
+        <v>0.1196806666402682</v>
       </c>
       <c r="L33">
         <v>0.01547090519071114</v>
@@ -3908,13 +3908,13 @@
         <v>0.09687499999998295</v>
       </c>
       <c r="U33">
-        <v>1.000101635197398</v>
+        <v>0.0001016351973981422</v>
       </c>
       <c r="V33">
-        <v>1.000157863876235</v>
+        <v>0.0001578638762345097</v>
       </c>
       <c r="W33">
-        <v>0.9996621621621621</v>
+        <v>-0.0003378378378379177</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3949,7 +3949,7 @@
         <v>1.336397572968242</v>
       </c>
       <c r="K34">
-        <v>57.19906528024831</v>
+        <v>0.07199065280248307</v>
       </c>
       <c r="L34">
         <v>0.0151032952443814</v>
@@ -3979,13 +3979,13 @@
         <v>0.06874999999996589</v>
       </c>
       <c r="U34">
-        <v>1.000124208172898</v>
+        <v>0.0001242081728975997</v>
       </c>
       <c r="V34">
-        <v>1.000135290536427</v>
+        <v>0.0001352905364271351</v>
       </c>
       <c r="W34">
-        <v>0.9993240959783711</v>
+        <v>-0.0006759040216288703</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -4020,7 +4020,7 @@
         <v>1.525667948032676</v>
       </c>
       <c r="K35">
-        <v>60.40651342236289</v>
+        <v>0.104065134223629</v>
       </c>
       <c r="L35">
         <v>0.01471031676526569</v>
@@ -4050,13 +4050,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U35">
-        <v>1.000146773246624</v>
+        <v>0.0001467732466244875</v>
       </c>
       <c r="V35">
-        <v>1.000112726862812</v>
+        <v>0.0001127268628116074</v>
       </c>
       <c r="W35">
-        <v>1.000676361176868</v>
+        <v>0.000676361176868312</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -4091,7 +4091,7 @@
         <v>1.387455226407812</v>
       </c>
       <c r="K36">
-        <v>58.11439775125711</v>
+        <v>0.08114397751257107</v>
       </c>
       <c r="L36">
         <v>0.01414871128520353</v>
@@ -4121,13 +4121,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U36">
-        <v>1.000124174521646</v>
+        <v>0.0001241745216458146</v>
       </c>
       <c r="V36">
-        <v>1.000135256988278</v>
+        <v>0.0001352569882777654</v>
       </c>
       <c r="W36">
-        <v>0.9996620479891857</v>
+        <v>-0.0003379520108143241</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -4162,7 +4162,7 @@
         <v>1.165224547880684</v>
       </c>
       <c r="K37">
-        <v>53.81541369560043</v>
+        <v>0.03815413695600423</v>
       </c>
       <c r="L37">
         <v>0.01322113326430159</v>
@@ -4192,13 +4192,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U37">
-        <v>1.000146733486839</v>
+        <v>0.0001467334868392456</v>
       </c>
       <c r="V37">
-        <v>1.000067619348149</v>
+        <v>6.761934814925041E-05</v>
       </c>
       <c r="W37">
-        <v>0.9993238674780257</v>
+        <v>-0.0006761325219742931</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4233,7 +4233,7 @@
         <v>0.9971102634668045</v>
       </c>
       <c r="K38">
-        <v>49.92765205341794</v>
+        <v>-0.0007234794658205757</v>
       </c>
       <c r="L38">
         <v>0.01183581591480371</v>
@@ -4263,13 +4263,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U38">
-        <v>1.000078998747306</v>
+        <v>7.899874730554757E-05</v>
       </c>
       <c r="V38">
-        <v>0.9999098469652236</v>
+        <v>-9.015303477644121E-05</v>
       </c>
       <c r="W38">
-        <v>0.9993234100135316</v>
+        <v>-0.0006765899864683567</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4304,7 +4304,7 @@
         <v>0.8121082111156804</v>
       </c>
       <c r="K39">
-        <v>44.81565759341054</v>
+        <v>-0.05184342406589459</v>
       </c>
       <c r="L39">
         <v>0.009848080977390473</v>
@@ -4334,13 +4334,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U39">
-        <v>1.000011284643857</v>
+        <v>1.128464385691252E-05</v>
       </c>
       <c r="V39">
-        <v>0.9998422179646117</v>
+        <v>-0.0001577820353882986</v>
       </c>
       <c r="W39">
-        <v>0.9989844278943807</v>
+        <v>-0.001015572105619311</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4375,7 +4375,7 @@
         <v>0.718551223715575</v>
       </c>
       <c r="K40">
-        <v>41.81145221624755</v>
+        <v>-0.08188547783752453</v>
       </c>
       <c r="L40">
         <v>0.007340425903909415</v>
@@ -4405,13 +4405,13 @@
         <v>-0.06562499999998295</v>
       </c>
       <c r="U40">
-        <v>1.000056422582574</v>
+        <v>5.642258257432253E-05</v>
       </c>
       <c r="V40">
-        <v>0.9998196492177287</v>
+        <v>-0.0001803507822712991</v>
       </c>
       <c r="W40">
-        <v>0.9993222636394441</v>
+        <v>-0.0006777363605559028</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4446,7 +4446,7 @@
         <v>0.6774739754300384</v>
       </c>
       <c r="K41">
-        <v>40.38655653399098</v>
+        <v>-0.09613443466009014</v>
       </c>
       <c r="L41">
         <v>0.004528754745894616</v>
@@ -4476,13 +4476,13 @@
         <v>-0.1062500000000171</v>
       </c>
       <c r="U41">
-        <v>1.000011283879849</v>
+        <v>1.128387984894452E-05</v>
       </c>
       <c r="V41">
-        <v>0.9997519729425028</v>
+        <v>-0.0002480270574971577</v>
       </c>
       <c r="W41">
-        <v>0.9996609020006784</v>
+        <v>-0.0003390979993216359</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4517,7 +4517,7 @@
         <v>0.8580005988406024</v>
       </c>
       <c r="K42">
-        <v>46.17870410676925</v>
+        <v>-0.03821295893230753</v>
       </c>
       <c r="L42">
         <v>0.002067560423981771</v>
@@ -4547,13 +4547,13 @@
         <v>-0.1187499999999773</v>
       </c>
       <c r="U42">
-        <v>1.000067702515149</v>
+        <v>6.770251514853776E-05</v>
       </c>
       <c r="V42">
-        <v>0.9998646789508108</v>
+        <v>-0.0001353210491892298</v>
       </c>
       <c r="W42">
-        <v>1.001017639077341</v>
+        <v>0.001017639077340649</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4588,7 +4588,7 @@
         <v>0.98468594860239</v>
       </c>
       <c r="K43">
-        <v>49.61419459314472</v>
+        <v>-0.003858054068552774</v>
       </c>
       <c r="L43">
         <v>0.000215170730598204</v>
@@ -4618,13 +4618,13 @@
         <v>-0.1437499999999829</v>
       </c>
       <c r="U43">
-        <v>1.000090263909104</v>
+        <v>9.026390910427118E-05</v>
       </c>
       <c r="V43">
-        <v>0.9999097737576973</v>
+        <v>-9.022624230270448E-05</v>
       </c>
       <c r="W43">
-        <v>1.000677736360556</v>
+        <v>0.0006777363605556808</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4659,7 +4659,7 @@
         <v>0.8688254663994786</v>
       </c>
       <c r="K44">
-        <v>46.49045520946252</v>
+        <v>-0.03509544790537483</v>
       </c>
       <c r="L44">
         <v>-0.00139846326490331</v>
@@ -4689,13 +4689,13 @@
         <v>-0.1687499999999886</v>
       </c>
       <c r="U44">
-        <v>1.000022563940566</v>
+        <v>2.256394056643352E-05</v>
       </c>
       <c r="V44">
-        <v>0.9998420898283295</v>
+        <v>-0.00015791017167055</v>
       </c>
       <c r="W44">
-        <v>0.9993227226549273</v>
+        <v>-0.0006772773450727243</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4730,7 +4730,7 @@
         <v>0.9307530294422541</v>
       </c>
       <c r="K45">
-        <v>48.20673671096739</v>
+        <v>-0.01793263289032609</v>
       </c>
       <c r="L45">
         <v>-0.002636049794583016</v>
@@ -4760,13 +4760,13 @@
         <v>-0.1750000000000114</v>
       </c>
       <c r="U45">
-        <v>1.000022563431447</v>
+        <v>2.256343144679818E-05</v>
       </c>
       <c r="V45">
-        <v>0.9998646270475157</v>
+        <v>-0.0001353729524843361</v>
       </c>
       <c r="W45">
-        <v>1.000338868180278</v>
+        <v>0.0003388681802778404</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4801,7 +4801,7 @@
         <v>0.995939937908371</v>
       </c>
       <c r="K46">
-        <v>49.89829197726552</v>
+        <v>-0.001017080227344869</v>
       </c>
       <c r="L46">
         <v>-0.003434030108658867</v>
@@ -4831,13 +4831,13 @@
         <v>-0.1656250000000057</v>
       </c>
       <c r="U46">
-        <v>1.000045125844699</v>
+        <v>4.512584469940073E-05</v>
       </c>
       <c r="V46">
-        <v>0.9998871739326655</v>
+        <v>-0.0001128260673345372</v>
       </c>
       <c r="W46">
-        <v>1.000338753387534</v>
+        <v>0.0003387533875338633</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4872,7 +4872,7 @@
         <v>1.064557736293718</v>
       </c>
       <c r="K47">
-        <v>51.56347616631957</v>
+        <v>0.01563476166319566</v>
       </c>
       <c r="L47">
         <v>-0.003779071013281011</v>
@@ -4902,13 +4902,13 @@
         <v>-0.1343750000000057</v>
       </c>
       <c r="U47">
-        <v>1.000022561904225</v>
+        <v>2.256190422467164E-05</v>
       </c>
       <c r="V47">
-        <v>0.999864593441809</v>
+        <v>-0.000135406558190998</v>
       </c>
       <c r="W47">
-        <v>1.000338638672536</v>
+        <v>0.0003386386725363622</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4943,7 +4943,7 @@
         <v>1.136786997752019</v>
       </c>
       <c r="K48">
-        <v>53.20076352710691</v>
+        <v>0.03200763527106909</v>
       </c>
       <c r="L48">
         <v>-0.003690718529269608</v>
@@ -4973,13 +4973,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U48">
-        <v>1.000033842092795</v>
+        <v>3.384209279500006E-05</v>
       </c>
       <c r="V48">
-        <v>0.9999097167362601</v>
+        <v>-9.028326373994311E-05</v>
       </c>
       <c r="W48">
-        <v>1.000338524035207</v>
+        <v>0.0003385240352065111</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -5014,7 +5014,7 @@
         <v>0.9867415029913843</v>
       </c>
       <c r="K49">
-        <v>49.66632556402902</v>
+        <v>-0.003336744359709765</v>
       </c>
       <c r="L49">
         <v>-0.003578866500663479</v>
@@ -5044,13 +5044,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U49">
-        <v>1.000022560631698</v>
+        <v>2.2560631697921E-05</v>
       </c>
       <c r="V49">
-        <v>0.9999097085844563</v>
+        <v>-9.029141554373066E-05</v>
       </c>
       <c r="W49">
-        <v>0.9993231810490694</v>
+        <v>-0.0006768189509306355</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -5085,7 +5085,7 @@
         <v>0.7323602814029043</v>
       </c>
       <c r="K50">
-        <v>42.27528703266174</v>
+        <v>-0.07724712967338265</v>
       </c>
       <c r="L50">
         <v>-0.004063661175495979</v>
@@ -5115,13 +5115,13 @@
         <v>-0.02187500000002274</v>
       </c>
       <c r="U50">
-        <v>0.9999323196318185</v>
+        <v>-6.768036818149969E-05</v>
       </c>
       <c r="V50">
-        <v>0.9997516761857462</v>
+        <v>-0.0002483238142537703</v>
       </c>
       <c r="W50">
-        <v>0.998306806637318</v>
+        <v>-0.001693193362682033</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -5156,7 +5156,7 @@
         <v>0.7323602814029043</v>
       </c>
       <c r="K51">
-        <v>42.27528703266174</v>
+        <v>-0.07724712967338265</v>
       </c>
       <c r="L51">
         <v>-0.004864102624324202</v>
@@ -5186,13 +5186,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U51">
-        <v>0.9999548767005846</v>
+        <v>-4.512329941541715E-05</v>
       </c>
       <c r="V51">
-        <v>0.9997741950051935</v>
+        <v>-0.0002258049948065111</v>
       </c>
       <c r="W51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5227,7 +5227,7 @@
         <v>0.8466203377807956</v>
       </c>
       <c r="K52">
-        <v>45.84701686965251</v>
+        <v>-0.04152983130347487</v>
       </c>
       <c r="L52">
         <v>-0.005540337667300011</v>
@@ -5257,13 +5257,13 @@
         <v>0</v>
       </c>
       <c r="U52">
-        <v>0.9999661559982851</v>
+        <v>-3.384400171491109E-05</v>
       </c>
       <c r="V52">
-        <v>0.999864486403469</v>
+        <v>-0.0001355135965309673</v>
       </c>
       <c r="W52">
-        <v>1.00067842605156</v>
+        <v>0.0006784260515604323</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5298,7 +5298,7 @@
         <v>0.8466203377807955</v>
       </c>
       <c r="K53">
-        <v>45.84701686965251</v>
+        <v>-0.04152983130347487</v>
       </c>
       <c r="L53">
         <v>-0.006078090904951003</v>
@@ -5328,13 +5328,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U53">
-        <v>0.9999097462742135</v>
+        <v>-9.025372578652657E-05</v>
       </c>
       <c r="V53">
-        <v>0.9999096453580304</v>
+        <v>-9.03546419696033E-05</v>
       </c>
       <c r="W53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5369,7 +5369,7 @@
         <v>0.909922308073274</v>
       </c>
       <c r="K54">
-        <v>47.64184931643643</v>
+        <v>-0.0235815068356357</v>
       </c>
       <c r="L54">
         <v>-0.006352249302647534</v>
@@ -5399,13 +5399,13 @@
         <v>0.003125000000011369</v>
       </c>
       <c r="U54">
-        <v>0.9999210208617753</v>
+        <v>-7.897913822474401E-05</v>
       </c>
       <c r="V54">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W54">
-        <v>1.000338983050848</v>
+        <v>0.0003389830508475633</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5440,7 +5440,7 @@
         <v>1.043189613952139</v>
       </c>
       <c r="K55">
-        <v>51.05691644224339</v>
+        <v>0.01056916442243394</v>
       </c>
       <c r="L55">
         <v>-0.00617947388818463</v>
@@ -5470,13 +5470,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U55">
-        <v>0.9999548654991874</v>
+        <v>-4.513450081256032E-05</v>
       </c>
       <c r="V55">
-        <v>1.000090362806669</v>
+        <v>9.036280666885332E-05</v>
       </c>
       <c r="W55">
-        <v>1.000677736360556</v>
+        <v>0.0006777363605556808</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5511,7 +5511,7 @@
         <v>1.043189613952139</v>
       </c>
       <c r="K56">
-        <v>51.05691644224339</v>
+        <v>0.01056916442243394</v>
       </c>
       <c r="L56">
         <v>-0.005724437351566663</v>
@@ -5541,13 +5541,13 @@
         <v>-0.03437499999998295</v>
       </c>
       <c r="U56">
-        <v>0.9999322951929588</v>
+        <v>-6.77048070412134E-05</v>
       </c>
       <c r="V56">
-        <v>1.000112943302462</v>
+        <v>0.0001129433024622539</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5582,7 +5582,7 @@
         <v>1.043189613952139</v>
       </c>
       <c r="K57">
-        <v>51.05691644224339</v>
+        <v>0.01056916442243394</v>
       </c>
       <c r="L57">
         <v>-0.005106537467874649</v>
@@ -5612,13 +5612,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U57">
-        <v>0.9999548604058049</v>
+        <v>-4.513959419505387E-05</v>
       </c>
       <c r="V57">
-        <v>1.000045172219086</v>
+        <v>4.517221908550972E-05</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5653,7 +5653,7 @@
         <v>1.120907827032078</v>
       </c>
       <c r="K58">
-        <v>52.85037910396305</v>
+        <v>0.02850379103963052</v>
       </c>
       <c r="L58">
         <v>-0.004287402236013258</v>
@@ -5683,13 +5683,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U58">
-        <v>0.9999661437760975</v>
+        <v>-3.385622390250642E-05</v>
       </c>
       <c r="V58">
-        <v>1.000022585089324</v>
+        <v>2.258508932384551E-05</v>
       </c>
       <c r="W58">
-        <v>1.000338638672536</v>
+        <v>0.0003386386725363622</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5724,7 +5724,7 @@
         <v>1.284525117726781</v>
       </c>
       <c r="K59">
-        <v>56.22722673344686</v>
+        <v>0.06227226733446867</v>
       </c>
       <c r="L59">
         <v>-0.003136250702093117</v>
@@ -5754,13 +5754,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U59">
-        <v>0.9999774284198766</v>
+        <v>-2.257158012342053E-05</v>
       </c>
       <c r="V59">
-        <v>1.000112922896246</v>
+        <v>0.0001129228962464257</v>
       </c>
       <c r="W59">
-        <v>1.000677048070413</v>
+        <v>0.0006770480704132442</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5795,7 +5795,7 @@
         <v>1.37063948125026</v>
       </c>
       <c r="K60">
-        <v>57.81728905178755</v>
+        <v>0.07817289051787557</v>
       </c>
       <c r="L60">
         <v>-0.001722540225691489</v>
@@ -5825,13 +5825,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U60">
-        <v>0.9999887139551942</v>
+        <v>-1.128604480582496E-05</v>
       </c>
       <c r="V60">
-        <v>1.000112910146106</v>
+        <v>0.0001129101461057047</v>
       </c>
       <c r="W60">
-        <v>1.000338294993234</v>
+        <v>0.0003382949932340118</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5866,7 +5866,7 @@
         <v>1.37063948125026</v>
       </c>
       <c r="K61">
-        <v>57.81728905178755</v>
+        <v>0.07817289051787557</v>
       </c>
       <c r="L61">
         <v>-0.0002335923219867118</v>
@@ -5896,13 +5896,13 @@
         <v>0.07187500000000568</v>
       </c>
       <c r="U61">
-        <v>0.9999887138278182</v>
+        <v>-1.128617218182359E-05</v>
       </c>
       <c r="V61">
-        <v>1.000090317919075</v>
+        <v>9.031791907498921E-05</v>
       </c>
       <c r="W61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5937,7 +5937,7 @@
         <v>1.15099010633802</v>
       </c>
       <c r="K62">
-        <v>53.50978151626823</v>
+        <v>0.03509781516268229</v>
       </c>
       <c r="L62">
         <v>0.0009601965303523111</v>
@@ -5967,13 +5967,13 @@
         <v>0.09062500000001705</v>
       </c>
       <c r="U62">
-        <v>0.9999435685021952</v>
+        <v>-5.643149780476531E-05</v>
       </c>
       <c r="V62">
-        <v>1.000022577440622</v>
+        <v>2.257744062150735E-05</v>
       </c>
       <c r="W62">
-        <v>0.9993236388231316</v>
+        <v>-0.000676361176868423</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -6008,7 +6008,7 @@
         <v>0.860633670131023</v>
       </c>
       <c r="K63">
-        <v>46.25486918499215</v>
+        <v>-0.03745130815007847</v>
       </c>
       <c r="L63">
         <v>0.001402244920991982</v>
@@ -6038,13 +6038,13 @@
         <v>0.08749999999997726</v>
       </c>
       <c r="U63">
-        <v>0.9999097045080025</v>
+        <v>-9.029549199746079E-05</v>
       </c>
       <c r="V63">
-        <v>0.999909692276432</v>
+        <v>-9.030772356799499E-05</v>
       </c>
       <c r="W63">
-        <v>0.9986463620981388</v>
+        <v>-0.00135363790186116</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -6079,7 +6079,7 @@
         <v>0.993405599367895</v>
       </c>
       <c r="K64">
-        <v>49.83459460949151</v>
+        <v>-0.001654053905084885</v>
       </c>
       <c r="L64">
         <v>0.001602270804678249</v>
@@ -6109,13 +6109,13 @@
         <v>0.09375</v>
       </c>
       <c r="U64">
-        <v>0.9999548481769952</v>
+        <v>-4.515182300479648E-05</v>
       </c>
       <c r="V64">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W64">
-        <v>1.000677736360556</v>
+        <v>0.0006777363605556808</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -6150,7 +6150,7 @@
         <v>0.7763893608778873</v>
       </c>
       <c r="K65">
-        <v>43.70603528576627</v>
+        <v>-0.0629396471423373</v>
       </c>
       <c r="L65">
         <v>0.001143806743856519</v>
@@ -6180,13 +6180,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U65">
-        <v>0.9998871153455396</v>
+        <v>-0.0001128846544603546</v>
       </c>
       <c r="V65">
-        <v>1.000022578969947</v>
+        <v>2.257896994728448E-05</v>
       </c>
       <c r="W65">
-        <v>0.9986454453098542</v>
+        <v>-0.001354554690145782</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6221,7 +6221,7 @@
         <v>0.891366640009565</v>
       </c>
       <c r="K66">
-        <v>47.12817817306205</v>
+        <v>-0.02871821826937948</v>
       </c>
       <c r="L66">
         <v>0.0005581463834561616</v>
@@ -6251,13 +6251,13 @@
         <v>0.05312500000002274</v>
       </c>
       <c r="U66">
-        <v>0.9999209718208093</v>
+        <v>-7.902817919069882E-05</v>
       </c>
       <c r="V66">
-        <v>1.000067735380447</v>
+        <v>6.773538044702043E-05</v>
       </c>
       <c r="W66">
-        <v>1.000678195998644</v>
+        <v>0.0006781959986437158</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6292,7 +6292,7 @@
         <v>1.012395354884981</v>
       </c>
       <c r="K67">
-        <v>50.30797514153696</v>
+        <v>0.003079751415369647</v>
       </c>
       <c r="L67">
         <v>0.0001773589895410377</v>
@@ -6322,13 +6322,13 @@
         <v>0.01875000000003979</v>
       </c>
       <c r="U67">
-        <v>0.9999661281035127</v>
+        <v>-3.387189648729194E-05</v>
       </c>
       <c r="V67">
-        <v>1.000067730792676</v>
+        <v>6.773079267596849E-05</v>
       </c>
       <c r="W67">
-        <v>1.000677736360556</v>
+        <v>0.0006777363605556808</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6363,7 +6363,7 @@
         <v>1.203493325740919</v>
       </c>
       <c r="K68">
-        <v>54.61751627208797</v>
+        <v>0.04617516272087974</v>
       </c>
       <c r="L68">
         <v>0.0003142538136780132</v>
@@ -6393,13 +6393,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U68">
-        <v>1.000022582029221</v>
+        <v>2.258202922100772E-05</v>
       </c>
       <c r="V68">
-        <v>1.000135452411053</v>
+        <v>0.0001354524110530608</v>
       </c>
       <c r="W68">
-        <v>1.001015916017609</v>
+        <v>0.001015916017609308</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6434,7 +6434,7 @@
         <v>1.061184420813587</v>
       </c>
       <c r="K69">
-        <v>51.48420539656117</v>
+        <v>0.01484205396561167</v>
       </c>
       <c r="L69">
         <v>0.000508261567494528</v>
@@ -6464,13 +6464,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U69">
-        <v>1.000033872278927</v>
+        <v>3.387227892703848E-05</v>
       </c>
       <c r="V69">
-        <v>1.000067717033091</v>
+        <v>6.771703309116361E-05</v>
       </c>
       <c r="W69">
-        <v>0.9993234100135316</v>
+        <v>-0.0006765899864683567</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6505,7 +6505,7 @@
         <v>0.9990109600057939</v>
       </c>
       <c r="K70">
-        <v>49.97526176659373</v>
+        <v>-0.0002473823340626846</v>
       </c>
       <c r="L70">
         <v>0.0005993378265674713</v>
@@ -6535,13 +6535,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U70">
-        <v>1.000045161508846</v>
+        <v>4.516150884592562E-05</v>
       </c>
       <c r="V70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W70">
-        <v>0.9996614759647936</v>
+        <v>-0.0003385240352064001</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6576,7 +6576,7 @@
         <v>0.7635586409479187</v>
       </c>
       <c r="K71">
-        <v>43.29647017223671</v>
+        <v>-0.06703529827763288</v>
       </c>
       <c r="L71">
         <v>3.501267668623976E-06</v>
@@ -6606,13 +6606,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V71">
-        <v>0.9998871459203249</v>
+        <v>-0.0001128540796750954</v>
       </c>
       <c r="W71">
-        <v>0.998306806637318</v>
+        <v>-0.001693193362682033</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6647,7 +6647,7 @@
         <v>0.8131766243933034</v>
       </c>
       <c r="K72">
-        <v>44.84817493526841</v>
+        <v>-0.05151825064731591</v>
       </c>
       <c r="L72">
         <v>-0.0008472045297480204</v>
@@ -6677,13 +6677,13 @@
         <v>-0.07187499999997726</v>
       </c>
       <c r="U72">
-        <v>0.9999774202653121</v>
+        <v>-2.257973468788865E-05</v>
       </c>
       <c r="V72">
-        <v>0.9999097065462753</v>
+        <v>-9.0293453724688E-05</v>
       </c>
       <c r="W72">
-        <v>1.00033921302578</v>
+        <v>0.0003392130257799941</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6718,7 +6718,7 @@
         <v>0.7362669766867043</v>
       </c>
       <c r="K73">
-        <v>42.40517078149542</v>
+        <v>-0.07594829218504578</v>
       </c>
       <c r="L73">
         <v>-0.002041664327781842</v>
@@ -6748,13 +6748,13 @@
         <v>-0.06562499999998295</v>
       </c>
       <c r="U73">
-        <v>0.9999322592663675</v>
+        <v>-6.774073363247091E-05</v>
       </c>
       <c r="V73">
-        <v>0.999841972187105</v>
+        <v>-0.0001580278128949786</v>
       </c>
       <c r="W73">
-        <v>0.9993218040013564</v>
+        <v>-0.0006781959986436048</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6789,7 +6789,7 @@
         <v>0.8358240980711077</v>
       </c>
       <c r="K74">
-        <v>45.52855030878527</v>
+        <v>-0.04471449691214729</v>
       </c>
       <c r="L74">
         <v>-0.003114247126114981</v>
@@ -6819,13 +6819,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U74">
-        <v>0.99997741822575</v>
+        <v>-2.258177424996344E-05</v>
       </c>
       <c r="V74">
-        <v>0.9998419472103682</v>
+        <v>-0.0001580527896317685</v>
       </c>
       <c r="W74">
-        <v>1.000678656260604</v>
+        <v>0.0006786562606040381</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6860,7 +6860,7 @@
         <v>0.8358240980711077</v>
       </c>
       <c r="K75">
-        <v>45.52855030878527</v>
+        <v>-0.04471449691214729</v>
       </c>
       <c r="L75">
         <v>-0.004033355398570788</v>
@@ -6890,13 +6890,13 @@
         <v>-0.06562499999998295</v>
       </c>
       <c r="U75">
-        <v>0.9999661265737032</v>
+        <v>-3.387342629679324E-05</v>
       </c>
       <c r="V75">
-        <v>0.9998193396865543</v>
+        <v>-0.0001806603134456575</v>
       </c>
       <c r="W75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6931,7 +6931,7 @@
         <v>0.8358240980711078</v>
       </c>
       <c r="K76">
-        <v>45.52855030878527</v>
+        <v>-0.04471449691214729</v>
       </c>
       <c r="L76">
         <v>-0.004786277586584709</v>
@@ -6961,13 +6961,13 @@
         <v>-0.08437500000002274</v>
       </c>
       <c r="U76">
-        <v>0.9999548339016734</v>
+        <v>-4.516609832661E-05</v>
       </c>
       <c r="V76">
-        <v>0.9998193070425082</v>
+        <v>-0.0001806929574917904</v>
       </c>
       <c r="W76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -7002,7 +7002,7 @@
         <v>0.8938833611616059</v>
       </c>
       <c r="K77">
-        <v>47.19843784959102</v>
+        <v>-0.02801562150408982</v>
       </c>
       <c r="L77">
         <v>-0.005249825101419172</v>
@@ -7032,13 +7032,13 @@
         <v>-0.08750000000003411</v>
       </c>
       <c r="U77">
-        <v>0.9999548318616047</v>
+        <v>-4.516813839527956E-05</v>
       </c>
       <c r="V77">
-        <v>0.9998870464916642</v>
+        <v>-0.0001129535083358446</v>
       </c>
       <c r="W77">
-        <v>1.000339097999322</v>
+        <v>0.0003390979993218579</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -7073,7 +7073,7 @@
         <v>0.8938833611616059</v>
       </c>
       <c r="K78">
-        <v>47.19843784959102</v>
+        <v>-0.02801562150408982</v>
       </c>
       <c r="L78">
         <v>-0.005489418816241908</v>
@@ -7103,13 +7103,13 @@
         <v>-0.09062500000001705</v>
       </c>
       <c r="U78">
-        <v>0.9999435372766898</v>
+        <v>-5.646272331016888E-05</v>
       </c>
       <c r="V78">
-        <v>0.9999774067463454</v>
+        <v>-2.259325365461251E-05</v>
       </c>
       <c r="W78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -7144,7 +7144,7 @@
         <v>0.893883361161606</v>
       </c>
       <c r="K79">
-        <v>47.19843784959102</v>
+        <v>-0.02801562150408976</v>
       </c>
       <c r="L79">
         <v>-0.005558083404998286</v>
@@ -7174,13 +7174,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U79">
-        <v>0.9999661204530828</v>
+        <v>-3.387954691724815E-05</v>
       </c>
       <c r="V79">
-        <v>0.9999322187076369</v>
+        <v>-6.778129236306718E-05</v>
       </c>
       <c r="W79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7215,7 +7215,7 @@
         <v>0.8938833611616062</v>
       </c>
       <c r="K80">
-        <v>47.19843784959102</v>
+        <v>-0.02801562150408976</v>
       </c>
       <c r="L80">
         <v>-0.00549858043388757</v>
@@ -7245,13 +7245,13 @@
         <v>-0.05937500000004547</v>
       </c>
       <c r="U80">
-        <v>1.000022587129853</v>
+        <v>2.258712985336864E-05</v>
       </c>
       <c r="V80">
-        <v>1.000022595295659</v>
+        <v>2.259529565917795E-05</v>
       </c>
       <c r="W80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7286,7 +7286,7 @@
         <v>0.8344056389054459</v>
       </c>
       <c r="K81">
-        <v>45.48643011168018</v>
+        <v>-0.04513569888319824</v>
       </c>
       <c r="L81">
         <v>-0.005468554178219087</v>
@@ -7316,13 +7316,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U81">
-        <v>1.000011293309843</v>
+        <v>1.129330984306343E-05</v>
       </c>
       <c r="V81">
-        <v>0.9999548104297529</v>
+        <v>-4.518957024712833E-05</v>
       </c>
       <c r="W81">
-        <v>0.9996610169491524</v>
+        <v>-0.0003389830508475633</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7357,7 +7357,7 @@
         <v>0.8344056389054458</v>
       </c>
       <c r="K82">
-        <v>45.48643011168017</v>
+        <v>-0.04513569888319829</v>
       </c>
       <c r="L82">
         <v>-0.005438406391872094</v>
@@ -7387,13 +7387,13 @@
         <v>-0.04062500000000568</v>
       </c>
       <c r="U82">
-        <v>0.9999887068176941</v>
+        <v>-1.129318230586041E-05</v>
       </c>
       <c r="V82">
-        <v>0.9999096167751265</v>
+        <v>-9.038322487353589E-05</v>
       </c>
       <c r="W82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7428,7 +7428,7 @@
         <v>0.9081325883286732</v>
       </c>
       <c r="K83">
-        <v>47.59274035165991</v>
+        <v>-0.02407259648340088</v>
       </c>
       <c r="L83">
         <v>-0.005266949333570239</v>
@@ -7458,13 +7458,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V83">
-        <v>0.9998644129078911</v>
+        <v>-0.0001355870921089242</v>
       </c>
       <c r="W83">
-        <v>1.000339097999322</v>
+        <v>0.0003390979993218579</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7499,7 +7499,7 @@
         <v>0.9857399035110175</v>
       </c>
       <c r="K84">
-        <v>49.64093745450325</v>
+        <v>-0.003590625454967467</v>
       </c>
       <c r="L84">
         <v>-0.004878243936075504</v>
@@ -7529,13 +7529,13 @@
         <v>0.003125000000011369</v>
       </c>
       <c r="U84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V84">
-        <v>0.9999321972607694</v>
+        <v>-6.780273923057134E-05</v>
       </c>
       <c r="W84">
-        <v>1.000338983050848</v>
+        <v>0.0003389830508475633</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7570,7 +7570,7 @@
         <v>1.312507546383954</v>
       </c>
       <c r="K85">
-        <v>56.75689787202249</v>
+        <v>0.06756897872022494</v>
       </c>
       <c r="L85">
         <v>-0.003871371376599572</v>
@@ -7600,13 +7600,13 @@
         <v>0.03125</v>
       </c>
       <c r="U85">
-        <v>1.000022586619687</v>
+        <v>2.258661968657094E-05</v>
       </c>
       <c r="V85">
-        <v>1.000045204891169</v>
+        <v>4.520489116921489E-05</v>
       </c>
       <c r="W85">
-        <v>1.001355472721111</v>
+        <v>0.001355472721111362</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7641,7 +7641,7 @@
         <v>1.312507546383954</v>
       </c>
       <c r="K86">
-        <v>56.7568978720225</v>
+        <v>0.06756897872022494</v>
       </c>
       <c r="L86">
         <v>-0.002539972801050451</v>
@@ -7671,13 +7671,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U86">
-        <v>1.000022586109543</v>
+        <v>2.258610954264384E-05</v>
       </c>
       <c r="V86">
-        <v>1.000158209967228</v>
+        <v>0.0001582099672279291</v>
       </c>
       <c r="W86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7712,7 +7712,7 @@
         <v>1.203564109510969</v>
       </c>
       <c r="K87">
-        <v>54.61897406643062</v>
+        <v>0.04618974066430614</v>
       </c>
       <c r="L87">
         <v>-0.001210914757089513</v>
@@ -7742,13 +7742,13 @@
         <v>0.06250000000002842</v>
       </c>
       <c r="U87">
-        <v>1.000011292799711</v>
+        <v>1.129279971068264E-05</v>
       </c>
       <c r="V87">
-        <v>1.000112989243424</v>
+        <v>0.0001129892434241775</v>
       </c>
       <c r="W87">
-        <v>0.9996615905245346</v>
+        <v>-0.0003384094754653733</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7783,7 +7783,7 @@
         <v>1.024531911594686</v>
       </c>
       <c r="K88">
-        <v>50.60586626108954</v>
+        <v>0.006058662610895382</v>
       </c>
       <c r="L88">
         <v>-0.0002103516919539268</v>
@@ -7813,13 +7813,13 @@
         <v>0.06562500000001137</v>
       </c>
       <c r="U88">
-        <v>0.9999774146556302</v>
+        <v>-2.258534436982984E-05</v>
       </c>
       <c r="V88">
-        <v>1.000112976478297</v>
+        <v>0.000112976478297222</v>
       </c>
       <c r="W88">
-        <v>0.9993229519295871</v>
+        <v>-0.0006770480704129112</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7854,7 +7854,7 @@
         <v>1.024531911594686</v>
       </c>
       <c r="K89">
-        <v>50.60586626108954</v>
+        <v>0.006058662610895382</v>
       </c>
       <c r="L89">
         <v>0.0005281823053077085</v>
@@ -7884,13 +7884,13 @@
         <v>0.06874999999996589</v>
       </c>
       <c r="U89">
-        <v>0.9999548282910412</v>
+        <v>-4.517170895879108E-05</v>
       </c>
       <c r="V89">
-        <v>1.000067778229633</v>
+        <v>6.777822963255353E-05</v>
       </c>
       <c r="W89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7925,7 +7925,7 @@
         <v>0.9465277024948906</v>
       </c>
       <c r="K90">
-        <v>48.62646965063551</v>
+        <v>-0.01373530349364493</v>
       </c>
       <c r="L90">
         <v>0.0009355811149329929</v>
@@ -7955,13 +7955,13 @@
         <v>0.07500000000001705</v>
       </c>
       <c r="U90">
-        <v>0.9999322393756989</v>
+        <v>-6.776062430113861E-05</v>
       </c>
       <c r="V90">
-        <v>1.000045182424037</v>
+        <v>4.518242403706019E-05</v>
       </c>
       <c r="W90">
-        <v>0.9996612466124662</v>
+        <v>-0.0003387533875337523</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7996,7 +7996,7 @@
         <v>0.7167545061471627</v>
       </c>
       <c r="K91">
-        <v>41.75055335988275</v>
+        <v>-0.08249446640117247</v>
       </c>
       <c r="L91">
         <v>0.0006194386864395547</v>
@@ -8026,13 +8026,13 @@
         <v>0.0625</v>
       </c>
       <c r="U91">
-        <v>0.9998870579731425</v>
+        <v>-0.000112942026857521</v>
       </c>
       <c r="V91">
-        <v>0.9999548196173222</v>
+        <v>-4.518038267775637E-05</v>
       </c>
       <c r="W91">
-        <v>0.9986445272788884</v>
+        <v>-0.001355472721111584</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -8067,7 +8067,7 @@
         <v>0.673715803205433</v>
       </c>
       <c r="K92">
-        <v>40.2527001247858</v>
+        <v>-0.09747299875214205</v>
       </c>
       <c r="L92">
         <v>-0.000240527877566289</v>
@@ -8097,13 +8097,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U92">
-        <v>0.9998983406942202</v>
+        <v>-0.0001016593057797666</v>
       </c>
       <c r="V92">
-        <v>0.9999096351519258</v>
+        <v>-9.03648480742314E-05</v>
       </c>
       <c r="W92">
-        <v>0.9996606718696981</v>
+        <v>-0.000339328130301908</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -8138,7 +8138,7 @@
         <v>0.633663818006198</v>
       </c>
       <c r="K93">
-        <v>38.78789571158843</v>
+        <v>-0.1121210428841157</v>
       </c>
       <c r="L93">
         <v>-0.001497674647889306</v>
@@ -8168,13 +8168,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U93">
-        <v>0.9999322202390365</v>
+        <v>-6.777976096350447E-05</v>
       </c>
       <c r="V93">
-        <v>0.9998870337317276</v>
+        <v>-0.0001129662682723964</v>
       </c>
       <c r="W93">
-        <v>0.9996605566870332</v>
+        <v>-0.0003394433129667584</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8209,7 +8209,7 @@
         <v>0.5631783404601847</v>
       </c>
       <c r="K94">
-        <v>36.02777276803813</v>
+        <v>-0.1397222723196188</v>
       </c>
       <c r="L94">
         <v>-0.003156706549449309</v>
@@ -8239,13 +8239,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U94">
-        <v>0.9998870260743822</v>
+        <v>-0.0001129739256178208</v>
       </c>
       <c r="V94">
-        <v>0.9998418293564714</v>
+        <v>-0.0001581706435286323</v>
       </c>
       <c r="W94">
-        <v>0.999320882852292</v>
+        <v>-0.0006791171477079638</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8280,7 +8280,7 @@
         <v>0.5631783404601847</v>
       </c>
       <c r="K95">
-        <v>36.02777276803813</v>
+        <v>-0.1397222723196188</v>
       </c>
       <c r="L95">
         <v>-0.004942107655844631</v>
@@ -8310,13 +8310,13 @@
         <v>-0.1062500000000171</v>
       </c>
       <c r="U95">
-        <v>0.9999322079858991</v>
+        <v>-6.779201410089808E-05</v>
       </c>
       <c r="V95">
-        <v>0.9998418043345614</v>
+        <v>-0.0001581956654386207</v>
       </c>
       <c r="W95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8351,7 +8351,7 @@
         <v>0.6864302129977178</v>
       </c>
       <c r="K96">
-        <v>40.70314962974674</v>
+        <v>-0.09296850370253262</v>
       </c>
       <c r="L96">
         <v>-0.006425654639471185</v>
@@ -8381,13 +8381,13 @@
         <v>-0.1343750000000057</v>
       </c>
       <c r="U96">
-        <v>0.9999322033898304</v>
+        <v>-6.779661016964589E-05</v>
       </c>
       <c r="V96">
-        <v>0.9999095881741332</v>
+        <v>-9.041182586677632E-05</v>
       </c>
       <c r="W96">
-        <v>1.00067957866123</v>
+        <v>0.0006795786612299182</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8422,7 +8422,7 @@
         <v>0.6864302129977178</v>
       </c>
       <c r="K97">
-        <v>40.70314962974674</v>
+        <v>-0.09296850370253262</v>
       </c>
       <c r="L97">
         <v>-0.007608515271436035</v>
@@ -8452,13 +8452,13 @@
         <v>-0.1656250000000057</v>
       </c>
       <c r="U97">
-        <v>0.9999095983908513</v>
+        <v>-9.040160914874917E-05</v>
       </c>
       <c r="V97">
-        <v>0.9999095799990959</v>
+        <v>-9.042000090409008E-05</v>
       </c>
       <c r="W97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8493,7 +8493,7 @@
         <v>0.8229973847844581</v>
       </c>
       <c r="K98">
-        <v>45.1452860905648</v>
+        <v>-0.04854713909435199</v>
       </c>
       <c r="L98">
         <v>-0.008259395129659706</v>
@@ -8523,13 +8523,13 @@
         <v>-0.1843750000000171</v>
       </c>
       <c r="U98">
-        <v>0.9998982889948695</v>
+        <v>-0.0001017110051304559</v>
       </c>
       <c r="V98">
-        <v>0.9999321788669348</v>
+        <v>-6.782113306524895E-05</v>
       </c>
       <c r="W98">
-        <v>1.000679117147708</v>
+        <v>0.0006791171477078528</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8564,7 +8564,7 @@
         <v>0.9667523024547108</v>
       </c>
       <c r="K99">
-        <v>49.15475635890211</v>
+        <v>-0.00845243641097887</v>
       </c>
       <c r="L99">
         <v>-0.008269584746388999</v>
@@ -8594,13 +8594,13 @@
         <v>-0.1687499999999886</v>
       </c>
       <c r="U99">
-        <v>0.99994348813816</v>
+        <v>-5.651186183996959E-05</v>
       </c>
       <c r="V99">
-        <v>0.9999547828446111</v>
+        <v>-4.521715538885474E-05</v>
       </c>
       <c r="W99">
-        <v>1.000678656260604</v>
+        <v>0.0006786562606040381</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8635,7 +8635,7 @@
         <v>0.9667523024547108</v>
       </c>
       <c r="K100">
-        <v>49.15475635890211</v>
+        <v>-0.00845243641097887</v>
       </c>
       <c r="L100">
         <v>-0.007860782099007589</v>
@@ -8665,13 +8665,13 @@
         <v>-0.1437500000000114</v>
       </c>
       <c r="U100">
-        <v>0.9999547879555114</v>
+        <v>-4.521204448859617E-05</v>
       </c>
       <c r="V100">
-        <v>0.9998643423997831</v>
+        <v>-0.000135657600216943</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8706,7 +8706,7 @@
         <v>0.9667523024547107</v>
       </c>
       <c r="K101">
-        <v>49.15475635890211</v>
+        <v>-0.00845243641097887</v>
       </c>
       <c r="L101">
         <v>-0.007195493350510303</v>
@@ -8736,13 +8736,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U101">
-        <v>1.000011303522178</v>
+        <v>1.1303522177597E-05</v>
       </c>
       <c r="V101">
-        <v>0.9998643239943016</v>
+        <v>-0.0001356760056984152</v>
       </c>
       <c r="W101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8777,7 +8777,7 @@
         <v>0.772473026249478</v>
       </c>
       <c r="K102">
-        <v>43.58165200877654</v>
+        <v>-0.06418347991223461</v>
       </c>
       <c r="L102">
         <v>-0.006761324916305698</v>
@@ -8807,13 +8807,13 @@
         <v>-0.05312500000002274</v>
       </c>
       <c r="U102">
-        <v>0.9999660898167716</v>
+        <v>-3.391018322840278E-05</v>
       </c>
       <c r="V102">
-        <v>0.9998190741117672</v>
+        <v>-0.0001809258882328191</v>
       </c>
       <c r="W102">
-        <v>0.9989827060020348</v>
+        <v>-0.001017293997965241</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8848,7 +8848,7 @@
         <v>0.8429855731722572</v>
       </c>
       <c r="K103">
-        <v>45.74021552004121</v>
+        <v>-0.04259784479958789</v>
       </c>
       <c r="L103">
         <v>-0.006346798225444119</v>
@@ -8878,13 +8878,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U103">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V103">
-        <v>0.9998869008572916</v>
+        <v>-0.000113099142708406</v>
       </c>
       <c r="W103">
-        <v>1.000339443312967</v>
+        <v>0.0003394433129666474</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8919,7 +8919,7 @@
         <v>0.8429855731722573</v>
       </c>
       <c r="K104">
-        <v>45.74021552004121</v>
+        <v>-0.04259784479958789</v>
       </c>
       <c r="L104">
         <v>-0.005947479168998094</v>
@@ -8949,13 +8949,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U104">
-        <v>0.9999773924445552</v>
+        <v>-2.260755544480908E-05</v>
       </c>
       <c r="V104">
-        <v>0.9998868880644283</v>
+        <v>-0.0001131119355717303</v>
       </c>
       <c r="W104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8990,7 +8990,7 @@
         <v>0.9211158190701177</v>
       </c>
       <c r="K105">
-        <v>47.9469176156161</v>
+        <v>-0.02053082384383897</v>
       </c>
       <c r="L105">
         <v>-0.005437683962995331</v>
@@ -9020,13 +9020,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U105">
-        <v>0.9999886959667208</v>
+        <v>-1.130403327920249E-05</v>
       </c>
       <c r="V105">
-        <v>0.999932125161203</v>
+        <v>-6.787483879699963E-05</v>
       </c>
       <c r="W105">
-        <v>1.000339328130302</v>
+        <v>0.00033932813030213</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -9061,7 +9061,7 @@
         <v>1.003358183173082</v>
       </c>
       <c r="K106">
-        <v>50.08381384819971</v>
+        <v>0.0008381384819970972</v>
       </c>
       <c r="L106">
         <v>-0.00475013511236315</v>
@@ -9091,13 +9091,13 @@
         <v>0.07187499999997726</v>
       </c>
       <c r="U106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V106">
-        <v>1.000045252964069</v>
+        <v>4.525296406887591E-05</v>
       </c>
       <c r="W106">
-        <v>1.00033921302578</v>
+        <v>0.0003392130257799941</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -9132,7 +9132,7 @@
         <v>1.003358183173082</v>
       </c>
       <c r="K107">
-        <v>50.0838138481997</v>
+        <v>0.0008381384819969862</v>
       </c>
       <c r="L107">
         <v>-0.00398137875056819</v>
@@ -9162,13 +9162,13 @@
         <v>0.06562499999998295</v>
       </c>
       <c r="U107">
-        <v>0.9999886958389381</v>
+        <v>-1.130416106187582E-05</v>
       </c>
       <c r="V107">
-        <v>1.000067876374497</v>
+        <v>6.787637449678918E-05</v>
       </c>
       <c r="W107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -9203,7 +9203,7 @@
         <v>1.094485456417416</v>
       </c>
       <c r="K108">
-        <v>52.25557680832579</v>
+        <v>0.02255576808325788</v>
       </c>
       <c r="L108">
         <v>-0.003074394733617663</v>
@@ -9233,13 +9233,13 @@
         <v>0.05937499999998863</v>
       </c>
       <c r="U108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V108">
-        <v>1.000113119612678</v>
+        <v>0.0001131196126784584</v>
       </c>
       <c r="W108">
-        <v>1.000339097999322</v>
+        <v>0.0003390979993218579</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9274,7 +9274,7 @@
         <v>1.094485456417416</v>
       </c>
       <c r="K109">
-        <v>52.25557680832579</v>
+        <v>0.02255576808325788</v>
       </c>
       <c r="L109">
         <v>-0.002130246181642286</v>
@@ -9304,13 +9304,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V109">
-        <v>1.00015834954531</v>
+        <v>0.0001583495453103545</v>
       </c>
       <c r="W109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9345,7 +9345,7 @@
         <v>1.094485456417416</v>
       </c>
       <c r="K110">
-        <v>52.25557680832579</v>
+        <v>0.02255576808325788</v>
       </c>
       <c r="L110">
         <v>-0.001215982754654238</v>
@@ -9375,13 +9375,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V110">
-        <v>1.000158324474702</v>
+        <v>0.0001583244747020984</v>
       </c>
       <c r="W110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9416,7 +9416,7 @@
         <v>1.094485456417415</v>
       </c>
       <c r="K111">
-        <v>52.25557680832579</v>
+        <v>0.02255576808325788</v>
       </c>
       <c r="L111">
         <v>-0.0003736605831261636</v>
@@ -9446,13 +9446,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U111">
-        <v>1.000011304288847</v>
+        <v>1.130428884743573E-05</v>
       </c>
       <c r="V111">
-        <v>1.000113071008593</v>
+        <v>0.0001130710085932574</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9487,7 +9487,7 @@
         <v>1.094485456417416</v>
       </c>
       <c r="K112">
-        <v>52.25557680832579</v>
+        <v>0.02255576808325788</v>
       </c>
       <c r="L112">
         <v>0.0003727527691135539</v>
@@ -9517,13 +9517,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U112">
-        <v>1.000011304161062</v>
+        <v>1.130416106165377E-05</v>
       </c>
       <c r="V112">
-        <v>1.000113058224986</v>
+        <v>0.0001130582249859735</v>
       </c>
       <c r="W112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9558,7 +9558,7 @@
         <v>0.9791697801295632</v>
       </c>
       <c r="K113">
-        <v>49.47376369426293</v>
+        <v>-0.005262363057370711</v>
       </c>
       <c r="L113">
         <v>0.0008886219710741177</v>
@@ -9588,13 +9588,13 @@
         <v>0.046875</v>
       </c>
       <c r="U113">
-        <v>0.9999886959667209</v>
+        <v>-1.130403327909146E-05</v>
       </c>
       <c r="V113">
-        <v>1.000045218177707</v>
+        <v>4.521817770730685E-05</v>
       </c>
       <c r="W113">
-        <v>0.9996610169491524</v>
+        <v>-0.0003389830508475633</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9629,7 +9629,7 @@
         <v>1.090075705554644</v>
       </c>
       <c r="K114">
-        <v>52.15484313116639</v>
+        <v>0.02154843131166395</v>
       </c>
       <c r="L114">
         <v>0.001352210228541637</v>
@@ -9659,13 +9659,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U114">
-        <v>0.9999886958389383</v>
+        <v>-1.130416106165377E-05</v>
       </c>
       <c r="V114">
-        <v>1.000022608066558</v>
+        <v>2.260806655818293E-05</v>
       </c>
       <c r="W114">
-        <v>1.000339097999322</v>
+        <v>0.0003390979993218579</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9700,7 +9700,7 @@
         <v>1.090075705554644</v>
       </c>
       <c r="K115">
-        <v>52.15484313116639</v>
+        <v>0.02154843131166395</v>
       </c>
       <c r="L115">
         <v>0.001749650580016706</v>
@@ -9730,13 +9730,13 @@
         <v>0.046875</v>
       </c>
       <c r="U115">
-        <v>0.9999434785557642</v>
+        <v>-5.652144423584637E-05</v>
       </c>
       <c r="V115">
-        <v>1.000022607555445</v>
+        <v>2.260755544503112E-05</v>
       </c>
       <c r="W115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9771,7 +9771,7 @@
         <v>0.970779131620339</v>
       </c>
       <c r="K116">
-        <v>49.25864679834426</v>
+        <v>-0.007413532016557423</v>
       </c>
       <c r="L116">
         <v>0.001951808992830466</v>
@@ -9801,13 +9801,13 @@
         <v>0.04062500000003411</v>
       </c>
       <c r="U116">
-        <v>0.9999321704330918</v>
+        <v>-6.78295669082063E-05</v>
       </c>
       <c r="V116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W116">
-        <v>0.9996610169491524</v>
+        <v>-0.0003389830508475633</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9842,7 +9842,7 @@
         <v>0.7889963668208687</v>
       </c>
       <c r="K117">
-        <v>44.10273723601534</v>
+        <v>-0.05897262763984662</v>
       </c>
       <c r="L117">
         <v>0.001768674035035892</v>
@@ -9872,13 +9872,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U117">
-        <v>0.999920860137251</v>
+        <v>-7.913986274898921E-05</v>
       </c>
       <c r="V117">
-        <v>1.000022607044355</v>
+        <v>2.260704435497196E-05</v>
       </c>
       <c r="W117">
-        <v>0.9993218040013564</v>
+        <v>-0.0006781959986436048</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9913,7 +9913,7 @@
         <v>0.8875513689339417</v>
       </c>
       <c r="K118">
-        <v>47.02130938217678</v>
+        <v>-0.02978690617823221</v>
       </c>
       <c r="L118">
         <v>0.001480863369911891</v>
@@ -9943,13 +9943,13 @@
         <v>0.009375000000034106</v>
       </c>
       <c r="U118">
-        <v>0.9999547736420786</v>
+        <v>-4.522635792136853E-05</v>
       </c>
       <c r="V118">
-        <v>1.000022606533288</v>
+        <v>2.260653328800544E-05</v>
       </c>
       <c r="W118">
-        <v>1.000339328130302</v>
+        <v>0.00033932813030213</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9984,7 +9984,7 @@
         <v>0.8875513689339418</v>
       </c>
       <c r="K119">
-        <v>47.02130938217678</v>
+        <v>-0.02978690617823221</v>
       </c>
       <c r="L119">
         <v>0.001142591628057013</v>
@@ -10014,13 +10014,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U119">
-        <v>0.9999547715965627</v>
+        <v>-4.522840343734735E-05</v>
       </c>
       <c r="V119">
-        <v>1.000022606022244</v>
+        <v>2.26060222443536E-05</v>
       </c>
       <c r="W119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -10055,7 +10055,7 @@
         <v>0.8875513689339418</v>
       </c>
       <c r="K120">
-        <v>47.02130938217678</v>
+        <v>-0.02978690617823221</v>
       </c>
       <c r="L120">
         <v>0.0007911477181659195</v>
@@ -10085,13 +10085,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U120">
-        <v>0.9999660771631461</v>
+        <v>-3.392283685388353E-05</v>
       </c>
       <c r="V120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -10126,7 +10126,7 @@
         <v>1.002501072521073</v>
       </c>
       <c r="K121">
-        <v>50.06244871863975</v>
+        <v>0.0006244871863975154</v>
       </c>
       <c r="L121">
         <v>0.0005747316705988154</v>
@@ -10156,13 +10156,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U121">
-        <v>1.000022615991768</v>
+        <v>2.261599176800466E-05</v>
       </c>
       <c r="V121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W121">
-        <v>1.00033921302578</v>
+        <v>0.0003392130257799941</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -10197,7 +10197,7 @@
         <v>0.8942920174418347</v>
       </c>
       <c r="K122">
-        <v>47.20982874908274</v>
+        <v>-0.02790171250917262</v>
       </c>
       <c r="L122">
         <v>0.0003283225020983082</v>
@@ -10227,13 +10227,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U122">
-        <v>1.000022615480296</v>
+        <v>2.261548029602878E-05</v>
       </c>
       <c r="V122">
-        <v>0.9999773944887764</v>
+        <v>-2.260551122357235E-05</v>
       </c>
       <c r="W122">
-        <v>0.9996609020006784</v>
+        <v>-0.0003390979993216359</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10268,7 +10268,7 @@
         <v>0.8030494603410498</v>
       </c>
       <c r="K123">
-        <v>44.53840440900338</v>
+        <v>-0.05461595590996615</v>
       </c>
       <c r="L123">
         <v>-4.52420588355983E-05</v>
@@ -10298,13 +10298,13 @@
         <v>-0.04687499999997158</v>
       </c>
       <c r="U123">
-        <v>1.000022614968848</v>
+        <v>2.261496884803371E-05</v>
       </c>
       <c r="V123">
-        <v>0.9999321819332669</v>
+        <v>-6.781806673306079E-05</v>
       </c>
       <c r="W123">
-        <v>0.9996607869742198</v>
+        <v>-0.0003392130257802162</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10339,7 +10339,7 @@
         <v>0.9104470386208328</v>
       </c>
       <c r="K124">
-        <v>47.65623020243952</v>
+        <v>-0.02343769797560474</v>
       </c>
       <c r="L124">
         <v>-0.0003483806397394803</v>
@@ -10369,13 +10369,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U124">
-        <v>1.000056536143556</v>
+        <v>5.653614355649594E-05</v>
       </c>
       <c r="V124">
-        <v>0.9999547848891099</v>
+        <v>-4.521511089006225E-05</v>
       </c>
       <c r="W124">
-        <v>1.000339328130302</v>
+        <v>0.00033932813030213</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10410,7 +10410,7 @@
         <v>1.02349712102054</v>
       </c>
       <c r="K125">
-        <v>50.58060673218773</v>
+        <v>0.005806067321877273</v>
       </c>
       <c r="L125">
         <v>-0.0004647783250211438</v>
@@ -10440,13 +10440,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U125">
-        <v>1.000067839536882</v>
+        <v>6.78395368820528E-05</v>
       </c>
       <c r="V125">
-        <v>0.9999773914223058</v>
+        <v>-2.260857769420532E-05</v>
       </c>
       <c r="W125">
-        <v>1.00033921302578</v>
+        <v>0.0003392130257799941</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10481,7 +10481,7 @@
         <v>1.142497207757142</v>
       </c>
       <c r="K126">
-        <v>53.32549342984475</v>
+        <v>0.0332549342984475</v>
       </c>
       <c r="L126">
         <v>-0.0003354408876944445</v>
@@ -10511,13 +10511,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U126">
-        <v>1.000056529112493</v>
+        <v>5.652911249298676E-05</v>
       </c>
       <c r="V126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W126">
-        <v>1.000339097999322</v>
+        <v>0.0003390979993218579</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10552,7 +10552,7 @@
         <v>1.142497207757142</v>
       </c>
       <c r="K127">
-        <v>53.32549342984475</v>
+        <v>0.0332549342984475</v>
       </c>
       <c r="L127">
         <v>-6.424833731523374E-05</v>
@@ -10582,13 +10582,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U127">
-        <v>1.000056525917133</v>
+        <v>5.652591713301014E-05</v>
       </c>
       <c r="V127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10623,7 +10623,7 @@
         <v>1.009401509984106</v>
       </c>
       <c r="K128">
-        <v>50.23393806408009</v>
+        <v>0.002339380640800859</v>
       </c>
       <c r="L128">
         <v>0.0001523436776229286</v>
@@ -10653,13 +10653,13 @@
         <v>0.003125000000011369</v>
       </c>
       <c r="U128">
-        <v>1.000022609088854</v>
+        <v>2.26090888535424E-05</v>
       </c>
       <c r="V128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W128">
-        <v>0.9996610169491524</v>
+        <v>-0.0003389830508475633</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10694,7 +10694,7 @@
         <v>1.132028273136523</v>
       </c>
       <c r="K129">
-        <v>53.0963068079367</v>
+        <v>0.030963068079367</v>
       </c>
       <c r="L129">
         <v>0.0004449922636643149</v>
@@ -10724,13 +10724,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U129">
-        <v>1.000011304288847</v>
+        <v>1.130428884743573E-05</v>
       </c>
       <c r="V129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W129">
-        <v>1.000339097999322</v>
+        <v>0.0003390979993218579</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10765,7 +10765,7 @@
         <v>1.261109076454857</v>
       </c>
       <c r="K130">
-        <v>55.77391597720363</v>
+        <v>0.05773915977203625</v>
       </c>
       <c r="L130">
         <v>0.0008869385064403281</v>
@@ -10795,13 +10795,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U130">
-        <v>1.000022608322123</v>
+        <v>2.260832212330754E-05</v>
       </c>
       <c r="V130">
-        <v>1.000022609088854</v>
+        <v>2.260908885376445E-05</v>
       </c>
       <c r="W130">
-        <v>1.000338983050848</v>
+        <v>0.0003389830508475633</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10836,7 +10836,7 @@
         <v>1.532858136072324</v>
       </c>
       <c r="K131">
-        <v>60.51891001085875</v>
+        <v>0.1051891001085875</v>
       </c>
       <c r="L131">
         <v>0.001634915178235778</v>
@@ -10866,13 +10866,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U131">
-        <v>1.000045215621997</v>
+        <v>4.521562199744089E-05</v>
       </c>
       <c r="V131">
-        <v>1.000090434310777</v>
+        <v>9.043431077748743E-05</v>
       </c>
       <c r="W131">
-        <v>1.000677736360556</v>
+        <v>0.0006777363605556808</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10907,7 +10907,7 @@
         <v>1.532858136072324</v>
       </c>
       <c r="K132">
-        <v>60.51891001085875</v>
+        <v>0.1051891001085875</v>
       </c>
       <c r="L132">
         <v>0.002514648497533389</v>
@@ -10937,13 +10937,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U132">
-        <v>1.000079123760865</v>
+        <v>7.9123760865496E-05</v>
       </c>
       <c r="V132">
-        <v>1.000135639199729</v>
+        <v>0.0001356391997286988</v>
       </c>
       <c r="W132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10978,7 +10978,7 @@
         <v>1.532858136072324</v>
       </c>
       <c r="K133">
-        <v>60.51891001085875</v>
+        <v>0.1051891001085875</v>
       </c>
       <c r="L133">
         <v>0.00340894543796501</v>
@@ -11008,13 +11008,13 @@
         <v>0.07500000000001705</v>
       </c>
       <c r="U133">
-        <v>1.000067815000678</v>
+        <v>6.781500067809532E-05</v>
       </c>
       <c r="V133">
-        <v>1.00011301733686</v>
+        <v>0.0001130173368597553</v>
       </c>
       <c r="W133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -11049,7 +11049,7 @@
         <v>1.532858136072325</v>
       </c>
       <c r="K134">
-        <v>60.51891001085876</v>
+        <v>0.1051891001085876</v>
       </c>
       <c r="L134">
         <v>0.004242614885233009</v>
@@ -11079,13 +11079,13 @@
         <v>0.078125</v>
       </c>
       <c r="U134">
-        <v>1.000067810402116</v>
+        <v>6.781040211567557E-05</v>
       </c>
       <c r="V134">
-        <v>1.000113004565385</v>
+        <v>0.0001130045653845446</v>
       </c>
       <c r="W134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -11120,7 +11120,7 @@
         <v>1.532858136072325</v>
       </c>
       <c r="K135">
-        <v>60.51891001085877</v>
+        <v>0.1051891001085877</v>
       </c>
       <c r="L135">
         <v>0.004970930186656364</v>
@@ -11150,13 +11150,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U135">
-        <v>1.000056504836814</v>
+        <v>5.650483681396423E-05</v>
       </c>
       <c r="V135">
-        <v>1.000112991796795</v>
+        <v>0.0001129917967954697</v>
       </c>
       <c r="W135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -11191,7 +11191,7 @@
         <v>1.303896308229343</v>
       </c>
       <c r="K136">
-        <v>56.5952687875719</v>
+        <v>0.06595268787571906</v>
       </c>
       <c r="L136">
         <v>0.005447388903148264</v>
@@ -11221,13 +11221,13 @@
         <v>0.08750000000000568</v>
       </c>
       <c r="U136">
-        <v>1.000033900986519</v>
+        <v>3.390098651889772E-05</v>
       </c>
       <c r="V136">
-        <v>1.000067787418655</v>
+        <v>6.778741865520743E-05</v>
       </c>
       <c r="W136">
-        <v>0.9996613613274635</v>
+        <v>-0.0003386386725364732</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11262,7 +11262,7 @@
         <v>1.303896308229343</v>
       </c>
       <c r="K137">
-        <v>56.5952687875719</v>
+        <v>0.06595268787571906</v>
       </c>
       <c r="L137">
         <v>0.00572105136651057</v>
@@ -11292,13 +11292,13 @@
         <v>0.09062499999998863</v>
       </c>
       <c r="U137">
-        <v>1.000033899837281</v>
+        <v>3.389983728085966E-05</v>
       </c>
       <c r="V137">
-        <v>1.000090377098443</v>
+        <v>9.037709844306185E-05</v>
       </c>
       <c r="W137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11333,7 +11333,7 @@
         <v>1.469402371836483</v>
       </c>
       <c r="K138">
-        <v>59.50437193205153</v>
+        <v>0.09504371932051536</v>
       </c>
       <c r="L138">
         <v>0.005957030296851938</v>
@@ -11363,13 +11363,13 @@
         <v>0.08750000000000568</v>
       </c>
       <c r="U138">
-        <v>1.000033898688121</v>
+        <v>3.389868812075925E-05</v>
       </c>
       <c r="V138">
-        <v>1.000135553396742</v>
+        <v>0.0001355533967422051</v>
       </c>
       <c r="W138">
-        <v>1.000338753387534</v>
+        <v>0.0003387533875338633</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11404,7 +11404,7 @@
         <v>1.817836189956681</v>
       </c>
       <c r="K139">
-        <v>64.51177667586938</v>
+        <v>0.1451177667586938</v>
       </c>
       <c r="L139">
         <v>0.006380318575001053</v>
@@ -11434,13 +11434,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U139">
-        <v>1.000056495898398</v>
+        <v>5.649589839773483E-05</v>
       </c>
       <c r="V139">
-        <v>1.000158124195261</v>
+        <v>0.0001581241952606227</v>
       </c>
       <c r="W139">
-        <v>1.000677277345073</v>
+        <v>0.0006772773450727243</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11475,7 +11475,7 @@
         <v>2.001222410019995</v>
       </c>
       <c r="K140">
-        <v>66.68024346808281</v>
+        <v>0.1668024346808281</v>
       </c>
       <c r="L140">
         <v>0.006990238453338106</v>
@@ -11505,13 +11505,13 @@
         <v>0.06875000000002274</v>
       </c>
       <c r="U140">
-        <v>1.00006779124815</v>
+        <v>6.779124814970672E-05</v>
       </c>
       <c r="V140">
-        <v>1.000158099195952</v>
+        <v>0.0001580991959524436</v>
       </c>
       <c r="W140">
-        <v>1.000338409475465</v>
+        <v>0.0003384094754654843</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11546,7 +11546,7 @@
         <v>2.001222410019995</v>
       </c>
       <c r="K141">
-        <v>66.68024346808281</v>
+        <v>0.1668024346808281</v>
       </c>
       <c r="L141">
         <v>0.007648799249559124</v>
@@ -11576,13 +11576,13 @@
         <v>0.06562500000001137</v>
       </c>
       <c r="U141">
-        <v>1.000067786652808</v>
+        <v>6.778665280826601E-05</v>
       </c>
       <c r="V141">
-        <v>1.000135492175327</v>
+        <v>0.0001354921753269345</v>
       </c>
       <c r="W141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11617,7 +11617,7 @@
         <v>2.001222410019996</v>
       </c>
       <c r="K142">
-        <v>66.68024346808281</v>
+        <v>0.1668024346808281</v>
       </c>
       <c r="L142">
         <v>0.008266910939566427</v>
@@ -11647,13 +11647,13 @@
         <v>0.06562499999998295</v>
       </c>
       <c r="U142">
-        <v>1.000067782058089</v>
+        <v>6.778205808899429E-05</v>
       </c>
       <c r="V142">
-        <v>1.000135473819684</v>
+        <v>0.000135473819684373</v>
       </c>
       <c r="W142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11688,7 +11688,7 @@
         <v>2.001222410019995</v>
       </c>
       <c r="K143">
-        <v>66.68024346808281</v>
+        <v>0.1668024346808281</v>
       </c>
       <c r="L143">
         <v>0.008790936785822647</v>
@@ -11718,13 +11718,13 @@
         <v>0.06562500000003979</v>
       </c>
       <c r="U143">
-        <v>1.000079073707992</v>
+        <v>7.907370799209446E-05</v>
       </c>
       <c r="V143">
-        <v>1.000158031380517</v>
+        <v>0.0001580313805169542</v>
       </c>
       <c r="W143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11759,7 +11759,7 @@
         <v>2.001222410019995</v>
       </c>
       <c r="K144">
-        <v>66.68024346808281</v>
+        <v>0.1668024346808281</v>
       </c>
       <c r="L144">
         <v>0.009192481927450676</v>
@@ -11789,13 +11789,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U144">
-        <v>1.000067772105002</v>
+        <v>6.777210500197306E-05</v>
       </c>
       <c r="V144">
-        <v>1.000135434066182</v>
+        <v>0.0001354340661821052</v>
       </c>
       <c r="W144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11830,7 +11830,7 @@
         <v>2.001222410019995</v>
       </c>
       <c r="K145">
-        <v>66.68024346808281</v>
+        <v>0.1668024346808281</v>
       </c>
       <c r="L145">
         <v>0.009460700353404744</v>
@@ -11860,13 +11860,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U145">
-        <v>1.000067767512254</v>
+        <v>6.776751225445743E-05</v>
       </c>
       <c r="V145">
-        <v>1.000112846438566</v>
+        <v>0.0001128464385664607</v>
       </c>
       <c r="W145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11901,7 +11901,7 @@
         <v>2.250696281793072</v>
       </c>
       <c r="K146">
-        <v>69.23735983577021</v>
+        <v>0.1923735983577021</v>
       </c>
       <c r="L146">
         <v>0.009719933426924676</v>
@@ -11931,13 +11931,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U146">
-        <v>1.000090350560173</v>
+        <v>9.035056017347998E-05</v>
       </c>
       <c r="V146">
-        <v>1.000090266964548</v>
+        <v>9.026696454772498E-05</v>
       </c>
       <c r="W146">
-        <v>1.000338294993234</v>
+        <v>0.0003382949932340118</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11972,7 +11972,7 @@
         <v>2.775904432894435</v>
       </c>
       <c r="K147">
-        <v>73.51627887378903</v>
+        <v>0.2351627887378903</v>
       </c>
       <c r="L147">
         <v>0.01016846435838166</v>
@@ -12002,13 +12002,13 @@
         <v>0.08749999999997726</v>
       </c>
       <c r="U147">
-        <v>1.000135513596531</v>
+        <v>0.0001355135965310783</v>
       </c>
       <c r="V147">
-        <v>1.000135388225737</v>
+        <v>0.0001353882257371097</v>
       </c>
       <c r="W147">
-        <v>1.000676361176868</v>
+        <v>0.000676361176868312</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -12043,7 +12043,7 @@
         <v>1.51748800635976</v>
       </c>
       <c r="K148">
-        <v>60.27786438410958</v>
+        <v>0.1027786438410958</v>
       </c>
       <c r="L148">
         <v>0.01029584909074164</v>
@@ -12073,13 +12073,13 @@
         <v>0.07812499999997158</v>
       </c>
       <c r="U148">
-        <v>1.000090330156723</v>
+        <v>9.033015672255118E-05</v>
       </c>
       <c r="V148">
-        <v>1.000067684949124</v>
+        <v>6.768494912368084E-05</v>
       </c>
       <c r="W148">
-        <v>0.9989861439675568</v>
+        <v>-0.001013856032443194</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -12114,7 +12114,7 @@
         <v>1.51748800635976</v>
       </c>
       <c r="K149">
-        <v>60.27786438410958</v>
+        <v>0.1027786438410958</v>
       </c>
       <c r="L149">
         <v>0.01018306839810226</v>
@@ -12144,13 +12144,13 @@
         <v>0.06875000000002274</v>
       </c>
       <c r="U149">
-        <v>1.000090321997923</v>
+        <v>9.032199792269324E-05</v>
       </c>
       <c r="V149">
-        <v>1.000067680368181</v>
+        <v>6.768036818094458E-05</v>
       </c>
       <c r="W149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -12185,7 +12185,7 @@
         <v>1.51748800635976</v>
       </c>
       <c r="K150">
-        <v>60.27786438410958</v>
+        <v>0.1027786438410958</v>
       </c>
       <c r="L150">
         <v>0.009894904654720116</v>
@@ -12215,13 +12215,13 @@
         <v>0.05937500000001705</v>
       </c>
       <c r="U150">
-        <v>1.000090313840596</v>
+        <v>9.031384059610126E-05</v>
       </c>
       <c r="V150">
-        <v>1.000067675787859</v>
+        <v>6.767578785904504E-05</v>
       </c>
       <c r="W150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12256,7 +12256,7 @@
         <v>1.121988329579856</v>
       </c>
       <c r="K151">
-        <v>52.8743873818573</v>
+        <v>0.02874387381857302</v>
       </c>
       <c r="L151">
         <v>0.009236198188183966</v>
@@ -12286,13 +12286,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U151">
-        <v>1.000056441052964</v>
+        <v>5.644105296420676E-05</v>
       </c>
       <c r="V151">
-        <v>1.000045114138771</v>
+        <v>4.511413877095194E-05</v>
       </c>
       <c r="W151">
-        <v>0.9993234100135316</v>
+        <v>-0.0006765899864683567</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12327,7 +12327,7 @@
         <v>0.8804430607883769</v>
       </c>
       <c r="K152">
-        <v>46.82104335662525</v>
+        <v>-0.03178956643374747</v>
       </c>
       <c r="L152">
         <v>0.008114830205207924</v>
@@ -12357,13 +12357,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U152">
-        <v>1.000045150294042</v>
+        <v>4.515029404150717E-05</v>
       </c>
       <c r="V152">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W152">
-        <v>0.9993229519295871</v>
+        <v>-0.0006770480704129112</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12398,7 +12398,7 @@
         <v>0.7908358529782342</v>
       </c>
       <c r="K153">
-        <v>44.16015301810278</v>
+        <v>-0.05839846981897223</v>
       </c>
       <c r="L153">
         <v>0.00663191957265139</v>
@@ -12428,13 +12428,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U153">
-        <v>1.000045148255584</v>
+        <v>4.514825558432634E-05</v>
       </c>
       <c r="V153">
-        <v>0.9999548878964225</v>
+        <v>-4.511210357749373E-05</v>
       </c>
       <c r="W153">
-        <v>0.9996612466124662</v>
+        <v>-0.0003387533875337523</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12469,7 +12469,7 @@
         <v>0.7143105386482445</v>
       </c>
       <c r="K154">
-        <v>41.66751137232624</v>
+        <v>-0.08332488627673762</v>
       </c>
       <c r="L154">
         <v>0.004877147954958768</v>
@@ -12499,13 +12499,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U154">
-        <v>1.000022573108656</v>
+        <v>2.257310865561024E-05</v>
       </c>
       <c r="V154">
-        <v>0.9998872146530722</v>
+        <v>-0.0001127853469278239</v>
       </c>
       <c r="W154">
-        <v>0.999661131819722</v>
+        <v>-0.0003388681802779514</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12540,7 +12540,7 @@
         <v>0.8161685438831664</v>
       </c>
       <c r="K155">
-        <v>44.93903094137447</v>
+        <v>-0.05060969058625531</v>
       </c>
       <c r="L155">
         <v>0.003175089037869348</v>
@@ -12570,13 +12570,13 @@
         <v>-0.08124999999998295</v>
       </c>
       <c r="U155">
-        <v>1.000022572599122</v>
+        <v>2.257259912186171E-05</v>
       </c>
       <c r="V155">
-        <v>0.9998872019311033</v>
+        <v>-0.0001127980688967467</v>
       </c>
       <c r="W155">
-        <v>1.000338983050848</v>
+        <v>0.0003389830508475633</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12611,7 +12611,7 @@
         <v>0.9233874967619706</v>
       </c>
       <c r="K156">
-        <v>48.00839655641396</v>
+        <v>-0.01991603443586037</v>
       </c>
       <c r="L156">
         <v>0.001725139610543435</v>
@@ -12641,13 +12641,13 @@
         <v>-0.09375000000002842</v>
       </c>
       <c r="U156">
-        <v>1.000022572089611</v>
+        <v>2.257208961120583E-05</v>
       </c>
       <c r="V156">
-        <v>0.9999097513650103</v>
+        <v>-9.024863498974245E-05</v>
       </c>
       <c r="W156">
-        <v>1.000338868180278</v>
+        <v>0.0003388681802778404</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12682,7 +12682,7 @@
         <v>0.9233874967619706</v>
       </c>
       <c r="K157">
-        <v>48.00839655641396</v>
+        <v>-0.01991603443586037</v>
       </c>
       <c r="L157">
         <v>0.0005140081581751062</v>
@@ -12712,13 +12712,13 @@
         <v>-0.1062500000000171</v>
       </c>
       <c r="U157">
-        <v>1.000022571580124</v>
+        <v>2.257158012364258E-05</v>
       </c>
       <c r="V157">
-        <v>0.9999097432194592</v>
+        <v>-9.025678054075392E-05</v>
       </c>
       <c r="W157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12753,7 +12753,7 @@
         <v>1.042189660616669</v>
       </c>
       <c r="K158">
-        <v>51.0329515771794</v>
+        <v>0.01032951577179397</v>
       </c>
       <c r="L158">
         <v>-0.0003538882959610756</v>
@@ -12783,13 +12783,13 @@
         <v>-0.1156249999999943</v>
       </c>
       <c r="U158">
-        <v>1.000045142141317</v>
+        <v>4.514214131745575E-05</v>
       </c>
       <c r="V158">
-        <v>0.9999323013043284</v>
+        <v>-6.769869567158082E-05</v>
       </c>
       <c r="W158">
-        <v>1.000338753387534</v>
+        <v>0.0003387533875338633</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12824,7 +12824,7 @@
         <v>1.042189660616669</v>
       </c>
       <c r="K159">
-        <v>51.0329515771794</v>
+        <v>0.01032951577179397</v>
       </c>
       <c r="L159">
         <v>-0.0009572713208082547</v>
@@ -12854,13 +12854,13 @@
         <v>-0.1125000000000114</v>
       </c>
       <c r="U159">
-        <v>1.000033855077697</v>
+        <v>3.385507769726459E-05</v>
       </c>
       <c r="V159">
-        <v>0.9999322967209043</v>
+        <v>-6.770327909566554E-05</v>
       </c>
       <c r="W159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12895,7 +12895,7 @@
         <v>0.8249913151337012</v>
       </c>
       <c r="K160">
-        <v>45.20521869295916</v>
+        <v>-0.04794781307040835</v>
       </c>
       <c r="L160">
         <v>-0.001605034248081026</v>
@@ -12925,13 +12925,13 @@
         <v>-0.1031249999999773</v>
       </c>
       <c r="U160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V160">
-        <v>0.9998871535614335</v>
+        <v>-0.0001128464385664607</v>
       </c>
       <c r="W160">
-        <v>0.9993227226549273</v>
+        <v>-0.0006772773450727243</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12966,7 +12966,7 @@
         <v>0.8249913151337011</v>
       </c>
       <c r="K161">
-        <v>45.20521869295916</v>
+        <v>-0.04794781307040835</v>
       </c>
       <c r="L161">
         <v>-0.002232580618658331</v>
@@ -12996,13 +12996,13 @@
         <v>-0.08749999999997726</v>
       </c>
       <c r="U161">
-        <v>0.9999774307122867</v>
+        <v>-2.256928771326994E-05</v>
       </c>
       <c r="V161">
-        <v>0.9998645689908134</v>
+        <v>-0.0001354310091865596</v>
       </c>
       <c r="W161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -13037,7 +13037,7 @@
         <v>1.055911843113538</v>
       </c>
       <c r="K162">
-        <v>51.35978211567826</v>
+        <v>0.01359782115678254</v>
       </c>
       <c r="L162">
         <v>-0.002553219473029861</v>
@@ -13067,13 +13067,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V162">
-        <v>0.9998645506467708</v>
+        <v>-0.0001354493532291778</v>
       </c>
       <c r="W162">
-        <v>1.000677736360556</v>
+        <v>0.0006777363605556808</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -13108,7 +13108,7 @@
         <v>1.177448963102892</v>
       </c>
       <c r="K163">
-        <v>54.07469856032871</v>
+        <v>0.04074698560328704</v>
       </c>
       <c r="L163">
         <v>-0.002534909960010292</v>
@@ -13138,13 +13138,13 @@
         <v>-0.02187500000002274</v>
       </c>
       <c r="U163">
-        <v>1.000011284898549</v>
+        <v>1.128489854873571E-05</v>
       </c>
       <c r="V163">
-        <v>0.9999548440992525</v>
+        <v>-4.515590074749554E-05</v>
       </c>
       <c r="W163">
-        <v>1.000338638672536</v>
+        <v>0.0003386386725363622</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -13179,7 +13179,7 @@
         <v>1.043898987800685</v>
       </c>
       <c r="K164">
-        <v>51.07390306621567</v>
+        <v>0.01073903066215676</v>
       </c>
       <c r="L164">
         <v>-0.002426463819939282</v>
@@ -13209,13 +13209,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V164">
-        <v>0.9999322630901579</v>
+        <v>-6.773690984207548E-05</v>
       </c>
       <c r="W164">
-        <v>0.9996614759647936</v>
+        <v>-0.0003385240352064001</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13250,7 +13250,7 @@
         <v>1.163291781693238</v>
       </c>
       <c r="K165">
-        <v>53.77415065029803</v>
+        <v>0.03774150650298025</v>
       </c>
       <c r="L165">
         <v>-0.002138190350755151</v>
@@ -13280,13 +13280,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U165">
-        <v>1.000011284771201</v>
+        <v>1.128477120126981E-05</v>
       </c>
       <c r="V165">
-        <v>0.9999548390010385</v>
+        <v>-4.516099896145764E-05</v>
       </c>
       <c r="W165">
-        <v>1.000338638672536</v>
+        <v>0.0003386386725363622</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13321,7 +13321,7 @@
         <v>1.163291781693238</v>
       </c>
       <c r="K166">
-        <v>53.77415065029803</v>
+        <v>0.03774150650298025</v>
       </c>
       <c r="L166">
         <v>-0.001751543837060004</v>
@@ -13351,13 +13351,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U166">
-        <v>1.000022569287713</v>
+        <v>2.256928771315891E-05</v>
       </c>
       <c r="V166">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13392,7 +13392,7 @@
         <v>0.8327824512870329</v>
       </c>
       <c r="K167">
-        <v>45.43815064915255</v>
+        <v>-0.04561849350847452</v>
       </c>
       <c r="L167">
         <v>-0.001693439511725232</v>
@@ -13422,13 +13422,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U167">
-        <v>0.999988715610824</v>
+        <v>-1.128438917596952E-05</v>
       </c>
       <c r="V167">
-        <v>0.9999774184807152</v>
+        <v>-2.258151928480334E-05</v>
       </c>
       <c r="W167">
-        <v>0.9989844278943807</v>
+        <v>-0.001015572105619311</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13463,7 +13463,7 @@
         <v>0.8327824512870329</v>
       </c>
       <c r="K168">
-        <v>45.43815064915255</v>
+        <v>-0.04561849350847452</v>
       </c>
       <c r="L168">
         <v>-0.00183192636720184</v>
@@ -13493,13 +13493,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U168">
-        <v>0.9999774309669702</v>
+        <v>-2.256903302977342E-05</v>
       </c>
       <c r="V168">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13534,7 +13534,7 @@
         <v>0.8327824512870329</v>
       </c>
       <c r="K169">
-        <v>45.43815064915255</v>
+        <v>-0.04561849350847452</v>
       </c>
       <c r="L169">
         <v>-0.002074030769125745</v>
@@ -13564,13 +13564,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U169">
-        <v>0.999954860915195</v>
+        <v>-4.51390848049682E-05</v>
       </c>
       <c r="V169">
-        <v>1.000022582029221</v>
+        <v>2.258202922122976E-05</v>
       </c>
       <c r="W169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13605,7 +13605,7 @@
         <v>0.8327824512870329</v>
       </c>
       <c r="K170">
-        <v>45.43815064915255</v>
+        <v>-0.04561849350847452</v>
       </c>
       <c r="L170">
         <v>-0.00235594242470018</v>
@@ -13635,13 +13635,13 @@
         <v>0.009375000000005684</v>
       </c>
       <c r="U170">
-        <v>0.9999435735969575</v>
+        <v>-5.642640304248658E-05</v>
       </c>
       <c r="V170">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13676,7 +13676,7 @@
         <v>0.7460382445200092</v>
       </c>
       <c r="K171">
-        <v>42.72748588763571</v>
+        <v>-0.07272514112364292</v>
       </c>
       <c r="L171">
         <v>-0.002758745660991403</v>
@@ -13706,13 +13706,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U171">
-        <v>0.9999322844954065</v>
+        <v>-6.771550459350184E-05</v>
       </c>
       <c r="V171">
-        <v>0.9999548369614308</v>
+        <v>-4.516303856916259E-05</v>
       </c>
       <c r="W171">
-        <v>0.999661131819722</v>
+        <v>-0.0003388681802779514</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13747,7 +13747,7 @@
         <v>0.7460382445200092</v>
       </c>
       <c r="K172">
-        <v>42.72748588763571</v>
+        <v>-0.07272514112364292</v>
       </c>
       <c r="L172">
         <v>-0.003199099436320996</v>
@@ -13777,13 +13777,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U172">
-        <v>0.9999322799097068</v>
+        <v>-6.772009029321069E-05</v>
       </c>
       <c r="V172">
-        <v>0.9999548349216386</v>
+        <v>-4.516507836138661E-05</v>
       </c>
       <c r="W172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13818,7 +13818,7 @@
         <v>0.6061262905430436</v>
       </c>
       <c r="K173">
-        <v>37.73839542456575</v>
+        <v>-0.1226160457543425</v>
       </c>
       <c r="L173">
         <v>-0.003869143376253138</v>
@@ -13848,13 +13848,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U173">
-        <v>0.9999097004311803</v>
+        <v>-9.029956881967394E-05</v>
       </c>
       <c r="V173">
-        <v>0.9998870822041555</v>
+        <v>-0.0001129177958445471</v>
       </c>
       <c r="W173">
-        <v>0.9993220338983051</v>
+        <v>-0.0006779661016949046</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13889,7 +13889,7 @@
         <v>0.8035367344582078</v>
       </c>
       <c r="K174">
-        <v>44.55338885568054</v>
+        <v>-0.05446611144319463</v>
       </c>
       <c r="L174">
         <v>-0.004374977030459892</v>
@@ -13919,13 +13919,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U174">
-        <v>0.9999322692073238</v>
+        <v>-6.773079267619053E-05</v>
       </c>
       <c r="V174">
-        <v>0.999932241671372</v>
+        <v>-6.775832862804254E-05</v>
       </c>
       <c r="W174">
-        <v>1.00067842605156</v>
+        <v>0.0006784260515604323</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13960,7 +13960,7 @@
         <v>0.7279070245405466</v>
       </c>
       <c r="K175">
-        <v>42.12651573276047</v>
+        <v>-0.07873484267239533</v>
       </c>
       <c r="L175">
         <v>-0.004856509080681407</v>
@@ -13990,13 +13990,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U175">
-        <v>0.9999209753894783</v>
+        <v>-7.902461052167187E-05</v>
       </c>
       <c r="V175">
-        <v>0.9999548247199133</v>
+        <v>-4.517528008673999E-05</v>
       </c>
       <c r="W175">
-        <v>0.9996610169491524</v>
+        <v>-0.0003389830508475633</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -14031,7 +14031,7 @@
         <v>0.7279070245405466</v>
       </c>
       <c r="K176">
-        <v>42.12651573276047</v>
+        <v>-0.07873484267239533</v>
       </c>
       <c r="L176">
         <v>-0.005274987940984526</v>
@@ -14061,13 +14061,13 @@
         <v>-0.07187500000000568</v>
       </c>
       <c r="U176">
-        <v>0.9999096790218239</v>
+        <v>-9.032097817607276E-05</v>
       </c>
       <c r="V176">
-        <v>0.9999548226790151</v>
+        <v>-4.517732098485716E-05</v>
       </c>
       <c r="W176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -14102,7 +14102,7 @@
         <v>0.7279070245405466</v>
       </c>
       <c r="K177">
-        <v>42.12651573276047</v>
+        <v>-0.07873484267239533</v>
       </c>
       <c r="L177">
         <v>-0.005609426691190756</v>
@@ -14132,13 +14132,13 @@
         <v>-0.07812499999997158</v>
       </c>
       <c r="U177">
-        <v>0.9998870885790099</v>
+        <v>-0.000112911420990125</v>
       </c>
       <c r="V177">
-        <v>0.9999096412758651</v>
+        <v>-9.035872413487578E-05</v>
       </c>
       <c r="W177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -14173,7 +14173,7 @@
         <v>0.7279070245405466</v>
       </c>
       <c r="K178">
-        <v>42.12651573276047</v>
+        <v>-0.07873484267239533</v>
       </c>
       <c r="L178">
         <v>-0.005851243080672154</v>
@@ -14203,13 +14203,13 @@
         <v>-0.07812500000002842</v>
       </c>
       <c r="U178">
-        <v>0.9999209530800068</v>
+        <v>-7.904691999316427E-05</v>
       </c>
       <c r="V178">
-        <v>0.9998870413880357</v>
+        <v>-0.0001129586119642534</v>
       </c>
       <c r="W178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14244,7 +14244,7 @@
         <v>0.7279070245405466</v>
       </c>
       <c r="K179">
-        <v>42.12651573276047</v>
+        <v>-0.07873484267239533</v>
       </c>
       <c r="L179">
         <v>-0.006000253849842987</v>
@@ -14274,13 +14274,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U179">
-        <v>0.9999209468310971</v>
+        <v>-7.905316890288727E-05</v>
       </c>
       <c r="V179">
-        <v>0.9999096229015566</v>
+        <v>-9.037709844339492E-05</v>
       </c>
       <c r="W179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14315,7 +14315,7 @@
         <v>0.6489679676442021</v>
       </c>
       <c r="K180">
-        <v>39.35600814437591</v>
+        <v>-0.106439918556241</v>
       </c>
       <c r="L180">
         <v>-0.00618507089375637</v>
@@ -14345,13 +14345,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U180">
-        <v>0.9999096463785138</v>
+        <v>-9.035362148623882E-05</v>
       </c>
       <c r="V180">
-        <v>0.9998644220991979</v>
+        <v>-0.0001355779008020974</v>
       </c>
       <c r="W180">
-        <v>0.9996609020006784</v>
+        <v>-0.0003390979993216359</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14386,7 +14386,7 @@
         <v>0.763122305080173</v>
       </c>
       <c r="K181">
-        <v>43.28243723542889</v>
+        <v>-0.06717562764571106</v>
       </c>
       <c r="L181">
         <v>-0.006233956751899277</v>
@@ -14416,13 +14416,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U181">
-        <v>0.9999435238837499</v>
+        <v>-5.647611625014815E-05</v>
       </c>
       <c r="V181">
-        <v>0.9998870030961149</v>
+        <v>-0.0001129969038851097</v>
       </c>
       <c r="W181">
-        <v>1.00033921302578</v>
+        <v>0.0003392130257799941</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14457,7 +14457,7 @@
         <v>0.763122305080173</v>
       </c>
       <c r="K182">
-        <v>43.28243723542889</v>
+        <v>-0.06717562764571106</v>
       </c>
       <c r="L182">
         <v>-0.006174683066384959</v>
@@ -14487,13 +14487,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U182">
-        <v>0.9999661124164104</v>
+        <v>-3.388758358957578E-05</v>
       </c>
       <c r="V182">
-        <v>0.9999547961305491</v>
+        <v>-4.520386945094934E-05</v>
       </c>
       <c r="W182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14528,7 +14528,7 @@
         <v>0.7631223050801729</v>
       </c>
       <c r="K183">
-        <v>43.28243723542889</v>
+        <v>-0.06717562764571111</v>
       </c>
       <c r="L183">
         <v>-0.006031179578151802</v>
@@ -14558,13 +14558,13 @@
         <v>-0.02812500000001705</v>
       </c>
       <c r="U183">
-        <v>0.9999774075120023</v>
+        <v>-2.259248799774127E-05</v>
       </c>
       <c r="V183">
-        <v>0.9999547940870664</v>
+        <v>-4.520591293355469E-05</v>
       </c>
       <c r="W183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14599,7 +14599,7 @@
         <v>0.763122305080173</v>
       </c>
       <c r="K184">
-        <v>43.28243723542889</v>
+        <v>-0.06717562764571106</v>
       </c>
       <c r="L184">
         <v>-0.005823831415616306</v>
@@ -14629,13 +14629,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U184">
-        <v>0.9999887035007852</v>
+        <v>-1.129649921483011E-05</v>
       </c>
       <c r="V184">
-        <v>0.9999547920433994</v>
+        <v>-4.520795660056809E-05</v>
       </c>
       <c r="W184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14670,7 +14670,7 @@
         <v>0.763122305080173</v>
       </c>
       <c r="K185">
-        <v>43.28243723542889</v>
+        <v>-0.06717562764571106</v>
       </c>
       <c r="L185">
         <v>-0.005569810549393878</v>
@@ -14700,13 +14700,13 @@
         <v>-0.01562500000002842</v>
       </c>
       <c r="U185">
-        <v>0.9999774067463456</v>
+        <v>-2.259325365439047E-05</v>
       </c>
       <c r="V185">
-        <v>0.9999547899995481</v>
+        <v>-4.521000045187851E-05</v>
       </c>
       <c r="W185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14741,7 +14741,7 @@
         <v>1.05817826188587</v>
       </c>
       <c r="K186">
-        <v>51.41334360981353</v>
+        <v>0.01413343609813533</v>
       </c>
       <c r="L186">
         <v>-0.005036615902965634</v>
@@ -14771,13 +14771,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U186">
-        <v>0.9999887031179394</v>
+        <v>-1.129688206058521E-05</v>
       </c>
       <c r="V186">
-        <v>1.000022606022244</v>
+        <v>2.260602224413155E-05</v>
       </c>
       <c r="W186">
-        <v>1.000678195998644</v>
+        <v>0.0006781959986437158</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14812,7 +14812,7 @@
         <v>1.05817826188587</v>
       </c>
       <c r="K187">
-        <v>51.41334360981353</v>
+        <v>0.01413343609813533</v>
       </c>
       <c r="L187">
         <v>-0.00434988214162584</v>
@@ -14842,13 +14842,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U187">
-        <v>0.9999887029903185</v>
+        <v>-1.129700968149905E-05</v>
       </c>
       <c r="V187">
-        <v>1.000022605511224</v>
+        <v>2.260551122379439E-05</v>
       </c>
       <c r="W187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14883,7 +14883,7 @@
         <v>0.7974624283105186</v>
       </c>
       <c r="K188">
-        <v>44.36601376197188</v>
+        <v>-0.05633986238028121</v>
       </c>
       <c r="L188">
         <v>-0.003844847317425292</v>
@@ -14913,13 +14913,13 @@
         <v>0.015625</v>
       </c>
       <c r="U188">
-        <v>0.9999548114507785</v>
+        <v>-4.518854922153093E-05</v>
       </c>
       <c r="V188">
-        <v>1.000022605000226</v>
+        <v>2.260500022588374E-05</v>
       </c>
       <c r="W188">
-        <v>0.9993222636394441</v>
+        <v>-0.0006777363605559028</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14954,7 +14954,7 @@
         <v>0.7974624283105187</v>
       </c>
       <c r="K189">
-        <v>44.36601376197189</v>
+        <v>-0.05633986238028116</v>
       </c>
       <c r="L189">
         <v>-0.00346808590380454</v>
@@ -14984,13 +14984,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U189">
-        <v>0.9999548094086812</v>
+        <v>-4.519059131879999E-05</v>
       </c>
       <c r="V189">
-        <v>0.9999773955107486</v>
+        <v>-2.26044892513988E-05</v>
       </c>
       <c r="W189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -15025,7 +15025,7 @@
         <v>0.7016829845432496</v>
       </c>
       <c r="K190">
-        <v>41.23464775265347</v>
+        <v>-0.08765352247346536</v>
       </c>
       <c r="L190">
         <v>-0.003303846577547635</v>
@@ -15055,13 +15055,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U190">
-        <v>0.9999661055247995</v>
+        <v>-3.389447520052435E-05</v>
       </c>
       <c r="V190">
-        <v>0.9999773949997736</v>
+        <v>-2.260500022643885E-05</v>
       </c>
       <c r="W190">
-        <v>0.9996609020006784</v>
+        <v>-0.0003390979993216359</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -15096,7 +15096,7 @@
         <v>0.7016829845432495</v>
       </c>
       <c r="K191">
-        <v>41.23464775265347</v>
+        <v>-0.08765352247346536</v>
       </c>
       <c r="L191">
         <v>-0.003266814083769787</v>
@@ -15126,13 +15126,13 @@
         <v>0.009375000000005684</v>
       </c>
       <c r="U191">
-        <v>0.9999661043759249</v>
+        <v>-3.38956240750754E-05</v>
       </c>
       <c r="V191">
-        <v>0.9999773944887765</v>
+        <v>-2.260551122346133E-05</v>
       </c>
       <c r="W191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -15167,7 +15167,7 @@
         <v>0.6192701225099043</v>
       </c>
       <c r="K192">
-        <v>38.24378118889898</v>
+        <v>-0.1175621881110102</v>
       </c>
       <c r="L192">
         <v>-0.00342075670436493</v>
@@ -15197,13 +15197,13 @@
         <v>0.003125000000011369</v>
       </c>
       <c r="U192">
-        <v>0.9999322064539459</v>
+        <v>-6.779354605412902E-05</v>
       </c>
       <c r="V192">
-        <v>0.9999547879555114</v>
+        <v>-4.521204448859617E-05</v>
       </c>
       <c r="W192">
-        <v>0.9996607869742198</v>
+        <v>-0.0003392130257802162</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15238,7 +15238,7 @@
         <v>0.6192701225099043</v>
       </c>
       <c r="K193">
-        <v>38.24378118889898</v>
+        <v>-0.1175621881110102</v>
       </c>
       <c r="L193">
         <v>-0.003668158977107952</v>
@@ -15268,13 +15268,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U193">
-        <v>0.9999209021672804</v>
+        <v>-7.909783271964343E-05</v>
       </c>
       <c r="V193">
-        <v>0.9999547859112899</v>
+        <v>-4.521408871005494E-05</v>
       </c>
       <c r="W193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15309,7 +15309,7 @@
         <v>0.5479593439835789</v>
       </c>
       <c r="K194">
-        <v>35.39882013783638</v>
+        <v>-0.1460117986216362</v>
       </c>
       <c r="L194">
         <v>-0.004066523758008333</v>
@@ -15339,13 +15339,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U194">
-        <v>0.9999208959103186</v>
+        <v>-7.910408968136995E-05</v>
       </c>
       <c r="V194">
-        <v>0.9999321758003255</v>
+        <v>-6.782419967454878E-05</v>
       </c>
       <c r="W194">
-        <v>0.9996606718696981</v>
+        <v>-0.000339328130301908</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15380,7 +15380,7 @@
         <v>1.03281385039457</v>
       </c>
       <c r="K195">
-        <v>50.80710416224784</v>
+        <v>0.008071041622478403</v>
       </c>
       <c r="L195">
         <v>-0.004022419136504086</v>
@@ -15410,13 +15410,13 @@
         <v>-0.03437499999998295</v>
       </c>
       <c r="U195">
-        <v>0.9999547940870667</v>
+        <v>-4.520591293333265E-05</v>
       </c>
       <c r="V195">
-        <v>1.000045219200072</v>
+        <v>4.521920007238833E-05</v>
       </c>
       <c r="W195">
-        <v>1.001357773251867</v>
+        <v>0.001357773251866812</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15451,7 +15451,7 @@
         <v>1.03281385039457</v>
       </c>
       <c r="K196">
-        <v>50.80710416224783</v>
+        <v>0.008071041622478292</v>
       </c>
       <c r="L196">
         <v>-0.003698383979759218</v>
@@ -15481,13 +15481,13 @@
         <v>-0.03437499999998295</v>
       </c>
       <c r="U196">
-        <v>0.9999547920433997</v>
+        <v>-4.520795660034604E-05</v>
       </c>
       <c r="V196">
-        <v>1.000022608577695</v>
+        <v>2.260857769464941E-05</v>
       </c>
       <c r="W196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15522,7 +15522,7 @@
         <v>0.9105227045519979</v>
       </c>
       <c r="K197">
-        <v>47.65830326866008</v>
+        <v>-0.02341696731339915</v>
       </c>
       <c r="L197">
         <v>-0.003335365032292442</v>
@@ -15552,13 +15552,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U197">
-        <v>0.9999773949997738</v>
+        <v>-2.260500022621681E-05</v>
       </c>
       <c r="V197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W197">
-        <v>0.9996610169491524</v>
+        <v>-0.0003389830508475633</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15593,7 +15593,7 @@
         <v>1.035160384314301</v>
       </c>
       <c r="K198">
-        <v>50.86382342603792</v>
+        <v>0.008638234260379241</v>
       </c>
       <c r="L198">
         <v>-0.00283625186332827</v>
@@ -15623,13 +15623,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U198">
-        <v>0.9999886972443882</v>
+        <v>-1.130275561178617E-05</v>
       </c>
       <c r="V198">
-        <v>1.000022608066558</v>
+        <v>2.260806655818293E-05</v>
       </c>
       <c r="W198">
-        <v>1.000339097999322</v>
+        <v>0.0003390979993218579</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15664,7 +15664,7 @@
         <v>1.035160384314301</v>
       </c>
       <c r="K199">
-        <v>50.86382342603792</v>
+        <v>0.008638234260379241</v>
       </c>
       <c r="L199">
         <v>-0.002276149855108063</v>
@@ -15694,13 +15694,13 @@
         <v>-0.01562500000002842</v>
       </c>
       <c r="U199">
-        <v>0.9999886971166345</v>
+        <v>-1.130288336548269E-05</v>
       </c>
       <c r="V199">
-        <v>1.000022607555445</v>
+        <v>2.260755544525317E-05</v>
       </c>
       <c r="W199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15735,7 +15735,7 @@
         <v>0.9095491921393185</v>
       </c>
       <c r="K200">
-        <v>47.63161880738597</v>
+        <v>-0.02368381192614033</v>
       </c>
       <c r="L200">
         <v>-0.001829957085877269</v>
@@ -15765,13 +15765,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U200">
-        <v>0.9999773939777556</v>
+        <v>-2.26060222443536E-05</v>
       </c>
       <c r="V200">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W200">
-        <v>0.9996610169491524</v>
+        <v>-0.0003389830508475633</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15806,7 +15806,7 @@
         <v>1.037280420609966</v>
       </c>
       <c r="K201">
-        <v>50.91495555135223</v>
+        <v>0.009149555513522256</v>
       </c>
       <c r="L201">
         <v>-0.001351080387296714</v>
@@ -15836,13 +15836,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V201">
-        <v>0.999977392955645</v>
+        <v>-2.260704435497196E-05</v>
       </c>
       <c r="W201">
-        <v>1.000339097999322</v>
+        <v>0.0003390979993218579</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15877,7 +15877,7 @@
         <v>0.9143433664605052</v>
       </c>
       <c r="K202">
-        <v>47.76276724854569</v>
+        <v>-0.0223723275145431</v>
       </c>
       <c r="L202">
         <v>-0.001001463041810133</v>
@@ -15907,13 +15907,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U202">
-        <v>0.999988696733356</v>
+        <v>-1.130326664400272E-05</v>
       </c>
       <c r="V202">
-        <v>0.9999547848891098</v>
+        <v>-4.521511089017327E-05</v>
       </c>
       <c r="W202">
-        <v>0.9996610169491524</v>
+        <v>-0.0003389830508475633</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15948,7 +15948,7 @@
         <v>0.9143433664605051</v>
       </c>
       <c r="K203">
-        <v>47.76276724854569</v>
+        <v>-0.0223723275145431</v>
       </c>
       <c r="L203">
         <v>-0.0007487900462629862</v>
@@ -15978,13 +15978,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U203">
-        <v>1.000011303394409</v>
+        <v>1.130339440935657E-05</v>
       </c>
       <c r="V203">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -16019,7 +16019,7 @@
         <v>0.9143433664605052</v>
       </c>
       <c r="K204">
-        <v>47.76276724854569</v>
+        <v>-0.0223723275145431</v>
       </c>
       <c r="L204">
         <v>-0.0005682249953085662</v>
@@ -16049,13 +16049,13 @@
         <v>0.03124999999997158</v>
       </c>
       <c r="U204">
-        <v>0.999988696733356</v>
+        <v>-1.130326664400272E-05</v>
       </c>
       <c r="V204">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -16090,7 +16090,7 @@
         <v>0.9143433664605052</v>
       </c>
       <c r="K205">
-        <v>47.76276724854569</v>
+        <v>-0.0223723275145431</v>
       </c>
       <c r="L205">
         <v>-0.0004407830009502796</v>
@@ -16120,13 +16120,13 @@
         <v>0.03125</v>
       </c>
       <c r="U205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V205">
-        <v>1.000022608577695</v>
+        <v>2.260857769464941E-05</v>
       </c>
       <c r="W205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -16161,7 +16161,7 @@
         <v>0.9143433664605053</v>
       </c>
       <c r="K206">
-        <v>47.76276724854569</v>
+        <v>-0.0223723275145431</v>
       </c>
       <c r="L206">
         <v>-0.0003520409164633061</v>
@@ -16191,13 +16191,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V206">
-        <v>1.000022608066558</v>
+        <v>2.260806655818293E-05</v>
       </c>
       <c r="W206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16232,7 +16232,7 @@
         <v>0.9143433664605051</v>
       </c>
       <c r="K207">
-        <v>47.76276724854569</v>
+        <v>-0.0223723275145431</v>
       </c>
       <c r="L207">
         <v>-0.0002911176115554444</v>
@@ -16262,13 +16262,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V207">
-        <v>1.00004521511089</v>
+        <v>4.521511089006225E-05</v>
       </c>
       <c r="W207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16303,7 +16303,7 @@
         <v>0.9143433664605053</v>
       </c>
       <c r="K208">
-        <v>47.76276724854569</v>
+        <v>-0.0223723275145431</v>
       </c>
       <c r="L208">
         <v>-0.0002498700092510105</v>
@@ -16333,13 +16333,13 @@
         <v>0.006249999999965894</v>
       </c>
       <c r="U208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V208">
-        <v>1.000045213066576</v>
+        <v>4.521306657623292E-05</v>
       </c>
       <c r="W208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16374,7 +16374,7 @@
         <v>0.9143433664605053</v>
       </c>
       <c r="K209">
-        <v>47.76276724854569</v>
+        <v>-0.0223723275145431</v>
       </c>
       <c r="L209">
         <v>-0.0002222611410311496</v>
@@ -16404,13 +16404,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V209">
-        <v>1.000067816533671</v>
+        <v>6.781653367093909E-05</v>
       </c>
       <c r="W209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16445,7 +16445,7 @@
         <v>0.9143433664605053</v>
       </c>
       <c r="K210">
-        <v>47.76276724854569</v>
+        <v>-0.0223723275145431</v>
       </c>
       <c r="L210">
         <v>-0.0002038650415613541</v>
@@ -16475,13 +16475,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U210">
-        <v>1.000011303394409</v>
+        <v>1.130339440935657E-05</v>
       </c>
       <c r="V210">
-        <v>0.9999773960216997</v>
+        <v>-2.260397830033956E-05</v>
       </c>
       <c r="W210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16516,7 +16516,7 @@
         <v>0.6644450876562654</v>
       </c>
       <c r="K211">
-        <v>39.91991640840987</v>
+        <v>-0.1008008359159013</v>
       </c>
       <c r="L211">
         <v>-0.0004384257538546097</v>
@@ -16546,13 +16546,13 @@
         <v>-0.01875000000003979</v>
       </c>
       <c r="U211">
-        <v>0.9999773934667119</v>
+        <v>-2.260653328811646E-05</v>
       </c>
       <c r="V211">
-        <v>0.9999321865322456</v>
+        <v>-6.781346775441843E-05</v>
       </c>
       <c r="W211">
-        <v>0.9993218040013564</v>
+        <v>-0.0006781959986436048</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16587,7 +16587,7 @@
         <v>0.8082919341709953</v>
       </c>
       <c r="K212">
-        <v>44.69919479796572</v>
+        <v>-0.05300805202034276</v>
       </c>
       <c r="L212">
         <v>-0.0006862208197739807</v>
@@ -16617,13 +16617,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U212">
-        <v>0.9999886964778225</v>
+        <v>-1.130352217748598E-05</v>
       </c>
       <c r="V212">
-        <v>0.9999773939777553</v>
+        <v>-2.260602224468666E-05</v>
       </c>
       <c r="W212">
-        <v>1.000339328130302</v>
+        <v>0.00033932813030213</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16658,7 +16658,7 @@
         <v>1.111127400517709</v>
       </c>
       <c r="K213">
-        <v>52.63194444092899</v>
+        <v>0.0263194444092899</v>
       </c>
       <c r="L213">
         <v>-0.00067679925197475</v>
@@ -16688,13 +16688,13 @@
         <v>-0.01562499999997158</v>
       </c>
       <c r="U213">
-        <v>1.000011303649949</v>
+        <v>1.130364994850197E-05</v>
       </c>
       <c r="V213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W213">
-        <v>1.00067842605156</v>
+        <v>0.0006784260515604323</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16729,7 +16729,7 @@
         <v>1.111127400517709</v>
       </c>
       <c r="K214">
-        <v>52.63194444092899</v>
+        <v>0.0263194444092899</v>
       </c>
       <c r="L214">
         <v>-0.0005096813736260212</v>
@@ -16759,13 +16759,13 @@
         <v>-0.009374999999977263</v>
       </c>
       <c r="U214">
-        <v>1.000011303522178</v>
+        <v>1.1303522177597E-05</v>
       </c>
       <c r="V214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16800,7 +16800,7 @@
         <v>0.9514902799365311</v>
       </c>
       <c r="K215">
-        <v>48.75711089718964</v>
+        <v>-0.01242889102810357</v>
       </c>
       <c r="L215">
         <v>-0.0003792930697756758</v>
@@ -16830,13 +16830,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V215">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W215">
-        <v>0.9996610169491524</v>
+        <v>-0.0003389830508475633</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16871,7 +16871,7 @@
         <v>1.102723229657402</v>
       </c>
       <c r="K216">
-        <v>52.44262364653049</v>
+        <v>0.02442623646530484</v>
       </c>
       <c r="L216">
         <v>-0.0001546084003044957</v>
@@ -16901,13 +16901,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U216">
-        <v>0.9999886966055906</v>
+        <v>-1.130339440935657E-05</v>
       </c>
       <c r="V216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W216">
-        <v>1.000339097999322</v>
+        <v>0.0003390979993218579</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16942,7 +16942,7 @@
         <v>1.102723229657402</v>
       </c>
       <c r="K217">
-        <v>52.44262364653049</v>
+        <v>0.02442623646530484</v>
       </c>
       <c r="L217">
         <v>0.0001134493322154584</v>
@@ -16972,13 +16972,13 @@
         <v>0.003125000000011369</v>
       </c>
       <c r="U217">
-        <v>0.9999886964778225</v>
+        <v>-1.130352217748598E-05</v>
       </c>
       <c r="V217">
-        <v>1.000022606533288</v>
+        <v>2.260653328822748E-05</v>
       </c>
       <c r="W217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -17013,7 +17013,7 @@
         <v>0.944459139319342</v>
       </c>
       <c r="K218">
-        <v>48.57181723293758</v>
+        <v>-0.01428182767062419</v>
       </c>
       <c r="L218">
         <v>0.0002668116958933264</v>
@@ -17043,13 +17043,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U218">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V218">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W218">
-        <v>0.9996610169491524</v>
+        <v>-0.0003389830508475633</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -17084,7 +17084,7 @@
         <v>1.095534019055919</v>
       </c>
       <c r="K219">
-        <v>52.27946714744718</v>
+        <v>0.02279467147447178</v>
       </c>
       <c r="L219">
         <v>0.0004634194399753134</v>
@@ -17114,13 +17114,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U219">
-        <v>1.000011303649949</v>
+        <v>1.130364994850197E-05</v>
       </c>
       <c r="V219">
-        <v>1.000022606022244</v>
+        <v>2.26060222443536E-05</v>
       </c>
       <c r="W219">
-        <v>1.000339097999322</v>
+        <v>0.0003390979993218579</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -17155,7 +17155,7 @@
         <v>1.095534019055919</v>
       </c>
       <c r="K220">
-        <v>52.27946714744718</v>
+        <v>0.02279467147447178</v>
       </c>
       <c r="L220">
         <v>0.0006720085700230023</v>
@@ -17185,13 +17185,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U220">
-        <v>1.000022607044355</v>
+        <v>2.260704435474992E-05</v>
       </c>
       <c r="V220">
-        <v>1.000022605511224</v>
+        <v>2.260551122357235E-05</v>
       </c>
       <c r="W220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -17226,7 +17226,7 @@
         <v>0.9384425077078284</v>
       </c>
       <c r="K221">
-        <v>48.41219195185309</v>
+        <v>-0.0158780804814691</v>
       </c>
       <c r="L221">
         <v>0.0007486405275214121</v>
@@ -17256,13 +17256,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U221">
-        <v>1.000011303266644</v>
+        <v>1.130326664422476E-05</v>
       </c>
       <c r="V221">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W221">
-        <v>0.9996610169491524</v>
+        <v>-0.0003389830508475633</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17297,7 +17297,7 @@
         <v>0.8153707575633784</v>
       </c>
       <c r="K222">
-        <v>44.91483374215981</v>
+        <v>-0.0508516625784019</v>
       </c>
       <c r="L222">
         <v>0.0006142476139379965</v>
@@ -17327,13 +17327,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U222">
-        <v>1.000011303138882</v>
+        <v>1.130313888153545E-05</v>
       </c>
       <c r="V222">
-        <v>0.9999773949997738</v>
+        <v>-2.260500022621681E-05</v>
       </c>
       <c r="W222">
-        <v>0.9996609020006784</v>
+        <v>-0.0003390979993216359</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17368,7 +17368,7 @@
         <v>0.7164648988061341</v>
       </c>
       <c r="K223">
-        <v>41.74072533055948</v>
+        <v>-0.08259274669440519</v>
       </c>
       <c r="L223">
         <v>0.0002348689356348549</v>
@@ -17398,13 +17398,13 @@
         <v>0.006249999999965894</v>
       </c>
       <c r="U223">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V223">
-        <v>0.9999547889775527</v>
+        <v>-4.521102244725572E-05</v>
       </c>
       <c r="W223">
-        <v>0.9996607869742198</v>
+        <v>-0.0003392130257802162</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17439,7 +17439,7 @@
         <v>0.5707191965388613</v>
       </c>
       <c r="K224">
-        <v>36.33489663820639</v>
+        <v>-0.1366510336179361</v>
       </c>
       <c r="L224">
         <v>-0.0005165508021174858</v>
@@ -17469,13 +17469,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U224">
-        <v>0.9999886969888778</v>
+        <v>-1.13030111221768E-05</v>
       </c>
       <c r="V224">
-        <v>0.9999095738668476</v>
+        <v>-9.042613315235482E-05</v>
       </c>
       <c r="W224">
-        <v>0.9993213437393961</v>
+        <v>-0.000678656260603927</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17510,7 +17510,7 @@
         <v>0.7848490568544674</v>
       </c>
       <c r="K225">
-        <v>43.97285326960072</v>
+        <v>-0.0602714673039928</v>
       </c>
       <c r="L225">
         <v>-0.001196662194791401</v>
@@ -17540,13 +17540,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U225">
-        <v>0.9999660905833548</v>
+        <v>-3.390941664516145E-05</v>
       </c>
       <c r="V225">
-        <v>0.9999547828446113</v>
+        <v>-4.521715538874371E-05</v>
       </c>
       <c r="W225">
-        <v>1.000679117147708</v>
+        <v>0.0006791171477078528</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17581,7 +17581,7 @@
         <v>0.7848490568544675</v>
       </c>
       <c r="K226">
-        <v>43.97285326960073</v>
+        <v>-0.06027146730399274</v>
       </c>
       <c r="L226">
         <v>-0.001785892012751929</v>
@@ -17611,13 +17611,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U226">
-        <v>0.9999660894334675</v>
+        <v>-3.391056653245794E-05</v>
       </c>
       <c r="V226">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17652,7 +17652,7 @@
         <v>0.9034805584143938</v>
       </c>
       <c r="K227">
-        <v>47.46465911724344</v>
+        <v>-0.02535340882756565</v>
       </c>
       <c r="L227">
         <v>-0.002152551238412972</v>
@@ -17682,13 +17682,13 @@
         <v>-0.04687499999997158</v>
       </c>
       <c r="U227">
-        <v>0.9999886960945007</v>
+        <v>-1.130390549930471E-05</v>
       </c>
       <c r="V227">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W227">
-        <v>1.000339328130302</v>
+        <v>0.00033932813030213</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17723,7 +17723,7 @@
         <v>1.028355823214245</v>
       </c>
       <c r="K228">
-        <v>50.69898542676085</v>
+        <v>0.006989854267608453</v>
       </c>
       <c r="L228">
         <v>-0.002229692881705843</v>
@@ -17753,13 +17753,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U228">
-        <v>0.9999886959667211</v>
+        <v>-1.130403327886942E-05</v>
       </c>
       <c r="V228">
-        <v>0.9999773903999638</v>
+        <v>-2.260960003619417E-05</v>
       </c>
       <c r="W228">
-        <v>1.00033921302578</v>
+        <v>0.0003392130257799941</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17794,7 +17794,7 @@
         <v>1.159803470372058</v>
       </c>
       <c r="K229">
-        <v>53.69949100842332</v>
+        <v>0.03699491008423317</v>
       </c>
       <c r="L229">
         <v>-0.001994910611213364</v>
@@ -17824,13 +17824,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W229">
-        <v>1.000339097999322</v>
+        <v>0.0003390979993218579</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17865,7 +17865,7 @@
         <v>1.018831840588091</v>
       </c>
       <c r="K230">
-        <v>50.46640438815859</v>
+        <v>0.004664043881585922</v>
       </c>
       <c r="L230">
         <v>-0.001702320128040774</v>
@@ -17895,13 +17895,13 @@
         <v>-0.04062500000003411</v>
       </c>
       <c r="U230">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V230">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W230">
-        <v>0.9996610169491524</v>
+        <v>-0.0003389830508475633</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17936,7 +17936,7 @@
         <v>1.018831840588091</v>
       </c>
       <c r="K231">
-        <v>50.46640438815859</v>
+        <v>0.004664043881585922</v>
       </c>
       <c r="L231">
         <v>-0.001387149230169693</v>
@@ -17966,13 +17966,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U231">
-        <v>0.9999886958389381</v>
+        <v>-1.130416106187582E-05</v>
       </c>
       <c r="V231">
-        <v>0.9999773898887583</v>
+        <v>-2.261011124171652E-05</v>
       </c>
       <c r="W231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -18007,7 +18007,7 @@
         <v>1.018831840588091</v>
       </c>
       <c r="K232">
-        <v>50.46640438815859</v>
+        <v>0.004664043881585922</v>
       </c>
       <c r="L232">
         <v>-0.001073328504805927</v>
@@ -18037,13 +18037,13 @@
         <v>2.842170943040401E-14</v>
       </c>
       <c r="U232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V232">
-        <v>0.9999773893775296</v>
+        <v>-2.261062247044254E-05</v>
       </c>
       <c r="W232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -18078,7 +18078,7 @@
         <v>1.160599281845397</v>
       </c>
       <c r="K233">
-        <v>53.71654483075239</v>
+        <v>0.03716544830752389</v>
       </c>
       <c r="L233">
         <v>-0.0006529241914488248</v>
@@ -18108,13 +18108,13 @@
         <v>0.01875000000003979</v>
       </c>
       <c r="U233">
-        <v>1.000011304288847</v>
+        <v>1.130428884743573E-05</v>
       </c>
       <c r="V233">
-        <v>1.000022611133722</v>
+        <v>2.26111337222612E-05</v>
       </c>
       <c r="W233">
-        <v>1.000339097999322</v>
+        <v>0.0003390979993218579</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -18149,7 +18149,7 @@
         <v>1.160599281845397</v>
       </c>
       <c r="K234">
-        <v>53.71654483075239</v>
+        <v>0.03716544830752389</v>
       </c>
       <c r="L234">
         <v>-0.0001923579652669557</v>
@@ -18179,13 +18179,13 @@
         <v>0.03437499999998295</v>
       </c>
       <c r="U234">
-        <v>1.000011304161062</v>
+        <v>1.130416106165377E-05</v>
       </c>
       <c r="V234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -18220,7 +18220,7 @@
         <v>1.003038886862492</v>
       </c>
       <c r="K235">
-        <v>50.07585691127674</v>
+        <v>0.0007585691127673932</v>
       </c>
       <c r="L235">
         <v>0.0001403986899212858</v>
@@ -18250,13 +18250,13 @@
         <v>0.04374999999996021</v>
       </c>
       <c r="U235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V235">
-        <v>0.9999773893775298</v>
+        <v>-2.26106224702205E-05</v>
       </c>
       <c r="W235">
-        <v>0.9996610169491524</v>
+        <v>-0.0003389830508475633</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18291,7 +18291,7 @@
         <v>1.003038886862492</v>
       </c>
       <c r="K236">
-        <v>50.07585691127674</v>
+        <v>0.0007585691127673932</v>
       </c>
       <c r="L236">
         <v>0.0003740063174679052</v>
@@ -18321,13 +18321,13 @@
         <v>0.046875</v>
       </c>
       <c r="U236">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V236">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18362,7 +18362,7 @@
         <v>1.003038886862492</v>
       </c>
       <c r="K237">
-        <v>50.07585691127674</v>
+        <v>0.0007585691127673932</v>
       </c>
       <c r="L237">
         <v>0.0005312971300081773</v>
@@ -18392,13 +18392,13 @@
         <v>0.04062500000003411</v>
       </c>
       <c r="U237">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V237">
-        <v>1.000022611133722</v>
+        <v>2.26111337222612E-05</v>
       </c>
       <c r="W237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18433,7 +18433,7 @@
         <v>1.161380092530617</v>
       </c>
       <c r="K238">
-        <v>53.73326498861353</v>
+        <v>0.03733264988613527</v>
       </c>
       <c r="L238">
         <v>0.0007538842418333448</v>
@@ -18463,13 +18463,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U238">
-        <v>1.000011304033279</v>
+        <v>1.130403327898044E-05</v>
       </c>
       <c r="V238">
-        <v>1.000067831867411</v>
+        <v>6.783186741121661E-05</v>
       </c>
       <c r="W238">
-        <v>1.000339097999322</v>
+        <v>0.0003390979993218579</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18504,7 +18504,7 @@
         <v>1.328055045865485</v>
       </c>
       <c r="K239">
-        <v>57.04568919983432</v>
+        <v>0.07045689199834326</v>
       </c>
       <c r="L239">
         <v>0.00112258550262561</v>
@@ -18534,13 +18534,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U239">
-        <v>1.000022607810999</v>
+        <v>2.260781099883147E-05</v>
       </c>
       <c r="V239">
-        <v>1.000135654533122</v>
+        <v>0.0001356545331223646</v>
       </c>
       <c r="W239">
-        <v>1.000338983050848</v>
+        <v>0.0003389830508475633</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18575,7 +18575,7 @@
         <v>1.328055045865484</v>
       </c>
       <c r="K240">
-        <v>57.04568919983431</v>
+        <v>0.07045689199834315</v>
       </c>
       <c r="L240">
         <v>0.001552214629135609</v>
@@ -18605,13 +18605,13 @@
         <v>0.03437500000001137</v>
       </c>
       <c r="U240">
-        <v>1.000022607299897</v>
+        <v>2.260729989700394E-05</v>
       </c>
       <c r="V240">
-        <v>1.000090424088977</v>
+        <v>9.042408897741439E-05</v>
       </c>
       <c r="W240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18646,7 +18646,7 @@
         <v>1.328055045865484</v>
       </c>
       <c r="K241">
-        <v>57.0456891998343</v>
+        <v>0.07045689199834304</v>
       </c>
       <c r="L241">
         <v>0.001985713631270279</v>
@@ -18676,13 +18676,13 @@
         <v>0.02812500000001705</v>
       </c>
       <c r="U241">
-        <v>1.000045213577637</v>
+        <v>4.521357763742628E-05</v>
       </c>
       <c r="V241">
-        <v>1.000090415913201</v>
+        <v>9.041591320069209E-05</v>
       </c>
       <c r="W241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18717,7 +18717,7 @@
         <v>1.328055045865484</v>
       </c>
       <c r="K242">
-        <v>57.0456891998343</v>
+        <v>0.07045689199834304</v>
       </c>
       <c r="L242">
         <v>0.002386688666474458</v>
@@ -18747,13 +18747,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U242">
-        <v>1.000033908650097</v>
+        <v>3.390865009689215E-05</v>
       </c>
       <c r="V242">
-        <v>1.000067805804177</v>
+        <v>6.780580417675708E-05</v>
       </c>
       <c r="W242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18788,7 +18788,7 @@
         <v>1.328055045865484</v>
       </c>
       <c r="K243">
-        <v>57.0456891998343</v>
+        <v>0.07045689199834304</v>
       </c>
       <c r="L243">
         <v>0.002733703856452898</v>
@@ -18818,13 +18818,13 @@
         <v>0.02500000000003411</v>
       </c>
       <c r="U243">
-        <v>1.000011302500113</v>
+        <v>1.130250011294187E-05</v>
       </c>
       <c r="V243">
-        <v>1.000045200804574</v>
+        <v>4.520080457437459E-05</v>
       </c>
       <c r="W243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18859,7 +18859,7 @@
         <v>1.092686736779489</v>
       </c>
       <c r="K244">
-        <v>52.21453921292893</v>
+        <v>0.02214539212928934</v>
       </c>
       <c r="L244">
         <v>0.002892472307877876</v>
@@ -18889,13 +18889,13 @@
         <v>0.02812500000001705</v>
       </c>
       <c r="U244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W244">
-        <v>0.999661131819722</v>
+        <v>-0.0003388681802779514</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18930,7 +18930,7 @@
         <v>0.9208896157914348</v>
       </c>
       <c r="K245">
-        <v>47.94078786312844</v>
+        <v>-0.02059212136871558</v>
       </c>
       <c r="L245">
         <v>0.002793075466241262</v>
@@ -18960,13 +18960,13 @@
         <v>0.03125</v>
       </c>
       <c r="U245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V245">
-        <v>1</v>
+        <v>4.440892098500626E-16</v>
       </c>
       <c r="W245">
-        <v>0.9996610169491524</v>
+        <v>-0.0003389830508475633</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -19001,7 +19001,7 @@
         <v>0.7901244404502384</v>
       </c>
       <c r="K246">
-        <v>44.13796173027571</v>
+        <v>-0.0586203826972429</v>
       </c>
       <c r="L246">
         <v>0.002409985008394939</v>
@@ -19031,13 +19031,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U246">
-        <v>0.9999773952552641</v>
+        <v>-2.260474473592122E-05</v>
       </c>
       <c r="V246">
-        <v>0.9999774006192229</v>
+        <v>-2.259938077708856E-05</v>
       </c>
       <c r="W246">
-        <v>0.9996609020006784</v>
+        <v>-0.0003390979993216359</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -19072,7 +19072,7 @@
         <v>0.9395968100267328</v>
       </c>
       <c r="K247">
-        <v>48.44289313992956</v>
+        <v>-0.0155710686007044</v>
       </c>
       <c r="L247">
         <v>0.001994151130883974</v>
@@ -19102,13 +19102,13 @@
         <v>0.009375000000005684</v>
       </c>
       <c r="U247">
-        <v>0.999988697372139</v>
+        <v>-1.130262786097624E-05</v>
       </c>
       <c r="V247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W247">
-        <v>1.00033921302578</v>
+        <v>0.0003392130257799941</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -19143,7 +19143,7 @@
         <v>0.9395968100267328</v>
       </c>
       <c r="K248">
-        <v>48.44289313992956</v>
+        <v>-0.0155710686007044</v>
       </c>
       <c r="L248">
         <v>0.001577722612296449</v>
@@ -19173,13 +19173,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U248">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V248">
-        <v>0.9999774001084794</v>
+        <v>-2.259989152064712E-05</v>
       </c>
       <c r="W248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -19214,7 +19214,7 @@
         <v>0.9395968100267327</v>
       </c>
       <c r="K249">
-        <v>48.44289313992956</v>
+        <v>-0.0155710686007044</v>
       </c>
       <c r="L249">
         <v>0.001181727489328225</v>
@@ -19244,13 +19244,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U249">
-        <v>0.9999886972443882</v>
+        <v>-1.130275561178617E-05</v>
       </c>
       <c r="V249">
-        <v>0.999977399597713</v>
+        <v>-2.260040228696525E-05</v>
       </c>
       <c r="W249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19285,7 +19285,7 @@
         <v>0.8001081785966432</v>
       </c>
       <c r="K250">
-        <v>44.44778308936989</v>
+        <v>-0.05552216910630109</v>
       </c>
       <c r="L250">
         <v>0.0006955824882700635</v>
@@ -19315,13 +19315,13 @@
         <v>-0.02500000000003411</v>
       </c>
       <c r="U250">
-        <v>0.9999773942332689</v>
+        <v>-2.260576673107639E-05</v>
       </c>
       <c r="V250">
-        <v>0.999977399086923</v>
+        <v>-2.260091307704215E-05</v>
       </c>
       <c r="W250">
-        <v>0.9996609020006784</v>
+        <v>-0.0003390979993216359</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19356,7 +19356,7 @@
         <v>0.8001081785966433</v>
       </c>
       <c r="K251">
-        <v>44.4477830893699</v>
+        <v>-0.05552216910630103</v>
       </c>
       <c r="L251">
         <v>0.0001832705800866421</v>
@@ -19386,13 +19386,13 @@
         <v>-0.04062499999997726</v>
       </c>
       <c r="U251">
-        <v>0.9999886968611184</v>
+        <v>-1.130313888164647E-05</v>
       </c>
       <c r="V251">
-        <v>0.9999773985761103</v>
+        <v>-2.260142388965658E-05</v>
       </c>
       <c r="W251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19427,7 +19427,7 @@
         <v>1.12909618433795</v>
       </c>
       <c r="K252">
-        <v>53.0317132989953</v>
+        <v>0.03031713298995298</v>
       </c>
       <c r="L252">
         <v>-6.599845247266058E-05</v>
@@ -19457,13 +19457,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U252">
-        <v>1.000022606533288</v>
+        <v>2.260653328822748E-05</v>
       </c>
       <c r="V252">
-        <v>1.000022601934726</v>
+        <v>2.260193472558569E-05</v>
       </c>
       <c r="W252">
-        <v>1.00067842605156</v>
+        <v>0.0006784260515604323</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19498,7 +19498,7 @@
         <v>1.12909618433795</v>
       </c>
       <c r="K253">
-        <v>53.03171329899529</v>
+        <v>0.03031713298995298</v>
       </c>
       <c r="L253">
         <v>-0.0001397877556713434</v>
@@ -19528,13 +19528,13 @@
         <v>-0.04062500000000568</v>
       </c>
       <c r="U253">
-        <v>1.000033909033367</v>
+        <v>3.390903336653039E-05</v>
       </c>
       <c r="V253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19569,7 +19569,7 @@
         <v>0.8274618198588111</v>
       </c>
       <c r="K254">
-        <v>45.27929453118426</v>
+        <v>-0.04720705468815739</v>
       </c>
       <c r="L254">
         <v>-0.0003489755431945259</v>
@@ -19599,13 +19599,13 @@
         <v>-0.03437499999998295</v>
       </c>
       <c r="U254">
-        <v>1.000033907883583</v>
+        <v>3.390788358270669E-05</v>
       </c>
       <c r="V254">
-        <v>0.9999321957283309</v>
+        <v>-6.780427166908076E-05</v>
       </c>
       <c r="W254">
-        <v>0.9993220338983051</v>
+        <v>-0.0006779661016949046</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19640,7 +19640,7 @@
         <v>0.8274618198588111</v>
       </c>
       <c r="K255">
-        <v>45.27929453118426</v>
+        <v>-0.04720705468815739</v>
       </c>
       <c r="L255">
         <v>-0.0006255922533769275</v>
@@ -19670,13 +19670,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U255">
-        <v>1.000011302244626</v>
+        <v>1.1302244626199E-05</v>
       </c>
       <c r="V255">
-        <v>0.9999321911305997</v>
+        <v>-6.780886940027653E-05</v>
       </c>
       <c r="W255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19711,7 +19711,7 @@
         <v>0.9754655537771207</v>
       </c>
       <c r="K256">
-        <v>49.37902115843101</v>
+        <v>-0.006209788415689921</v>
       </c>
       <c r="L256">
         <v>-0.0007996968222106505</v>
@@ -19741,13 +19741,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U256">
-        <v>1.000022604233773</v>
+        <v>2.260423377276055E-05</v>
       </c>
       <c r="V256">
-        <v>0.9999547910214969</v>
+        <v>-4.520897850313066E-05</v>
       </c>
       <c r="W256">
-        <v>1.00033921302578</v>
+        <v>0.0003392130257799941</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19782,7 +19782,7 @@
         <v>1.131258957901746</v>
       </c>
       <c r="K257">
-        <v>53.07937609869267</v>
+        <v>0.03079376098692665</v>
       </c>
       <c r="L257">
         <v>-0.0007742292212020439</v>
@@ -19812,13 +19812,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U257">
-        <v>1.000022603722833</v>
+        <v>2.260372283324763E-05</v>
       </c>
       <c r="V257">
-        <v>0.9999773944887764</v>
+        <v>-2.260551122357235E-05</v>
       </c>
       <c r="W257">
-        <v>1.000339097999322</v>
+        <v>0.0003390979993218579</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19853,7 +19853,7 @@
         <v>1.295252014875035</v>
       </c>
       <c r="K258">
-        <v>56.43179949220325</v>
+        <v>0.0643179949220325</v>
       </c>
       <c r="L258">
         <v>-0.0005031928025902678</v>
@@ -19883,13 +19883,13 @@
         <v>0.003125000000011369</v>
       </c>
       <c r="U258">
-        <v>1.000022603211916</v>
+        <v>2.260321191616121E-05</v>
       </c>
       <c r="V258">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W258">
-        <v>1.000338983050848</v>
+        <v>0.0003389830508475633</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19924,7 +19924,7 @@
         <v>1.295252014875035</v>
       </c>
       <c r="K259">
-        <v>56.43179949220325</v>
+        <v>0.0643179949220325</v>
       </c>
       <c r="L259">
         <v>-9.881865893047076E-05</v>
@@ -19954,13 +19954,13 @@
         <v>0.02187499999996589</v>
       </c>
       <c r="U259">
-        <v>1.000011301350511</v>
+        <v>1.130135051119474E-05</v>
       </c>
       <c r="V259">
-        <v>1.000022606022244</v>
+        <v>2.26060222443536E-05</v>
       </c>
       <c r="W259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -19995,7 +19995,7 @@
         <v>1.096083031934821</v>
       </c>
       <c r="K260">
-        <v>52.2919662644788</v>
+        <v>0.02291966264478806</v>
       </c>
       <c r="L260">
         <v>0.0002374628601322195</v>
@@ -20025,13 +20025,13 @@
         <v>0.02187499999996589</v>
       </c>
       <c r="U260">
-        <v>1.000011301222792</v>
+        <v>1.130122279247026E-05</v>
       </c>
       <c r="V260">
-        <v>1.000022605511224</v>
+        <v>2.260551122357235E-05</v>
       </c>
       <c r="W260">
-        <v>0.999661131819722</v>
+        <v>-0.0003388681802779514</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -20066,7 +20066,7 @@
         <v>0.9433851964689086</v>
       </c>
       <c r="K261">
-        <v>48.54339727312014</v>
+        <v>-0.01456602726879863</v>
       </c>
       <c r="L261">
         <v>0.0003867322109646789</v>
@@ -20096,13 +20096,13 @@
         <v>0.015625</v>
       </c>
       <c r="U261">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V261">
-        <v>1.000022605000226</v>
+        <v>2.260500022588374E-05</v>
       </c>
       <c r="W261">
-        <v>0.9996610169491524</v>
+        <v>-0.0003389830508475633</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -20137,7 +20137,7 @@
         <v>0.8227355425815509</v>
       </c>
       <c r="K262">
-        <v>45.137406023054</v>
+        <v>-0.04862593976946</v>
       </c>
       <c r="L262">
         <v>0.0002883213293384491</v>
@@ -20167,13 +20167,13 @@
         <v>0.01562500000002842</v>
       </c>
       <c r="U262">
-        <v>0.9999886989049237</v>
+        <v>-1.130109507629928E-05</v>
       </c>
       <c r="V262">
-        <v>0.9999773955107486</v>
+        <v>-2.26044892513988E-05</v>
       </c>
       <c r="W262">
-        <v>0.9996609020006784</v>
+        <v>-0.0003390979993216359</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -20208,7 +20208,7 @@
         <v>0.3961230734171861</v>
       </c>
       <c r="K263">
-        <v>28.37307691274131</v>
+        <v>-0.2162692308725869</v>
       </c>
       <c r="L263">
         <v>-0.00094261791025225</v>
@@ -20238,13 +20238,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U263">
-        <v>0.9998869877720771</v>
+        <v>-0.0001130122279229262</v>
       </c>
       <c r="V263">
-        <v>0.9997965549979655</v>
+        <v>-0.000203445002034508</v>
       </c>
       <c r="W263">
-        <v>0.9972862957937585</v>
+        <v>-0.002713704206241507</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20279,7 +20279,7 @@
         <v>0.4643506103615233</v>
       </c>
       <c r="K264">
-        <v>31.7103436209777</v>
+        <v>-0.1828965637902231</v>
       </c>
       <c r="L264">
         <v>-0.002654362820759402</v>
@@ -20309,13 +20309,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U264">
-        <v>0.9998982774989829</v>
+        <v>-0.000101722501017143</v>
       </c>
       <c r="V264">
-        <v>0.9998191231997106</v>
+        <v>-0.0001808768002894423</v>
       </c>
       <c r="W264">
-        <v>1.000340136054422</v>
+        <v>0.0003401360544217358</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20350,7 +20350,7 @@
         <v>0.6798059901856646</v>
       </c>
       <c r="K265">
-        <v>40.46931575178675</v>
+        <v>-0.0953068424821325</v>
       </c>
       <c r="L265">
         <v>-0.004168348203373779</v>
@@ -20380,13 +20380,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U265">
-        <v>0.999943481750257</v>
+        <v>-5.651824974295394E-05</v>
       </c>
       <c r="V265">
-        <v>0.9999095452386874</v>
+        <v>-9.045476131264163E-05</v>
       </c>
       <c r="W265">
-        <v>1.001020061203672</v>
+        <v>0.001020061203672151</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20421,7 +20421,7 @@
         <v>0.5905211125696136</v>
       </c>
       <c r="K266">
-        <v>37.12752430023262</v>
+        <v>-0.1287247569976738</v>
       </c>
       <c r="L266">
         <v>-0.005697912024124308</v>
@@ -20451,13 +20451,13 @@
         <v>-0.09062499999998863</v>
       </c>
       <c r="U266">
-        <v>0.9999208699780697</v>
+        <v>-7.913002193027374E-05</v>
       </c>
       <c r="V266">
-        <v>0.9998643055838253</v>
+        <v>-0.0001356944161746698</v>
       </c>
       <c r="W266">
-        <v>0.9993206521739131</v>
+        <v>-0.0006793478260869179</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20492,7 +20492,7 @@
         <v>0.4890942229687616</v>
       </c>
       <c r="K267">
-        <v>32.84508229396454</v>
+        <v>-0.1715491770603546</v>
       </c>
       <c r="L267">
         <v>-0.007489276616794243</v>
@@ -20522,13 +20522,13 @@
         <v>-0.1374999999999886</v>
       </c>
       <c r="U267">
-        <v>0.9998869481657339</v>
+        <v>-0.0001130518342661313</v>
       </c>
       <c r="V267">
-        <v>0.9997511931419782</v>
+        <v>-0.0002488068580217551</v>
       </c>
       <c r="W267">
-        <v>0.9989802855200544</v>
+        <v>-0.001019714479945644</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20563,7 +20563,7 @@
         <v>0.4890942229687616</v>
       </c>
       <c r="K268">
-        <v>32.84508229396454</v>
+        <v>-0.1715491770603546</v>
       </c>
       <c r="L268">
         <v>-0.009298072584725581</v>
@@ -20593,13 +20593,13 @@
         <v>-0.171875</v>
       </c>
       <c r="U268">
-        <v>0.9998756289219288</v>
+        <v>-0.0001243710780711726</v>
       </c>
       <c r="V268">
-        <v>0.9997511312217194</v>
+        <v>-0.0002488687782805643</v>
       </c>
       <c r="W268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20634,7 +20634,7 @@
         <v>0.5525321835635367</v>
       </c>
       <c r="K269">
-        <v>35.58909692263552</v>
+        <v>-0.1441090307736448</v>
       </c>
       <c r="L269">
         <v>-0.01084507957049511</v>
@@ -20664,13 +20664,13 @@
         <v>-0.1968750000000057</v>
       </c>
       <c r="U269">
-        <v>0.9998756134518397</v>
+        <v>-0.0001243865481602713</v>
       </c>
       <c r="V269">
-        <v>0.9998189594695512</v>
+        <v>-0.0001810405304487617</v>
       </c>
       <c r="W269">
-        <v>1.000340251786322</v>
+        <v>0.0003402517863220211</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20705,7 +20705,7 @@
         <v>0.6193089841896158</v>
       </c>
       <c r="K270">
-        <v>38.24526327194741</v>
+        <v>-0.1175473672805259</v>
       </c>
       <c r="L270">
         <v>-0.01197212020496029</v>
@@ -20735,13 +20735,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U270">
-        <v>0.9998869072526382</v>
+        <v>-0.0001130927473618204</v>
       </c>
       <c r="V270">
-        <v>0.9998415608519496</v>
+        <v>-0.00015843914805036</v>
       </c>
       <c r="W270">
-        <v>1.000340136054422</v>
+        <v>0.0003401360544217358</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20776,7 +20776,7 @@
         <v>0.689600353269659</v>
       </c>
       <c r="K271">
-        <v>40.81440631420129</v>
+        <v>-0.09185593685798715</v>
       </c>
       <c r="L271">
         <v>-0.01260592525596462</v>
@@ -20806,13 +20806,13 @@
         <v>-0.1875000000000284</v>
       </c>
       <c r="U271">
-        <v>0.9998982050150995</v>
+        <v>-0.0001017949849004829</v>
       </c>
       <c r="V271">
-        <v>0.9998415357450087</v>
+        <v>-0.0001584642549913307</v>
       </c>
       <c r="W271">
-        <v>1.000340020401224</v>
+        <v>0.0003400204012240504</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20847,7 +20847,7 @@
         <v>0.7635912680907991</v>
       </c>
       <c r="K272">
-        <v>43.29751921018728</v>
+        <v>-0.0670248078981272</v>
       </c>
       <c r="L272">
         <v>-0.01273112199181985</v>
@@ -20877,13 +20877,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U272">
-        <v>0.9999095063571785</v>
+        <v>-9.049364282154304E-05</v>
       </c>
       <c r="V272">
-        <v>0.9998415106301082</v>
+        <v>-0.0001584893698918233</v>
       </c>
       <c r="W272">
-        <v>1.000339904826649</v>
+        <v>0.0003399048266485849</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20918,7 +20918,7 @@
         <v>0.6189663608759178</v>
       </c>
       <c r="K273">
-        <v>38.23219406121788</v>
+        <v>-0.1176780593878212</v>
       </c>
       <c r="L273">
         <v>-0.01286449251206501</v>
@@ -20948,13 +20948,13 @@
         <v>-0.1500000000000057</v>
       </c>
       <c r="U273">
-        <v>0.9998755599800895</v>
+        <v>-0.0001244400199105211</v>
       </c>
       <c r="V273">
-        <v>0.9997509057971015</v>
+        <v>-0.0002490942028985366</v>
       </c>
       <c r="W273">
-        <v>0.9989806320081549</v>
+        <v>-0.001019367991845099</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -20989,7 +20989,7 @@
         <v>0.6189663608759177</v>
       </c>
       <c r="K274">
-        <v>38.23219406121788</v>
+        <v>-0.1176780593878213</v>
       </c>
       <c r="L274">
         <v>-0.01294759143105142</v>
@@ -21019,13 +21019,13 @@
         <v>-0.1281249999999829</v>
       </c>
       <c r="U274">
-        <v>0.9998868586298579</v>
+        <v>-0.0001131413701420669</v>
       </c>
       <c r="V274">
-        <v>0.9997508437337197</v>
+        <v>-0.0002491562662803037</v>
       </c>
       <c r="W274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -21060,7 +21060,7 @@
         <v>0.6189663608759176</v>
       </c>
       <c r="K275">
-        <v>38.23219406121786</v>
+        <v>-0.1176780593878214</v>
       </c>
       <c r="L275">
         <v>-0.012947888518512</v>
@@ -21090,13 +21090,13 @@
         <v>-0.08749999999997726</v>
       </c>
       <c r="U275">
-        <v>0.999898161244696</v>
+        <v>-0.0001018387553040068</v>
       </c>
       <c r="V275">
-        <v>0.9997734378540034</v>
+        <v>-0.0002265621459965894</v>
       </c>
       <c r="W275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -21131,7 +21131,7 @@
         <v>0.6926023405708629</v>
       </c>
       <c r="K276">
-        <v>40.91937745621156</v>
+        <v>-0.09080622543788436</v>
       </c>
       <c r="L276">
         <v>-0.01272732307823102</v>
@@ -21161,13 +21161,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U276">
-        <v>0.9999207840119504</v>
+        <v>-7.921598804960794E-05</v>
       </c>
       <c r="V276">
-        <v>0.9998187092095723</v>
+        <v>-0.0001812907904277239</v>
       </c>
       <c r="W276">
-        <v>1.000340136054422</v>
+        <v>0.0003401360544217358</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -21202,7 +21202,7 @@
         <v>0.692602340570863</v>
       </c>
       <c r="K277">
-        <v>40.91937745621156</v>
+        <v>-0.09080622543788436</v>
       </c>
       <c r="L277">
         <v>-0.01234066497234009</v>
@@ -21232,13 +21232,13 @@
         <v>-0.01562500000002842</v>
       </c>
       <c r="U277">
-        <v>0.9999094602700345</v>
+        <v>-9.053972996553306E-05</v>
       </c>
       <c r="V277">
-        <v>0.9998413417951044</v>
+        <v>-0.0001586582048955787</v>
       </c>
       <c r="W277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21273,7 +21273,7 @@
         <v>0.6403550584832937</v>
       </c>
       <c r="K278">
-        <v>39.03758854960214</v>
+        <v>-0.1096241145039786</v>
       </c>
       <c r="L278">
         <v>-0.01195671950911893</v>
@@ -21303,13 +21303,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U278">
-        <v>0.9998981335808311</v>
+        <v>-0.0001018664191688723</v>
       </c>
       <c r="V278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W278">
-        <v>0.9996599795987758</v>
+        <v>-0.0003400204012241614</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21344,7 +21344,7 @@
         <v>0.5932473528914767</v>
       </c>
       <c r="K279">
-        <v>37.23510676574057</v>
+        <v>-0.1276489323425943</v>
       </c>
       <c r="L279">
         <v>-0.01167904179664067</v>
@@ -21374,13 +21374,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U279">
-        <v>0.9998868035588963</v>
+        <v>-0.0001131964411037467</v>
       </c>
       <c r="V279">
-        <v>0.9999546618910525</v>
+        <v>-4.533810894746804E-05</v>
       </c>
       <c r="W279">
-        <v>0.9996598639455782</v>
+        <v>-0.0003401360544218468</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21415,7 +21415,7 @@
         <v>0.6706841715138687</v>
       </c>
       <c r="K280">
-        <v>40.14428238139929</v>
+        <v>-0.09855717618600707</v>
       </c>
       <c r="L280">
         <v>-0.01131732557925842</v>
@@ -21445,13 +21445,13 @@
         <v>-0.02812500000001705</v>
       </c>
       <c r="U280">
-        <v>0.999909432595209</v>
+        <v>-9.056740479096437E-05</v>
       </c>
       <c r="V280">
-        <v>0.9999093196708303</v>
+        <v>-9.068032916970115E-05</v>
       </c>
       <c r="W280">
-        <v>1.000340251786322</v>
+        <v>0.0003402517863220211</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21486,7 +21486,7 @@
         <v>0.6201354199010298</v>
       </c>
       <c r="K281">
-        <v>38.27676453977609</v>
+        <v>-0.1172323546022391</v>
       </c>
       <c r="L281">
         <v>-0.0110102321601587</v>
@@ -21516,13 +21516,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U281">
-        <v>0.9998981024410125</v>
+        <v>-0.0001018975589874849</v>
       </c>
       <c r="V281">
-        <v>0.9999319835853718</v>
+        <v>-6.801641462816921E-05</v>
       </c>
       <c r="W281">
-        <v>0.9996598639455782</v>
+        <v>-0.0003401360544218468</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21557,7 +21557,7 @@
         <v>0.6201354199010298</v>
       </c>
       <c r="K282">
-        <v>38.27676453977609</v>
+        <v>-0.1172323546022391</v>
       </c>
       <c r="L282">
         <v>-0.01071576356736675</v>
@@ -21587,13 +21587,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U282">
-        <v>0.9998754458472512</v>
+        <v>-0.0001245541527488125</v>
       </c>
       <c r="V282">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21628,7 +21628,7 @@
         <v>0.6201354199010298</v>
       </c>
       <c r="K283">
-        <v>38.27676453977609</v>
+        <v>-0.1172323546022391</v>
       </c>
       <c r="L283">
         <v>-0.01040873066565214</v>
@@ -21658,13 +21658,13 @@
         <v>-0.02187500000002274</v>
       </c>
       <c r="U283">
-        <v>0.9998754303315819</v>
+        <v>-0.0001245696684181175</v>
       </c>
       <c r="V283">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21699,7 +21699,7 @@
         <v>0.6201354199010299</v>
       </c>
       <c r="K284">
-        <v>38.27676453977609</v>
+        <v>-0.1172323546022391</v>
       </c>
       <c r="L284">
         <v>-0.01007578100449958</v>
@@ -21729,13 +21729,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U284">
-        <v>0.9998980666644014</v>
+        <v>-0.000101933335598603</v>
       </c>
       <c r="V284">
-        <v>0.9999773263196085</v>
+        <v>-2.267368039154949E-05</v>
       </c>
       <c r="W284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21770,7 +21770,7 @@
         <v>0.5676123842621291</v>
       </c>
       <c r="K285">
-        <v>36.20872034187857</v>
+        <v>-0.1379127965812143</v>
       </c>
       <c r="L285">
         <v>-0.009835414232707085</v>
@@ -21800,13 +21800,13 @@
         <v>-0.04687499999997158</v>
       </c>
       <c r="U285">
-        <v>0.9998867291921527</v>
+        <v>-0.0001132708078472877</v>
       </c>
       <c r="V285">
-        <v>0.9999319774165022</v>
+        <v>-6.802258349780654E-05</v>
       </c>
       <c r="W285">
-        <v>0.9996597482136782</v>
+        <v>-0.0003402517863217991</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21841,7 +21841,7 @@
         <v>0.3313112373500071</v>
       </c>
       <c r="K286">
-        <v>24.88608433963846</v>
+        <v>-0.2511391566036154</v>
       </c>
       <c r="L286">
         <v>-0.01062066531110022</v>
@@ -21871,13 +21871,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U286">
-        <v>0.9997847610848042</v>
+        <v>-0.0002152389151958145</v>
       </c>
       <c r="V286">
-        <v>0.9997278911564624</v>
+        <v>-0.0002721088435375663</v>
       </c>
       <c r="W286">
-        <v>0.9972770592239618</v>
+        <v>-0.002722940776038185</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21912,7 +21912,7 @@
         <v>0.3313112373500071</v>
       </c>
       <c r="K287">
-        <v>24.88608433963846</v>
+        <v>-0.2511391566036154</v>
       </c>
       <c r="L287">
         <v>-0.01193895596368908</v>
@@ -21942,13 +21942,13 @@
         <v>-0.09374999999997158</v>
       </c>
       <c r="U287">
-        <v>0.9997733839442524</v>
+        <v>-0.000226616055747586</v>
       </c>
       <c r="V287">
-        <v>0.9997051351841771</v>
+        <v>-0.0002948648158228595</v>
       </c>
       <c r="W287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -21983,7 +21983,7 @@
         <v>0.4466318033401015</v>
       </c>
       <c r="K288">
-        <v>30.87391016213536</v>
+        <v>-0.1912608983786464</v>
       </c>
       <c r="L288">
         <v>-0.0132055509169733</v>
@@ -22013,13 +22013,13 @@
         <v>-0.1093750000000284</v>
       </c>
       <c r="U288">
-        <v>0.9997846659488863</v>
+        <v>-0.0002153340511137358</v>
       </c>
       <c r="V288">
-        <v>0.999818491208168</v>
+        <v>-0.0001815087918319858</v>
       </c>
       <c r="W288">
-        <v>1.000682593856655</v>
+        <v>0.0006825938566552558</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -22054,7 +22054,7 @@
         <v>0.5680218728033587</v>
       </c>
       <c r="K289">
-        <v>36.225379419474</v>
+        <v>-0.13774620580526</v>
       </c>
       <c r="L289">
         <v>-0.01406472937607329</v>
@@ -22084,13 +22084,13 @@
         <v>-0.1218750000000171</v>
       </c>
       <c r="U289">
-        <v>0.9998072911943413</v>
+        <v>-0.0001927088056586923</v>
       </c>
       <c r="V289">
-        <v>0.999863843692559</v>
+        <v>-0.0001361563074410155</v>
       </c>
       <c r="W289">
-        <v>1.000682128240109</v>
+        <v>0.0006821282401090478</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -22125,7 +22125,7 @@
         <v>0.5339105868927974</v>
       </c>
       <c r="K290">
-        <v>34.80715182847301</v>
+        <v>-0.1519284817152699</v>
       </c>
       <c r="L290">
         <v>-0.01469505016812806</v>
@@ -22155,13 +22155,13 @@
         <v>-0.1375000000000171</v>
       </c>
       <c r="U290">
-        <v>0.9998072540504994</v>
+        <v>-0.0001927459495005834</v>
       </c>
       <c r="V290">
-        <v>0.9998411293434104</v>
+        <v>-0.0001588706565895937</v>
       </c>
       <c r="W290">
-        <v>0.9996591683708249</v>
+        <v>-0.0003408316291750868</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -22196,7 +22196,7 @@
         <v>0.5971240271970403</v>
       </c>
       <c r="K291">
-        <v>37.38745501468634</v>
+        <v>-0.1261254498531366</v>
       </c>
       <c r="L291">
         <v>-0.01496937212857776</v>
@@ -22226,13 +22226,13 @@
         <v>-0.1500000000000057</v>
       </c>
       <c r="U291">
-        <v>0.9998298972579438</v>
+        <v>-0.0001701027420561996</v>
       </c>
       <c r="V291">
-        <v>0.999841104099514</v>
+        <v>-0.0001588959004860113</v>
       </c>
       <c r="W291">
-        <v>1.000340947834981</v>
+        <v>0.0003409478349811756</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22267,7 +22267,7 @@
         <v>0.5598700167921694</v>
       </c>
       <c r="K292">
-        <v>35.89209426202878</v>
+        <v>-0.1410790573797122</v>
       </c>
       <c r="L292">
         <v>-0.01507992684280783</v>
@@ -22297,13 +22297,13 @@
         <v>-0.1624999999999943</v>
       </c>
       <c r="U292">
-        <v>0.9998298683180782</v>
+        <v>-0.0001701316819218146</v>
       </c>
       <c r="V292">
-        <v>0.9998183758258223</v>
+        <v>-0.0001816241741776636</v>
       </c>
       <c r="W292">
-        <v>0.9996591683708249</v>
+        <v>-0.0003408316291750868</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22338,7 +22338,7 @@
         <v>0.6255427179539009</v>
       </c>
       <c r="K293">
-        <v>38.48208423222999</v>
+        <v>-0.1151791576777</v>
       </c>
       <c r="L293">
         <v>-0.01490554225901474</v>
@@ -22368,13 +22368,13 @@
         <v>-0.1656249999999773</v>
       </c>
       <c r="U293">
-        <v>0.9999319357473455</v>
+        <v>-6.806425265448723E-05</v>
       </c>
       <c r="V293">
-        <v>0.9998637571243669</v>
+        <v>-0.0001362428756330747</v>
       </c>
       <c r="W293">
-        <v>1.000340947834981</v>
+        <v>0.0003409478349811756</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22409,7 +22409,7 @@
         <v>0.6946718770715525</v>
       </c>
       <c r="K294">
-        <v>40.99152682417601</v>
+        <v>-0.09008473175823994</v>
       </c>
       <c r="L294">
         <v>-0.01439149299926203</v>
@@ -22439,13 +22439,13 @@
         <v>-0.1187499999999773</v>
       </c>
       <c r="U294">
-        <v>0.9999319311142877</v>
+        <v>-6.806888571231351E-05</v>
       </c>
       <c r="V294">
-        <v>0.9999091590398111</v>
+        <v>-9.084096018885379E-05</v>
       </c>
       <c r="W294">
-        <v>1.000340831629175</v>
+        <v>0.0003408316291753088</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22480,7 +22480,7 @@
         <v>0.6946718770715525</v>
       </c>
       <c r="K295">
-        <v>40.99152682417601</v>
+        <v>-0.09008473175823994</v>
       </c>
       <c r="L295">
         <v>-0.01365195061225857</v>
@@ -22510,13 +22510,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U295">
-        <v>0.9998978897208987</v>
+        <v>-0.0001021102791013417</v>
       </c>
       <c r="V295">
-        <v>0.9998864384837265</v>
+        <v>-0.0001135615162735082</v>
       </c>
       <c r="W295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22551,7 +22551,7 @@
         <v>0.6452475856389587</v>
       </c>
       <c r="K296">
-        <v>39.21887448863</v>
+        <v>-0.1078112551137</v>
       </c>
       <c r="L296">
         <v>-0.01289707025211676</v>
@@ -22581,13 +22581,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U296">
-        <v>0.9999092260385105</v>
+        <v>-9.077396148948758E-05</v>
       </c>
       <c r="V296">
-        <v>0.9998864255860442</v>
+        <v>-0.0001135744139557637</v>
       </c>
       <c r="W296">
-        <v>0.9996592844974446</v>
+        <v>-0.0003407155025554331</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22622,7 +22622,7 @@
         <v>0.7201398788873401</v>
       </c>
       <c r="K297">
-        <v>41.86519292565657</v>
+        <v>-0.08134807074343436</v>
       </c>
       <c r="L297">
         <v>-0.01201011320803532</v>
@@ -22652,13 +22652,13 @@
         <v>-0.02500000000003411</v>
       </c>
       <c r="U297">
-        <v>0.9999546088989254</v>
+        <v>-4.539110107459887E-05</v>
       </c>
       <c r="V297">
-        <v>0.9999091301483449</v>
+        <v>-9.086985165507322E-05</v>
       </c>
       <c r="W297">
-        <v>1.000340831629175</v>
+        <v>0.0003408316291753088</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22693,7 +22693,7 @@
         <v>0.6220608047638003</v>
       </c>
       <c r="K298">
-        <v>38.35002997032426</v>
+        <v>-0.1164997002967574</v>
       </c>
       <c r="L298">
         <v>-0.01130377273585913</v>
@@ -22723,13 +22723,13 @@
         <v>-0.006249999999965894</v>
       </c>
       <c r="U298">
-        <v>0.9999319102577198</v>
+        <v>-6.808974228023068E-05</v>
       </c>
       <c r="V298">
-        <v>0.9998636828353969</v>
+        <v>-0.0001363171646030503</v>
       </c>
       <c r="W298">
-        <v>0.9993185689948894</v>
+        <v>-0.0006814310051106443</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22764,7 +22764,7 @@
         <v>0.6220608047638002</v>
       </c>
       <c r="K299">
-        <v>38.35002997032426</v>
+        <v>-0.1164997002967574</v>
       </c>
       <c r="L299">
         <v>-0.01071076263422521</v>
@@ -22794,13 +22794,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U299">
-        <v>0.9999205565580562</v>
+        <v>-7.944344194377173E-05</v>
       </c>
       <c r="V299">
-        <v>0.9998636642504941</v>
+        <v>-0.0001363357495058892</v>
       </c>
       <c r="W299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22835,7 +22835,7 @@
         <v>0.6975148086046871</v>
       </c>
       <c r="K300">
-        <v>41.09035191145261</v>
+        <v>-0.08909648088547395</v>
       </c>
       <c r="L300">
         <v>-0.01006126646884736</v>
@@ -22865,13 +22865,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U300">
-        <v>0.9999205502462941</v>
+        <v>-7.94497537058847E-05</v>
       </c>
       <c r="V300">
-        <v>0.9999090971070157</v>
+        <v>-9.090289298430143E-05</v>
       </c>
       <c r="W300">
-        <v>1.000340947834981</v>
+        <v>0.0003409478349811756</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -22906,7 +22906,7 @@
         <v>0.6461909219648141</v>
       </c>
       <c r="K301">
-        <v>39.25370461851119</v>
+        <v>-0.1074629538148881</v>
       </c>
       <c r="L301">
         <v>-0.009506275502552472</v>
@@ -22936,13 +22936,13 @@
         <v>0.03749999999996589</v>
       </c>
       <c r="U301">
-        <v>0.9998978422002521</v>
+        <v>-0.0001021577997478706</v>
       </c>
       <c r="V301">
-        <v>1.000068183367804</v>
+        <v>6.818336780378687E-05</v>
       </c>
       <c r="W301">
-        <v>0.9996591683708249</v>
+        <v>-0.0003408316291750868</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -22977,7 +22977,7 @@
         <v>0.8010984398124504</v>
       </c>
       <c r="K302">
-        <v>44.47832623162282</v>
+        <v>-0.05521673768377178</v>
       </c>
       <c r="L302">
         <v>-0.008761321273115304</v>
@@ -23007,13 +23007,13 @@
         <v>0.02187499999996589</v>
       </c>
       <c r="U302">
-        <v>0.9999091837893063</v>
+        <v>-9.08162106937338E-05</v>
       </c>
       <c r="V302">
-        <v>1.000113631198582</v>
+        <v>0.0001136311985818761</v>
       </c>
       <c r="W302">
-        <v>1.000681895669962</v>
+        <v>0.0006818956699623513</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -23048,7 +23048,7 @@
         <v>0.8826287123638611</v>
       </c>
       <c r="K303">
-        <v>46.88278185535678</v>
+        <v>-0.03117218144643225</v>
       </c>
       <c r="L303">
         <v>-0.007792786123409961</v>
@@ -23078,13 +23078,13 @@
         <v>0.009374999999977263</v>
       </c>
       <c r="U303">
-        <v>0.9999545877704866</v>
+        <v>-4.54122295133752E-05</v>
       </c>
       <c r="V303">
-        <v>1.000090894630399</v>
+        <v>9.089463039946288E-05</v>
       </c>
       <c r="W303">
-        <v>1.000340715502555</v>
+        <v>0.0003407155025554331</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -23119,7 +23119,7 @@
         <v>0.9684500518916132</v>
       </c>
       <c r="K304">
-        <v>49.19860938106942</v>
+        <v>-0.008013906189305753</v>
       </c>
       <c r="L304">
         <v>-0.006598049867722406</v>
@@ -23149,13 +23149,13 @@
         <v>0.01250000000004547</v>
       </c>
       <c r="U304">
-        <v>0.9999659392810918</v>
+        <v>-3.406071890821316E-05</v>
       </c>
       <c r="V304">
-        <v>1.000068164776988</v>
+        <v>6.816477698756707E-05</v>
       </c>
       <c r="W304">
-        <v>1.000340599455041</v>
+        <v>0.0003405994550407243</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -23190,7 +23190,7 @@
         <v>1.05878830402614</v>
       </c>
       <c r="K305">
-        <v>51.4277403828061</v>
+        <v>0.01427740382806097</v>
       </c>
       <c r="L305">
         <v>-0.005194279710484399</v>
@@ -23220,13 +23220,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U305">
-        <v>0.9999772920806131</v>
+        <v>-2.270791938685512E-05</v>
       </c>
       <c r="V305">
-        <v>1.000113600218113</v>
+        <v>0.000113600218112575</v>
       </c>
       <c r="W305">
-        <v>1.000340483486551</v>
+        <v>0.0003404834865510242</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -23261,7 +23261,7 @@
         <v>0.9668479331227803</v>
       </c>
       <c r="K306">
-        <v>49.15722851983315</v>
+        <v>-0.008427714801668484</v>
       </c>
       <c r="L306">
         <v>-0.003858382197714102</v>
@@ -23291,13 +23291,13 @@
         <v>0.03125000000002842</v>
       </c>
       <c r="U306">
-        <v>0.9999545831299036</v>
+        <v>-4.541687009640416E-05</v>
       </c>
       <c r="V306">
-        <v>1.000068152388741</v>
+        <v>6.815238874113838E-05</v>
       </c>
       <c r="W306">
-        <v>0.9996596324029952</v>
+        <v>-0.0003403675970048425</v>
       </c>
     </row>
     <row r="307" spans="1:23">
@@ -23332,7 +23332,7 @@
         <v>0.8858739603947008</v>
       </c>
       <c r="K307">
-        <v>46.97418698168426</v>
+        <v>-0.03025813018315743</v>
       </c>
       <c r="L307">
         <v>-0.002758713926721451</v>
@@ -23362,13 +23362,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U307">
-        <v>0.9999432263338973</v>
+        <v>-5.677366610268297E-05</v>
       </c>
       <c r="V307">
-        <v>1.00006814774431</v>
+        <v>6.814774430985437E-05</v>
       </c>
       <c r="W307">
-        <v>0.9996595165134492</v>
+        <v>-0.0003404834865508022</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -23403,7 +23403,7 @@
         <v>0.8141038708134259</v>
       </c>
       <c r="K308">
-        <v>44.87636479428215</v>
+        <v>-0.05123635205717852</v>
       </c>
       <c r="L308">
         <v>-0.001986247072915954</v>
@@ -23433,13 +23433,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U308">
-        <v>0.999943223110465</v>
+        <v>-5.677688953498183E-05</v>
       </c>
       <c r="V308">
-        <v>1.000022714366837</v>
+        <v>2.271436683720651E-05</v>
       </c>
       <c r="W308">
-        <v>0.9996594005449591</v>
+        <v>-0.0003405994550409464</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -23474,7 +23474,7 @@
         <v>0.8993840191129326</v>
       </c>
       <c r="K309">
-        <v>47.35135233647859</v>
+        <v>-0.02648647663521408</v>
       </c>
       <c r="L309">
         <v>-0.001329974516752618</v>
@@ -23504,13 +23504,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U309">
-        <v>0.999965931932</v>
+        <v>-3.406806799999273E-05</v>
       </c>
       <c r="V309">
-        <v>1.000022713850906</v>
+        <v>2.271385090635292E-05</v>
       </c>
       <c r="W309">
-        <v>1.000340715502555</v>
+        <v>0.0003407155025554331</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -23545,7 +23545,7 @@
         <v>0.70856374221983</v>
       </c>
       <c r="K310">
-        <v>41.47130860328555</v>
+        <v>-0.0852869139671445</v>
       </c>
       <c r="L310">
         <v>-0.001153215813612513</v>
@@ -23575,13 +23575,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U310">
-        <v>0.9999205051330974</v>
+        <v>-7.949486690261853E-05</v>
       </c>
       <c r="V310">
-        <v>0.9999545733300019</v>
+        <v>-4.54266699980721E-05</v>
       </c>
       <c r="W310">
-        <v>0.9989782016348774</v>
+        <v>-0.001021798365122617</v>
       </c>
     </row>
     <row r="311" spans="1:23">
@@ -23616,7 +23616,7 @@
         <v>0.783008564117376</v>
       </c>
       <c r="K311">
-        <v>43.91501980838665</v>
+        <v>-0.06084980191613348</v>
       </c>
       <c r="L311">
         <v>-0.001149992570827569</v>
@@ -23646,13 +23646,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U311">
-        <v>0.9999432134379719</v>
+        <v>-5.67865620281216E-05</v>
       </c>
       <c r="V311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W311">
-        <v>1.000340947834981</v>
+        <v>0.0003409478349811756</v>
       </c>
     </row>
     <row r="312" spans="1:23">
@@ -23687,7 +23687,7 @@
         <v>0.7261085419258431</v>
       </c>
       <c r="K312">
-        <v>42.06621566890074</v>
+        <v>-0.07933784331099258</v>
       </c>
       <c r="L312">
         <v>-0.001371974324635723</v>
@@ -23717,13 +23717,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U312">
-        <v>0.9999318522556904</v>
+        <v>-6.814774430963233E-05</v>
       </c>
       <c r="V312">
-        <v>0.999954571266326</v>
+        <v>-4.542873367396894E-05</v>
       </c>
       <c r="W312">
-        <v>0.9996591683708249</v>
+        <v>-0.0003408316291750868</v>
       </c>
     </row>
     <row r="313" spans="1:23">
@@ -23758,7 +23758,7 @@
         <v>0.8026016518947336</v>
       </c>
       <c r="K313">
-        <v>44.52462645039244</v>
+        <v>-0.0547537354960756</v>
       </c>
       <c r="L313">
         <v>-0.001587210406640487</v>
@@ -23788,13 +23788,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U313">
-        <v>0.9999432063427157</v>
+        <v>-5.679365728428198E-05</v>
       </c>
       <c r="V313">
-        <v>1.000022715398769</v>
+        <v>2.271539876863571E-05</v>
       </c>
       <c r="W313">
-        <v>1.000340947834981</v>
+        <v>0.0003409478349811756</v>
       </c>
     </row>
     <row r="314" spans="1:23">
@@ -23829,7 +23829,7 @@
         <v>0.8831207150199275</v>
       </c>
       <c r="K314">
-        <v>46.89665978267263</v>
+        <v>-0.03103340217327372</v>
       </c>
       <c r="L314">
         <v>-0.00165481739414806</v>
@@ -23859,13 +23859,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U314">
-        <v>0.9999545624936104</v>
+        <v>-4.543750638963395E-05</v>
       </c>
       <c r="V314">
-        <v>1.000045429765583</v>
+        <v>4.542976558274958E-05</v>
       </c>
       <c r="W314">
-        <v>1.000340831629175</v>
+        <v>0.0003408316291753088</v>
       </c>
     </row>
     <row r="315" spans="1:23">
@@ -23900,7 +23900,7 @@
         <v>0.9678776235727632</v>
       </c>
       <c r="K315">
-        <v>49.183831960828</v>
+        <v>-0.008161680391719994</v>
       </c>
       <c r="L315">
         <v>-0.001498595566126334</v>
@@ -23930,13 +23930,13 @@
         <v>-0.03125000000002842</v>
       </c>
       <c r="U315">
-        <v>0.9999772802144746</v>
+        <v>-2.271978552537135E-05</v>
       </c>
       <c r="V315">
-        <v>1.000045427701812</v>
+        <v>4.542770181248379E-05</v>
       </c>
       <c r="W315">
-        <v>1.000340715502555</v>
+        <v>0.0003407155025554331</v>
       </c>
     </row>
     <row r="316" spans="1:23">
@@ -23971,7 +23971,7 @@
         <v>0.8885987953248591</v>
       </c>
       <c r="K316">
-        <v>47.05069163045879</v>
+        <v>-0.02949308369541209</v>
       </c>
       <c r="L316">
         <v>-0.001335317561138843</v>
@@ -24001,13 +24001,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U316">
-        <v>1.000056800754314</v>
+        <v>5.680075431402365E-05</v>
       </c>
       <c r="V316">
-        <v>1.00004542563823</v>
+        <v>4.542563823006773E-05</v>
       </c>
       <c r="W316">
-        <v>0.9996594005449591</v>
+        <v>-0.0003405994550409464</v>
       </c>
     </row>
     <row r="317" spans="1:23">
@@ -24042,7 +24042,7 @@
         <v>0.8180644427704086</v>
       </c>
       <c r="K317">
-        <v>44.99644916457543</v>
+        <v>-0.05003550835424569</v>
       </c>
       <c r="L317">
         <v>-0.001297364291773222</v>
@@ -24072,13 +24072,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U317">
-        <v>1.000045438022537</v>
+        <v>4.543802253720308E-05</v>
       </c>
       <c r="V317">
-        <v>0.9999772882125821</v>
+        <v>-2.271178741786173E-05</v>
       </c>
       <c r="W317">
-        <v>0.9996592844974446</v>
+        <v>-0.0003407155025554331</v>
       </c>
     </row>
     <row r="318" spans="1:23">
@@ -24113,7 +24113,7 @@
         <v>0.7549820732030929</v>
       </c>
       <c r="K318">
-        <v>43.01936097986134</v>
+        <v>-0.06980639020138663</v>
       </c>
       <c r="L318">
         <v>-0.0014570949634414</v>
@@ -24143,13 +24143,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U318">
-        <v>1.000011358989505</v>
+        <v>1.135898950477277E-05</v>
       </c>
       <c r="V318">
-        <v>0.9999318630902362</v>
+        <v>-6.813690976381626E-05</v>
       </c>
       <c r="W318">
-        <v>0.9996591683708249</v>
+        <v>-0.0003408316291750868</v>
       </c>
     </row>
     <row r="319" spans="1:23">
@@ -24184,7 +24184,7 @@
         <v>0.8361523219141971</v>
       </c>
       <c r="K319">
-        <v>45.53828742500538</v>
+        <v>-0.0446171257499462</v>
       </c>
       <c r="L319">
         <v>-0.001597051983111679</v>
@@ -24214,13 +24214,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V319">
-        <v>0.9999318584472811</v>
+        <v>-6.814155271894773E-05</v>
       </c>
       <c r="W319">
-        <v>1.000340947834981</v>
+        <v>0.0003409478349811756</v>
       </c>
     </row>
     <row r="320" spans="1:23">
@@ -24255,7 +24255,7 @@
         <v>0.9215946889785657</v>
       </c>
       <c r="K320">
-        <v>47.9598894743222</v>
+        <v>-0.02040110525677796</v>
       </c>
       <c r="L320">
         <v>-0.001586235427628127</v>
@@ -24285,13 +24285,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U320">
-        <v>1.000022717720958</v>
+        <v>2.271772095796543E-05</v>
       </c>
       <c r="V320">
-        <v>0.9999318538036934</v>
+        <v>-6.814619630657326E-05</v>
       </c>
       <c r="W320">
-        <v>1.000340831629175</v>
+        <v>0.0003408316291753088</v>
       </c>
     </row>
     <row r="321" spans="1:23">
@@ -24326,7 +24326,7 @@
         <v>0.7810927634858121</v>
       </c>
       <c r="K321">
-        <v>43.85469300078003</v>
+        <v>-0.06145306999219968</v>
       </c>
       <c r="L321">
         <v>-0.00172711639629868</v>
@@ -24356,13 +24356,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U321">
-        <v>0.9999886413975625</v>
+        <v>-1.135860243750564E-05</v>
       </c>
       <c r="V321">
-        <v>0.9999091322126307</v>
+        <v>-9.086778736933088E-05</v>
       </c>
       <c r="W321">
-        <v>0.9993185689948894</v>
+        <v>-0.0006814310051106443</v>
       </c>
     </row>
     <row r="322" spans="1:23">
@@ -24397,7 +24397,7 @@
         <v>0.7230736303929596</v>
       </c>
       <c r="K322">
-        <v>41.96417481173206</v>
+        <v>-0.08035825188267942</v>
       </c>
       <c r="L322">
         <v>-0.002068711377426562</v>
@@ -24427,13 +24427,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U322">
-        <v>0.9999886412685434</v>
+        <v>-1.135873145663435E-05</v>
       </c>
       <c r="V322">
-        <v>0.9999091239549254</v>
+        <v>-9.087604507462821E-05</v>
       </c>
       <c r="W322">
-        <v>0.9996590521650187</v>
+        <v>-0.0003409478349812867</v>
       </c>
     </row>
     <row r="323" spans="1:23">
@@ -24468,7 +24468,7 @@
         <v>0.8012625146480574</v>
       </c>
       <c r="K323">
-        <v>44.48338363409585</v>
+        <v>-0.05516616365904148</v>
       </c>
       <c r="L323">
         <v>-0.002378552979493519</v>
@@ -24498,13 +24498,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U323">
-        <v>0.9999886411395205</v>
+        <v>-1.135886047953782E-05</v>
       </c>
       <c r="V323">
-        <v>0.9999545578478597</v>
+        <v>-4.5442152140307E-05</v>
       </c>
       <c r="W323">
-        <v>1.000341064120055</v>
+        <v>0.000341064120054746</v>
       </c>
     </row>
     <row r="324" spans="1:23">
@@ -24539,7 +24539,7 @@
         <v>0.7403303036748234</v>
       </c>
       <c r="K324">
-        <v>42.53964331435053</v>
+        <v>-0.07460356685649466</v>
       </c>
       <c r="L324">
         <v>-0.002764836210017262</v>
@@ -24569,13 +24569,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U324">
-        <v>0.9999659230314873</v>
+        <v>-3.407696851265296E-05</v>
       </c>
       <c r="V324">
-        <v>0.9999091115655532</v>
+        <v>-9.088843444682304E-05</v>
       </c>
       <c r="W324">
-        <v>0.9996590521650187</v>
+        <v>-0.0003409478349812867</v>
       </c>
     </row>
     <row r="325" spans="1:23">
@@ -24610,7 +24610,7 @@
         <v>0.6854607885516174</v>
       </c>
       <c r="K325">
-        <v>40.6690439319363</v>
+        <v>-0.093309560680637</v>
       </c>
       <c r="L325">
         <v>-0.003286845223299246</v>
@@ -24640,13 +24640,13 @@
         <v>-0.03437499999998295</v>
       </c>
       <c r="U325">
-        <v>0.9999545624936104</v>
+        <v>-4.543750638963395E-05</v>
       </c>
       <c r="V325">
-        <v>0.9999545516520477</v>
+        <v>-4.544834795228159E-05</v>
       </c>
       <c r="W325">
-        <v>0.9996589358799456</v>
+        <v>-0.0003410641200544129</v>
       </c>
     </row>
     <row r="326" spans="1:23">
@@ -24681,7 +24681,7 @@
         <v>0.7634764851312698</v>
       </c>
       <c r="K326">
-        <v>43.29382850117437</v>
+        <v>-0.06706171498825625</v>
       </c>
       <c r="L326">
         <v>-0.003721803420245073</v>
@@ -24711,13 +24711,13 @@
         <v>-0.03750000000002274</v>
       </c>
       <c r="U326">
-        <v>0.9999772802144746</v>
+        <v>-2.271978552537135E-05</v>
       </c>
       <c r="V326">
-        <v>0.9999545495864011</v>
+        <v>-4.545041359893531E-05</v>
       </c>
       <c r="W326">
-        <v>1.000341180484476</v>
+        <v>0.0003411804844761779</v>
       </c>
     </row>
     <row r="327" spans="1:23">
@@ -24752,7 +24752,7 @@
         <v>0.7055365626107524</v>
       </c>
       <c r="K327">
-        <v>41.36742524773268</v>
+        <v>-0.08632574752267325</v>
       </c>
       <c r="L327">
         <v>-0.004186860603739561</v>
@@ -24782,13 +24782,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U327">
-        <v>0.9999545593965489</v>
+        <v>-4.54406034511301E-05</v>
       </c>
       <c r="V327">
-        <v>0.9999545475205673</v>
+        <v>-4.545247943266162E-05</v>
       </c>
       <c r="W327">
-        <v>0.9996589358799456</v>
+        <v>-0.0003410641200544129</v>
       </c>
     </row>
     <row r="328" spans="1:23">
@@ -24823,7 +24823,7 @@
         <v>0.7055365626107525</v>
       </c>
       <c r="K328">
-        <v>41.36742524773268</v>
+        <v>-0.08632574752267319</v>
       </c>
       <c r="L328">
         <v>-0.00462530752739366</v>
@@ -24853,13 +24853,13 @@
         <v>-0.06562499999998295</v>
       </c>
       <c r="U328">
-        <v>0.9999772786658034</v>
+        <v>-2.272133419656264E-05</v>
       </c>
       <c r="V328">
-        <v>0.9999318181818182</v>
+        <v>-6.818181818180058E-05</v>
       </c>
       <c r="W328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:23">
@@ -24894,7 +24894,7 @@
         <v>0.6508110367547241</v>
       </c>
       <c r="K329">
-        <v>39.42371490525848</v>
+        <v>-0.1057628509474152</v>
       </c>
       <c r="L329">
         <v>-0.005126981236760106</v>
@@ -24924,13 +24924,13 @@
         <v>-0.07187500000000568</v>
       </c>
       <c r="U329">
-        <v>0.9999659172242986</v>
+        <v>-3.408277570138285E-05</v>
       </c>
       <c r="V329">
-        <v>0.9998863558879013</v>
+        <v>-0.0001136441120986875</v>
       </c>
       <c r="W329">
-        <v>0.9996588195155236</v>
+        <v>-0.0003411804844763999</v>
       </c>
     </row>
     <row r="330" spans="1:23">
@@ -24965,7 +24965,7 @@
         <v>0.814107511362295</v>
       </c>
       <c r="K330">
-        <v>44.87647541632993</v>
+        <v>-0.05123524583670069</v>
       </c>
       <c r="L330">
         <v>-0.00536816865419045</v>
@@ -24995,13 +24995,13 @@
         <v>-0.06249999999997158</v>
       </c>
       <c r="U330">
-        <v>0.9999772773750824</v>
+        <v>-2.27226249176482E-05</v>
       </c>
       <c r="V330">
-        <v>0.9999090743771594</v>
+        <v>-9.092562284063188E-05</v>
       </c>
       <c r="W330">
-        <v>1.000682593856655</v>
+        <v>0.0006825938566552558</v>
       </c>
     </row>
     <row r="331" spans="1:23">
@@ -25036,7 +25036,7 @@
         <v>0.7496762053463936</v>
       </c>
       <c r="K331">
-        <v>42.84656801387865</v>
+        <v>-0.0715343198612135</v>
       </c>
       <c r="L331">
         <v>-0.005540738934422762</v>
@@ -25066,13 +25066,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U331">
-        <v>0.9999772768587532</v>
+        <v>-2.272314124684982E-05</v>
       </c>
       <c r="V331">
-        <v>0.9999090661089389</v>
+        <v>-9.093389106107352E-05</v>
       </c>
       <c r="W331">
-        <v>0.9996589358799456</v>
+        <v>-0.0003410641200544129</v>
       </c>
     </row>
     <row r="332" spans="1:23">
@@ -25107,7 +25107,7 @@
         <v>0.5997760889419822</v>
       </c>
       <c r="K332">
-        <v>37.49125225009747</v>
+        <v>-0.1250874774990253</v>
       </c>
       <c r="L332">
         <v>-0.006012934973068753</v>
@@ -25137,13 +25137,13 @@
         <v>-0.06249999999997158</v>
       </c>
       <c r="U332">
-        <v>0.9999204671984001</v>
+        <v>-7.953280159989085E-05</v>
       </c>
       <c r="V332">
-        <v>0.9998635867588215</v>
+        <v>-0.0001364132411785235</v>
       </c>
       <c r="W332">
-        <v>0.9989764585465711</v>
+        <v>-0.001023541453428867</v>
       </c>
     </row>
     <row r="333" spans="1:23">
@@ -25178,7 +25178,7 @@
         <v>0.7400940867565605</v>
       </c>
       <c r="K333">
-        <v>42.53184309913122</v>
+        <v>-0.07468156900868783</v>
       </c>
       <c r="L333">
         <v>-0.006366512904352957</v>
@@ -25208,13 +25208,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U333">
-        <v>0.9999318236049406</v>
+        <v>-6.817639505940498E-05</v>
       </c>
       <c r="V333">
-        <v>0.9999317840738552</v>
+        <v>-6.821592614481009E-05</v>
       </c>
       <c r="W333">
-        <v>1.00068306010929</v>
+        <v>0.000683060109289535</v>
       </c>
     </row>
     <row r="334" spans="1:23">
@@ -25249,7 +25249,7 @@
         <v>0.8139456645537282</v>
       </c>
       <c r="K334">
-        <v>44.87155709561881</v>
+        <v>-0.05128442904381186</v>
       </c>
       <c r="L334">
         <v>-0.006478415161666653</v>
@@ -25279,13 +25279,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U334">
-        <v>0.9999318189566027</v>
+        <v>-6.818104339734177E-05</v>
       </c>
       <c r="V334">
-        <v>0.9999317794201249</v>
+        <v>-6.822057987510011E-05</v>
       </c>
       <c r="W334">
-        <v>1.000341296928328</v>
+        <v>0.0003412969283276279</v>
       </c>
     </row>
     <row r="335" spans="1:23">
@@ -25320,7 +25320,7 @@
         <v>0.8916841674980709</v>
       </c>
       <c r="K335">
-        <v>47.13705294036512</v>
+        <v>-0.02862947059634879</v>
       </c>
       <c r="L335">
         <v>-0.006289039337987355</v>
@@ -25350,13 +25350,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U335">
-        <v>0.9999318143076312</v>
+        <v>-6.818569236877181E-05</v>
       </c>
       <c r="V335">
-        <v>0.9999317747657603</v>
+        <v>-6.822523423966054E-05</v>
       </c>
       <c r="W335">
-        <v>1.000341180484476</v>
+        <v>0.0003411804844761779</v>
       </c>
     </row>
     <row r="336" spans="1:23">
@@ -25391,7 +25391,7 @@
         <v>0.9735141705974255</v>
       </c>
       <c r="K336">
-        <v>49.32896784332294</v>
+        <v>-0.006710321566770594</v>
       </c>
       <c r="L336">
         <v>-0.005782126506915225</v>
@@ -25421,13 +25421,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U336">
-        <v>0.999954539772017</v>
+        <v>-4.546022798301852E-05</v>
       </c>
       <c r="V336">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W336">
-        <v>1.000341064120055</v>
+        <v>0.000341064120054746</v>
       </c>
     </row>
     <row r="337" spans="1:23">
@@ -25462,7 +25462,7 @@
         <v>0.9735141705974256</v>
       </c>
       <c r="K337">
-        <v>49.32896784332295</v>
+        <v>-0.006710321566770483</v>
       </c>
       <c r="L337">
         <v>-0.005094035057923203</v>
@@ -25492,13 +25492,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U337">
-        <v>0.9999659032789681</v>
+        <v>-3.409672103193984E-05</v>
       </c>
       <c r="V337">
-        <v>1.000022743296413</v>
+        <v>2.274329641327455E-05</v>
       </c>
       <c r="W337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:23">
@@ -25533,7 +25533,7 @@
         <v>0.8925833167715546</v>
       </c>
       <c r="K338">
-        <v>47.16216764999066</v>
+        <v>-0.02837832350009334</v>
       </c>
       <c r="L338">
         <v>-0.004445602122591431</v>
@@ -25563,13 +25563,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U338">
-        <v>0.9999659021163421</v>
+        <v>-3.409788365793531E-05</v>
       </c>
       <c r="V338">
-        <v>0.9999772572208324</v>
+        <v>-2.274277916758383E-05</v>
       </c>
       <c r="W338">
-        <v>0.9996590521650187</v>
+        <v>-0.0003409478349812867</v>
       </c>
     </row>
     <row r="339" spans="1:23">
@@ -25604,7 +25604,7 @@
         <v>0.9800914137476935</v>
       </c>
       <c r="K339">
-        <v>49.49728113272746</v>
+        <v>-0.005027188672725391</v>
       </c>
       <c r="L339">
         <v>-0.003722155859068345</v>
@@ -25634,13 +25634,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U339">
-        <v>0.9999659009536365</v>
+        <v>-3.409904636353378E-05</v>
       </c>
       <c r="V339">
-        <v>1.000022743296413</v>
+        <v>2.274329641327455E-05</v>
       </c>
       <c r="W339">
-        <v>1.000341064120055</v>
+        <v>0.000341064120054746</v>
       </c>
     </row>
     <row r="340" spans="1:23">
@@ -25675,7 +25675,7 @@
         <v>1.072205200038314</v>
       </c>
       <c r="K340">
-        <v>51.74223093439247</v>
+        <v>0.01742230934392475</v>
       </c>
       <c r="L340">
         <v>-0.00286162127217544</v>
@@ -25705,13 +25705,13 @@
         <v>0.03749999999996589</v>
       </c>
       <c r="U340">
-        <v>1.000011366736382</v>
+        <v>1.136673638235663E-05</v>
       </c>
       <c r="V340">
-        <v>1.000068228337503</v>
+        <v>6.822833750308455E-05</v>
       </c>
       <c r="W340">
-        <v>1.000340947834981</v>
+        <v>0.0003409478349811756</v>
       </c>
     </row>
     <row r="341" spans="1:23">
@@ -25746,7 +25746,7 @@
         <v>1.169167080344285</v>
       </c>
       <c r="K341">
-        <v>53.89935569918006</v>
+        <v>0.03899355699180063</v>
       </c>
       <c r="L341">
         <v>-0.001838254876776955</v>
@@ -25776,13 +25776,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U341">
-        <v>1.000011366607182</v>
+        <v>1.136660718170646E-05</v>
       </c>
       <c r="V341">
-        <v>1.000068223682714</v>
+        <v>6.82236827143079E-05</v>
       </c>
       <c r="W341">
-        <v>1.000340831629175</v>
+        <v>0.0003408316291753088</v>
       </c>
     </row>
     <row r="342" spans="1:23">
@@ -25817,7 +25817,7 @@
         <v>1.060887456573366</v>
       </c>
       <c r="K342">
-        <v>51.4772144975496</v>
+        <v>0.01477214497549595</v>
       </c>
       <c r="L342">
         <v>-0.0008989230062303982</v>
@@ -25847,13 +25847,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U342">
-        <v>1.000011366477983</v>
+        <v>1.136647798327672E-05</v>
       </c>
       <c r="V342">
-        <v>1.000068219028561</v>
+        <v>6.821902856102291E-05</v>
       </c>
       <c r="W342">
-        <v>0.9996592844974446</v>
+        <v>-0.0003407155025554331</v>
       </c>
     </row>
     <row r="343" spans="1:23">
@@ -25888,7 +25888,7 @@
         <v>1.158374422511756</v>
       </c>
       <c r="K343">
-        <v>53.6688356955104</v>
+        <v>0.03668835695510397</v>
       </c>
       <c r="L343">
         <v>5.708307689061285E-05</v>
@@ -25918,13 +25918,13 @@
         <v>0.07500000000001705</v>
       </c>
       <c r="U343">
-        <v>1.000011366348788</v>
+        <v>1.136634878751153E-05</v>
       </c>
       <c r="V343">
-        <v>1.000090952500057</v>
+        <v>9.095250005697331E-05</v>
       </c>
       <c r="W343">
-        <v>1.000340831629175</v>
+        <v>0.0003408316291753088</v>
       </c>
     </row>
     <row r="344" spans="1:23">
@@ -25959,7 +25959,7 @@
         <v>0.8212675516371091</v>
       </c>
       <c r="K344">
-        <v>45.09318528729535</v>
+        <v>-0.04906814712704649</v>
       </c>
       <c r="L344">
         <v>0.0004653376064066352</v>
@@ -25989,13 +25989,13 @@
         <v>0.06249999999997158</v>
       </c>
       <c r="U344">
-        <v>0.9999545351216186</v>
+        <v>-4.546487838141822E-05</v>
       </c>
       <c r="V344">
-        <v>1.000022736057113</v>
+        <v>2.273605711300419E-05</v>
       </c>
       <c r="W344">
-        <v>0.9986371379897786</v>
+        <v>-0.0013628620102214</v>
       </c>
     </row>
     <row r="345" spans="1:23">
@@ -26030,7 +26030,7 @@
         <v>1.127601437181086</v>
       </c>
       <c r="K345">
-        <v>52.99871571223763</v>
+        <v>0.02998715712237621</v>
       </c>
       <c r="L345">
         <v>0.001010742829186662</v>
@@ -26060,13 +26060,13 @@
         <v>0.05937499999996021</v>
       </c>
       <c r="U345">
-        <v>0.9999886332636173</v>
+        <v>-1.13667363826897E-05</v>
       </c>
       <c r="V345">
-        <v>1.000068206620589</v>
+        <v>6.820662058948379E-05</v>
       </c>
       <c r="W345">
-        <v>1.001364721937905</v>
+        <v>0.001364721937905156</v>
       </c>
     </row>
     <row r="346" spans="1:23">
@@ -26101,7 +26101,7 @@
         <v>1.208215617587418</v>
       </c>
       <c r="K346">
-        <v>54.71456718105507</v>
+        <v>0.04714567181055074</v>
       </c>
       <c r="L346">
         <v>0.001724966504696818</v>
@@ -26131,13 +26131,13 @@
         <v>0.07187500000000568</v>
       </c>
       <c r="U346">
-        <v>1.000011366865587</v>
+        <v>1.136686558678157E-05</v>
       </c>
       <c r="V346">
-        <v>1.000113669947939</v>
+        <v>0.0001136699479389325</v>
       </c>
       <c r="W346">
-        <v>1.000340715502555</v>
+        <v>0.0003407155025554331</v>
       </c>
     </row>
     <row r="347" spans="1:23">
@@ -26172,7 +26172,7 @@
         <v>0.9630507361602774</v>
       </c>
       <c r="K347">
-        <v>49.05888158774756</v>
+        <v>-0.009411184122524341</v>
       </c>
       <c r="L347">
         <v>0.002117123837244373</v>
@@ -26202,13 +26202,13 @@
         <v>0.06562499999998295</v>
       </c>
       <c r="U347">
-        <v>0.9999886332636175</v>
+        <v>-1.136673638246766E-05</v>
       </c>
       <c r="V347">
-        <v>1.000113657028551</v>
+        <v>0.0001136570285507066</v>
       </c>
       <c r="W347">
-        <v>0.9989782016348774</v>
+        <v>-0.001021798365122617</v>
       </c>
     </row>
     <row r="348" spans="1:23">
@@ -26243,7 +26243,7 @@
         <v>0.8990406676553404</v>
       </c>
       <c r="K348">
-        <v>47.34183332499905</v>
+        <v>-0.0265816667500095</v>
       </c>
       <c r="L348">
         <v>0.002157293771117824</v>
@@ -26273,13 +26273,13 @@
         <v>0.04062500000003411</v>
       </c>
       <c r="U348">
-        <v>0.999988633134413</v>
+        <v>-1.136686558700362E-05</v>
       </c>
       <c r="V348">
-        <v>1.000045457644839</v>
+        <v>4.54576448394306E-05</v>
       </c>
       <c r="W348">
-        <v>0.9996590521650187</v>
+        <v>-0.0003409478349812867</v>
       </c>
     </row>
     <row r="349" spans="1:23">
@@ -26314,7 +26314,7 @@
         <v>0.9690048107154704</v>
       </c>
       <c r="K349">
-        <v>49.21292245920753</v>
+        <v>-0.007870775407924746</v>
       </c>
       <c r="L349">
         <v>0.002097987593876697</v>
@@ -26344,13 +26344,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U349">
-        <v>0.9999886330052062</v>
+        <v>-1.136699479376002E-05</v>
       </c>
       <c r="V349">
-        <v>1.000045455578536</v>
+        <v>4.545557853607995E-05</v>
       </c>
       <c r="W349">
-        <v>1.000341064120055</v>
+        <v>0.000341064120054746</v>
       </c>
     </row>
     <row r="350" spans="1:23">
@@ -26385,7 +26385,7 @@
         <v>0.9690048107154704</v>
       </c>
       <c r="K350">
-        <v>49.21292245920753</v>
+        <v>-0.007870775407924746</v>
       </c>
       <c r="L350">
         <v>0.001974559621494754</v>
@@ -26415,13 +26415,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U350">
-        <v>0.9999772657519919</v>
+        <v>-2.273424800813828E-05</v>
       </c>
       <c r="V350">
-        <v>1.00002272675621</v>
+        <v>2.272675620984543E-05</v>
       </c>
       <c r="W350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:23">
@@ -26456,7 +26456,7 @@
         <v>1.046527406903936</v>
       </c>
       <c r="K351">
-        <v>51.13674038146219</v>
+        <v>0.01136740381462187</v>
       </c>
       <c r="L351">
         <v>0.00193712695971802</v>
@@ -26486,13 +26486,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U351">
-        <v>1.000011367382433</v>
+        <v>1.136738243290303E-05</v>
       </c>
       <c r="V351">
-        <v>1.000022726239717</v>
+        <v>2.272623971655285E-05</v>
       </c>
       <c r="W351">
-        <v>1.000340947834981</v>
+        <v>0.0003409478349811756</v>
       </c>
     </row>
     <row r="352" spans="1:23">
@@ -26527,7 +26527,7 @@
         <v>1.128130139733946</v>
       </c>
       <c r="K352">
-        <v>53.01039248826119</v>
+        <v>0.03010392488261193</v>
       </c>
       <c r="L352">
         <v>0.002071279605840487</v>
@@ -26557,13 +26557,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U352">
-        <v>1.000034101759651</v>
+        <v>3.410175965079532E-05</v>
       </c>
       <c r="V352">
-        <v>1.000045451446492</v>
+        <v>4.545144649226174E-05</v>
       </c>
       <c r="W352">
-        <v>1.000340831629175</v>
+        <v>0.0003408316291753088</v>
       </c>
     </row>
     <row r="353" spans="1:23">
@@ -26598,7 +26598,7 @@
         <v>1.299925366744445</v>
       </c>
       <c r="K353">
-        <v>56.52032824806378</v>
+        <v>0.06520328248063789</v>
       </c>
       <c r="L353">
         <v>0.002541595869528719</v>
@@ -26628,13 +26628,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U353">
-        <v>1.000045467462347</v>
+        <v>4.546746234734833E-05</v>
       </c>
       <c r="V353">
-        <v>1.00011362345188</v>
+        <v>0.0001136234518803736</v>
       </c>
       <c r="W353">
-        <v>1.000681431005111</v>
+        <v>0.0006814310051106443</v>
       </c>
     </row>
     <row r="354" spans="1:23">
@@ -26669,7 +26669,7 @@
         <v>0.8952082496963708</v>
       </c>
       <c r="K354">
-        <v>47.23534998540615</v>
+        <v>-0.0276465001459385</v>
       </c>
       <c r="L354">
         <v>0.002555530863617479</v>
@@ -26699,13 +26699,13 @@
         <v>-0.01250000000004547</v>
       </c>
       <c r="U354">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V354">
-        <v>0.9999772778913886</v>
+        <v>-2.27221086114282E-05</v>
       </c>
       <c r="W354">
-        <v>0.9982975825672454</v>
+        <v>-0.001702417432754566</v>
       </c>
     </row>
     <row r="355" spans="1:23">
@@ -26740,7 +26740,7 @@
         <v>0.7092556209727118</v>
       </c>
       <c r="K355">
-        <v>41.49500006143522</v>
+        <v>-0.08504999938564778</v>
       </c>
       <c r="L355">
         <v>0.001786197882637888</v>
@@ -26770,13 +26770,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U355">
-        <v>0.9999659009536367</v>
+        <v>-3.409904636331174E-05</v>
       </c>
       <c r="V355">
-        <v>0.999863664250494</v>
+        <v>-0.0001363357495060002</v>
       </c>
       <c r="W355">
-        <v>0.9986357435197818</v>
+        <v>-0.001364256480218207</v>
       </c>
     </row>
     <row r="356" spans="1:23">
@@ -26811,7 +26811,7 @@
         <v>0.7092556209727118</v>
       </c>
       <c r="K356">
-        <v>41.49500006143522</v>
+        <v>-0.08504999938564778</v>
       </c>
       <c r="L356">
         <v>0.0005849123123310908</v>
@@ -26841,13 +26841,13 @@
         <v>-0.03437499999998295</v>
       </c>
       <c r="U356">
-        <v>0.9999545330544695</v>
+        <v>-4.546694553053676E-05</v>
       </c>
       <c r="V356">
-        <v>0.999840919937277</v>
+        <v>-0.0001590800627230271</v>
       </c>
       <c r="W356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:23">
@@ -26882,7 +26882,7 @@
         <v>0.6360578800786596</v>
       </c>
       <c r="K357">
-        <v>38.87746807882364</v>
+        <v>-0.1112253192117636</v>
       </c>
       <c r="L357">
         <v>-0.001051934195314062</v>
@@ -26912,13 +26912,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U357">
-        <v>0.9999431637339153</v>
+        <v>-5.683626608465886E-05</v>
       </c>
       <c r="V357">
-        <v>0.9998181652877536</v>
+        <v>-0.0001818347122464203</v>
       </c>
       <c r="W357">
-        <v>0.9993169398907105</v>
+        <v>-0.000683060109289535</v>
       </c>
     </row>
     <row r="358" spans="1:23">
@@ -26953,7 +26953,7 @@
         <v>0.5737304544120094</v>
       </c>
       <c r="K358">
-        <v>36.45671676515732</v>
+        <v>-0.1354328323484268</v>
       </c>
       <c r="L358">
         <v>-0.003092868869217557</v>
@@ -26983,13 +26983,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U358">
-        <v>0.9999204247047186</v>
+        <v>-7.957529528135332E-05</v>
       </c>
       <c r="V358">
-        <v>0.9997499317995817</v>
+        <v>-0.0002500682004182853</v>
       </c>
       <c r="W358">
-        <v>0.9993164730006834</v>
+        <v>-0.0006835269993166193</v>
       </c>
     </row>
     <row r="359" spans="1:23">
@@ -27024,7 +27024,7 @@
         <v>0.4968561995993958</v>
       </c>
       <c r="K359">
-        <v>33.19331541215313</v>
+        <v>-0.1680668458784688</v>
       </c>
       <c r="L359">
         <v>-0.005609893689124961</v>
@@ -27054,13 +27054,13 @@
         <v>-0.1124999999999829</v>
       </c>
       <c r="U359">
-        <v>0.9998976807639838</v>
+        <v>-0.0001023192360162239</v>
       </c>
       <c r="V359">
-        <v>0.999772608408941</v>
+        <v>-0.0002273915910590008</v>
       </c>
       <c r="W359">
-        <v>0.9989740082079345</v>
+        <v>-0.001025991792065528</v>
       </c>
     </row>
     <row r="360" spans="1:23">
@@ -27095,7 +27095,7 @@
         <v>0.5908844058200832</v>
       </c>
       <c r="K360">
-        <v>37.14188181481916</v>
+        <v>-0.1285811818518084</v>
       </c>
       <c r="L360">
         <v>-0.007986485788606361</v>
@@ -27125,13 +27125,13 @@
         <v>-0.1624999999999943</v>
       </c>
       <c r="U360">
-        <v>0.9998976702936861</v>
+        <v>-0.0001023297063138529</v>
       </c>
       <c r="V360">
-        <v>0.999727068028294</v>
+        <v>-0.0002729319717059697</v>
       </c>
       <c r="W360">
-        <v>1.000684697021568</v>
+        <v>0.000684697021567926</v>
       </c>
     </row>
     <row r="361" spans="1:23">
@@ -27166,7 +27166,7 @@
         <v>0.537667643636845</v>
       </c>
       <c r="K361">
-        <v>34.96644062595801</v>
+        <v>-0.1503355937404198</v>
       </c>
       <c r="L361">
         <v>-0.01034611079976173</v>
@@ -27196,13 +27196,13 @@
         <v>-0.2187499999999716</v>
       </c>
       <c r="U361">
-        <v>0.9998862886902731</v>
+        <v>-0.0001137113097269271</v>
       </c>
       <c r="V361">
-        <v>0.9996587418951199</v>
+        <v>-0.00034125810488006</v>
       </c>
       <c r="W361">
-        <v>0.9993157714676703</v>
+        <v>-0.0006842285323297448</v>
       </c>
     </row>
     <row r="362" spans="1:23">
@@ -27237,7 +27237,7 @@
         <v>0.6798722199930028</v>
       </c>
       <c r="K362">
-        <v>40.47166277896034</v>
+        <v>-0.09528337221039657</v>
       </c>
       <c r="L362">
         <v>-0.01213525341286788</v>
@@ -27267,13 +27267,13 @@
         <v>-0.2312500000000171</v>
       </c>
       <c r="U362">
-        <v>0.9999545103034163</v>
+        <v>-4.548969658368929E-05</v>
       </c>
       <c r="V362">
-        <v>0.9997951752389622</v>
+        <v>-0.0002048247610377807</v>
       </c>
       <c r="W362">
-        <v>1.001027045532352</v>
+        <v>0.001027045532351778</v>
       </c>
     </row>
     <row r="363" spans="1:23">
@@ -27308,7 +27308,7 @@
         <v>0.6475612804989712</v>
       </c>
       <c r="K363">
-        <v>39.30423032901419</v>
+        <v>-0.1069576967098581</v>
       </c>
       <c r="L363">
         <v>-0.0135450001178898</v>
@@ -27338,13 +27338,13 @@
         <v>-0.2312499999999886</v>
       </c>
       <c r="U363">
-        <v>0.999920389409517</v>
+        <v>-7.961059048300356E-05</v>
       </c>
       <c r="V363">
-        <v>0.9997951332771848</v>
+        <v>-0.0002048667228151668</v>
       </c>
       <c r="W363">
-        <v>0.9996580027359783</v>
+        <v>-0.0003419972640217317</v>
       </c>
     </row>
     <row r="364" spans="1:23">
@@ -27379,7 +27379,7 @@
         <v>0.6475612804989711</v>
       </c>
       <c r="K364">
-        <v>39.30423032901419</v>
+        <v>-0.1069576967098581</v>
       </c>
       <c r="L364">
         <v>-0.01458596492058886</v>
@@ -27409,13 +27409,13 @@
         <v>-0.234375</v>
       </c>
       <c r="U364">
-        <v>0.9999090092241898</v>
+        <v>-9.099077581020687E-05</v>
       </c>
       <c r="V364">
-        <v>0.9997723236646782</v>
+        <v>-0.0002276763353218358</v>
       </c>
       <c r="W364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:23">
@@ -27450,7 +27450,7 @@
         <v>0.5125964341736322</v>
       </c>
       <c r="K365">
-        <v>33.88851266555285</v>
+        <v>-0.1611148733444715</v>
       </c>
       <c r="L365">
         <v>-0.01590541382965663</v>
@@ -27480,13 +27480,13 @@
         <v>-0.2374999999999829</v>
       </c>
       <c r="U365">
-        <v>0.999840751652202</v>
+        <v>-0.0001592483477980133</v>
       </c>
       <c r="V365">
-        <v>0.99965840772454</v>
+        <v>-0.0003415922754600453</v>
       </c>
       <c r="W365">
-        <v>0.9982894286691755</v>
+        <v>-0.001710571330824529</v>
       </c>
     </row>
     <row r="366" spans="1:23">
@@ -27521,7 +27521,7 @@
         <v>0.4910501668091541</v>
       </c>
       <c r="K366">
-        <v>32.93317540482229</v>
+        <v>-0.170668245951777</v>
       </c>
       <c r="L366">
         <v>-0.01737631580100034</v>
@@ -27551,13 +27551,13 @@
         <v>-0.2312499999999886</v>
       </c>
       <c r="U366">
-        <v>0.9998179729007154</v>
+        <v>-0.0001820270992846096</v>
       </c>
       <c r="V366">
-        <v>0.999612729799303</v>
+        <v>-0.0003872702006969542</v>
       </c>
       <c r="W366">
-        <v>0.9996572995202192</v>
+        <v>-0.0003427004797807998</v>
       </c>
     </row>
     <row r="367" spans="1:23">
@@ -27592,7 +27592,7 @@
         <v>0.6237878133722941</v>
       </c>
       <c r="K367">
-        <v>38.41559890000696</v>
+        <v>-0.1158440109999304</v>
       </c>
       <c r="L367">
         <v>-0.01840966551742316</v>
@@ -27622,13 +27622,13 @@
         <v>-0.1937499999999943</v>
       </c>
       <c r="U367">
-        <v>0.9998520760556648</v>
+        <v>-0.0001479239443351599</v>
       </c>
       <c r="V367">
-        <v>0.9996581586144029</v>
+        <v>-0.0003418413855971192</v>
       </c>
       <c r="W367">
-        <v>1.001028453890984</v>
+        <v>0.001028453890983938</v>
       </c>
     </row>
     <row r="368" spans="1:23">
@@ -27663,7 +27663,7 @@
         <v>0.6703624262014748</v>
       </c>
       <c r="K368">
-        <v>40.13275296942159</v>
+        <v>-0.09867247030578413</v>
       </c>
       <c r="L368">
         <v>-0.01892097953668678</v>
@@ -27693,13 +27693,13 @@
         <v>-0.1625000000000227</v>
       </c>
       <c r="U368">
-        <v>0.9998748150677138</v>
+        <v>-0.0001251849322861931</v>
       </c>
       <c r="V368">
-        <v>0.9996352445001709</v>
+        <v>-0.0003647554998290614</v>
       </c>
       <c r="W368">
-        <v>1.000342465753425</v>
+        <v>0.000342465753424781</v>
       </c>
     </row>
     <row r="369" spans="1:23">
@@ -27734,7 +27734,7 @@
         <v>0.6105016321988546</v>
       </c>
       <c r="K369">
-        <v>37.90754507745036</v>
+        <v>-0.1209245492254964</v>
       </c>
       <c r="L369">
         <v>-0.01926327961292611</v>
@@ -27764,13 +27764,13 @@
         <v>-0.1187500000000057</v>
       </c>
       <c r="U369">
-        <v>0.9998406537747982</v>
+        <v>-0.0001593462252017508</v>
       </c>
       <c r="V369">
-        <v>0.9997035280166026</v>
+        <v>-0.0002964719833974394</v>
       </c>
       <c r="W369">
-        <v>0.9993153029784319</v>
+        <v>-0.000684697021568148</v>
       </c>
     </row>
     <row r="370" spans="1:23">
@@ -27805,7 +27805,7 @@
         <v>0.6574996139212694</v>
       </c>
       <c r="K370">
-        <v>39.66816090929723</v>
+        <v>-0.1033183909070277</v>
       </c>
       <c r="L370">
         <v>-0.01928709705864768</v>
@@ -27835,13 +27835,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U370">
-        <v>0.9998406283795322</v>
+        <v>-0.000159371620467752</v>
       </c>
       <c r="V370">
-        <v>0.999817501596861</v>
+        <v>-0.0001824984031389976</v>
       </c>
       <c r="W370">
-        <v>1.000342583076396</v>
+        <v>0.0003425830763961191</v>
       </c>
     </row>
     <row r="371" spans="1:23">
@@ -27876,7 +27876,7 @@
         <v>0.6265054139288264</v>
       </c>
       <c r="K371">
-        <v>38.51849545434353</v>
+        <v>-0.1148150454565647</v>
       </c>
       <c r="L371">
         <v>-0.01917067077711363</v>
@@ -27906,13 +27906,13 @@
         <v>-0.1031250000000341</v>
       </c>
       <c r="U371">
-        <v>0.9998178319727656</v>
+        <v>-0.000182168027234364</v>
       </c>
       <c r="V371">
-        <v>0.9997946518207539</v>
+        <v>-0.000205348179246112</v>
       </c>
       <c r="W371">
-        <v>0.9996575342465752</v>
+        <v>-0.000342465753424781</v>
       </c>
     </row>
     <row r="372" spans="1:23">
@@ -27947,7 +27947,7 @@
         <v>0.5019662729368285</v>
       </c>
       <c r="K372">
-        <v>33.42060883666333</v>
+        <v>-0.1657939116333667</v>
       </c>
       <c r="L372">
         <v>-0.0195289957888779</v>
@@ -27977,13 +27977,13 @@
         <v>-0.1156249999999943</v>
       </c>
       <c r="U372">
-        <v>0.9997722484769117</v>
+        <v>-0.0002277515230882932</v>
       </c>
       <c r="V372">
-        <v>0.9997261461922911</v>
+        <v>-0.0002738538077089459</v>
       </c>
       <c r="W372">
-        <v>0.9982870846180198</v>
+        <v>-0.001712915381980151</v>
       </c>
     </row>
     <row r="373" spans="1:23">
@@ -28018,7 +28018,7 @@
         <v>0.5856647245119516</v>
       </c>
       <c r="K373">
-        <v>36.93496585113301</v>
+        <v>-0.1306503414886698</v>
       </c>
       <c r="L373">
         <v>-0.01983267734960412</v>
@@ -28048,13 +28048,13 @@
         <v>-0.09687500000001137</v>
       </c>
       <c r="U373">
-        <v>0.9997835867646221</v>
+        <v>-0.0002164132353779102</v>
       </c>
       <c r="V373">
-        <v>0.9998173807838932</v>
+        <v>-0.0001826192161068496</v>
       </c>
       <c r="W373">
-        <v>1.000686341798216</v>
+        <v>0.000686341798215695</v>
       </c>
     </row>
     <row r="374" spans="1:23">
@@ -28089,7 +28089,7 @@
         <v>0.7618719909858446</v>
       </c>
       <c r="K374">
-        <v>43.24218756434988</v>
+        <v>-0.06757812435650118</v>
       </c>
       <c r="L374">
         <v>-0.01951418580500296</v>
@@ -28119,13 +28119,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U374">
-        <v>0.9998746810061977</v>
+        <v>-0.0001253189938023036</v>
       </c>
       <c r="V374">
-        <v>0.9999771684285027</v>
+        <v>-2.283157149729487E-05</v>
       </c>
       <c r="W374">
-        <v>1.001371742112483</v>
+        <v>0.00137174211248281</v>
       </c>
     </row>
     <row r="375" spans="1:23">
@@ -28160,7 +28160,7 @@
         <v>0.8546126575510513</v>
       </c>
       <c r="K375">
-        <v>46.08038525303371</v>
+        <v>-0.03919614746966288</v>
       </c>
       <c r="L375">
         <v>-0.01851893958923615</v>
@@ -28190,13 +28190,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U375">
-        <v>0.9998518771719935</v>
+        <v>-0.0001481228280064695</v>
       </c>
       <c r="V375">
-        <v>0.9999771679072103</v>
+        <v>-2.283209278974851E-05</v>
       </c>
       <c r="W375">
-        <v>1.000684931506849</v>
+        <v>0.00068493150684934</v>
       </c>
     </row>
     <row r="376" spans="1:23">
@@ -28231,7 +28231,7 @@
         <v>0.6869576341484502</v>
       </c>
       <c r="K376">
-        <v>40.72168857371547</v>
+        <v>-0.0927831142628453</v>
       </c>
       <c r="L376">
         <v>-0.01773185169728436</v>
@@ -28261,13 +28261,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U376">
-        <v>0.9997834807183882</v>
+        <v>-0.0002165192816118156</v>
       </c>
       <c r="V376">
-        <v>0.9999086695435762</v>
+        <v>-9.133045642384374E-05</v>
       </c>
       <c r="W376">
-        <v>0.9982888432580425</v>
+        <v>-0.001711156741957542</v>
       </c>
     </row>
     <row r="377" spans="1:23">
@@ -28302,7 +28302,7 @@
         <v>0.7282579754067907</v>
       </c>
       <c r="K377">
-        <v>42.13826788418992</v>
+        <v>-0.07861732115810077</v>
       </c>
       <c r="L377">
         <v>-0.01693210200978927</v>
@@ -28332,13 +28332,13 @@
         <v>-0.05937500000001705</v>
       </c>
       <c r="U377">
-        <v>0.9998290267060282</v>
+        <v>-0.0001709732939717545</v>
       </c>
       <c r="V377">
-        <v>0.9998629918023427</v>
+        <v>-0.0001370081976572735</v>
       </c>
       <c r="W377">
-        <v>1.000342817963661</v>
+        <v>0.0003428179636613127</v>
       </c>
     </row>
   </sheetData>
